--- a/outputs/predicted_with_all_scores.xlsx
+++ b/outputs/predicted_with_all_scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L111"/>
+  <dimension ref="A1:N145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,60 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Inverse_BL</t>
+          <t>Xdonor</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CN_Reported</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Ln_Flag</t>
+          <t xml:space="preserve">D </t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>f_d_Electrons</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Chelate_Flag</t>
+          <t>A</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Xmetal</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>rion​</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>EN</t>
-        </is>
-      </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>PI_Weighted (Y)</t>
+          <t>nf</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>nd</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>PI (Y)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>material</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>predicted_score</t>
         </is>
@@ -507,130 +517,148 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.359</v>
+        <v>3.44</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0.429</v>
+        <v>2.814</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.832</v>
+        <v>1.2</v>
       </c>
       <c r="I2" t="n">
-        <v>0.156</v>
+        <v>1.066</v>
       </c>
       <c r="J2" t="n">
-        <v>8.625</v>
-      </c>
-      <c r="K2" t="inlineStr">
+        <v>6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.722993271656855</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>Eu-acac</t>
         </is>
       </c>
-      <c r="L2" t="n">
-        <v>7.954151267208658</v>
+      <c r="N2" t="n">
+        <v>0.7216042189046086</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Eu</t>
+          <t>Ir</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>0.429</v>
+        <v>4.412</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.832</v>
+        <v>2.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0.156</v>
+        <v>0.68</v>
       </c>
       <c r="J3" t="n">
-        <v>4.475</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Eu-cooh</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>4.372691734028207</v>
+        <v>0.641056378600823</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Ir-acac</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>0.6414433898726501</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Eu</t>
+          <t>Ru</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.162</v>
+        <v>3.44</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>0.429</v>
+        <v>4.412</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.832</v>
+        <v>2.2</v>
       </c>
       <c r="I4" t="n">
-        <v>0.156</v>
+        <v>0.68</v>
       </c>
       <c r="J4" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Eu-bpy</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6</v>
       </c>
       <c r="L4" t="n">
-        <v>4.490992848448045</v>
+        <v>0.63141768172888</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Ru-acac</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>0.6414433898726501</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ir</t>
+          <t>Fe</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -639,42 +667,48 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.739</v>
+        <v>3.44</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>0.429</v>
+        <v>4.651</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.036</v>
+        <v>1.83</v>
       </c>
       <c r="I5" t="n">
-        <v>0.953</v>
+        <v>0.645</v>
       </c>
       <c r="J5" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Ir-acac</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>5.710754026017996</v>
+        <v>0.706004156275977</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Fe-acac</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>0.6779590591959073</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ru</t>
+          <t>Cr</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -683,86 +717,98 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.725</v>
+        <v>3.44</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>0.429</v>
+        <v>4.878</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.027</v>
+        <v>1.66</v>
       </c>
       <c r="I6" t="n">
-        <v>0.953</v>
+        <v>0.615</v>
       </c>
       <c r="J6" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Ru-acac</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>6.172027766910614</v>
+        <v>0.634438363171355</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Cr-acac</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>0.6511145139357284</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ru</t>
+          <t>La</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.697</v>
+        <v>3.44</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>0.429</v>
+        <v>2.586</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.027</v>
+        <v>1.1</v>
       </c>
       <c r="I7" t="n">
-        <v>0.953</v>
+        <v>1.16</v>
       </c>
       <c r="J7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Ru-cooh</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1.508457621954925</v>
+        <v>0.7508962783823731</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>La-acac</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>0.7287220703388472</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fe</t>
+          <t>Ce</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -771,86 +817,98 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.76</v>
+        <v>3.44</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>0.357</v>
+        <v>2.625</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07199999999999999</v>
+        <v>1.12</v>
       </c>
       <c r="I8" t="n">
-        <v>0.648</v>
+        <v>0.97</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Fe-acac</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>4.745352650905018</v>
+        <v>0.631431592576608</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Ce-acac</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>0.6455538271454698</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fe</t>
+          <t>Ti</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.76</v>
+        <v>3.44</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>0.357</v>
+        <v>6.612</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.07199999999999999</v>
+        <v>1.54</v>
       </c>
       <c r="I9" t="n">
-        <v>0.648</v>
+        <v>0.605</v>
       </c>
       <c r="J9" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Fe-cooh</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1.613241281925844</v>
+        <v>0.6209140211640209</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Ti-acac</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>0.6262779805831837</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Cr</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -859,130 +917,148 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.83</v>
+        <v>3.44</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>0.214</v>
+        <v>2.899</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.018</v>
+        <v>1.91</v>
       </c>
       <c r="I10" t="n">
-        <v>0.516</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J10" t="n">
-        <v>5.375</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Cr-acac</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>8</v>
       </c>
       <c r="L10" t="n">
-        <v>5.450553547305887</v>
+        <v>0.6567333333333329</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Ni-acac</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>0.6499092512540642</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Cr</t>
+          <t>Mg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.76</v>
+        <v>3.44</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>0.214</v>
+        <v>2.778</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.018</v>
+        <v>1.31</v>
       </c>
       <c r="I11" t="n">
-        <v>0.516</v>
+        <v>0.72</v>
       </c>
       <c r="J11" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Cr-cooh</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>2.214208369696022</v>
+        <v>0.636899705014749</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Mg-acac</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>0.6461197818828863</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Cr</t>
+          <t>Ca</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.445</v>
+        <v>3.44</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>0.214</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.018</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.516</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Cr-CHO</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2.241612463535002</v>
+        <v>0.636039596832253</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Ca-acac</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>0.6408421341592259</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>La</t>
+          <t>Cu</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -991,86 +1067,98 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.283</v>
+        <v>3.44</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>3.509</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="I13" t="n">
-        <v>0.078</v>
+        <v>0.57</v>
       </c>
       <c r="J13" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>La-acac</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>9</v>
       </c>
       <c r="L13" t="n">
-        <v>5.382308993612297</v>
+        <v>0.67705421170012</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Cu-acac</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>0.6330705612809452</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>La</t>
+          <t>Zn</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.202</v>
+        <v>3.44</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.941</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>1.65</v>
       </c>
       <c r="I14" t="n">
-        <v>0.078</v>
+        <v>0.68</v>
       </c>
       <c r="J14" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>La-cooh</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>10</v>
       </c>
       <c r="L14" t="n">
-        <v>1.691308677520491</v>
+        <v>0.712904761904762</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Zn-acac</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>0.6420737181592181</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ce</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1079,86 +1167,98 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.417</v>
+        <v>3.44</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8</v>
+        <v>5</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07099999999999999</v>
+        <v>5.66</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.969</v>
+        <v>1.63</v>
       </c>
       <c r="I15" t="n">
-        <v>0.094</v>
+        <v>0.53</v>
       </c>
       <c r="J15" t="n">
-        <v>4.825</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Ce-acac</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>4.837982410893957</v>
+        <v>0.62074561049445</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>V-acac</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>0.6251372848800401</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ce</t>
+          <t>Mn</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.206</v>
+        <v>3.44</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07099999999999999</v>
+        <v>2.41</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.969</v>
+        <v>1.55</v>
       </c>
       <c r="I16" t="n">
-        <v>0.094</v>
+        <v>0.83</v>
       </c>
       <c r="J16" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Ce-cooh</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.797459289901331</v>
+        <v>0.642156855462705</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Mn-acac</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>0.6395060242373106</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ti</t>
+          <t>Er</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1167,86 +1267,98 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.75</v>
+        <v>3.44</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.988</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.004</v>
       </c>
       <c r="I17" t="n">
-        <v>0.422</v>
+        <v>1.004</v>
       </c>
       <c r="J17" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Ti-acac</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>4.190975946417717</v>
+        <v>0.768200974072482</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Er-acac</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>0.7240976472840855</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Ti</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>3.44</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>3.071</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.977</v>
       </c>
       <c r="I18" t="n">
-        <v>0.422</v>
+        <v>0.977</v>
       </c>
       <c r="J18" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Ti-CHO</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1.746999343469781</v>
+        <v>0.63876898270302</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Lu-acac</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>0.6519315324529048</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Ho</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1255,86 +1367,98 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.72</v>
+        <v>3.44</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>0.571</v>
+        <v>2.956</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0.153</v>
+        <v>1.015</v>
       </c>
       <c r="I19" t="n">
-        <v>0.711</v>
+        <v>1.015</v>
       </c>
       <c r="J19" t="n">
-        <v>4.875</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Ni-acac</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>5.321154913098758</v>
+        <v>0.630859115243731</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Ho-acac</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>0.6641566459088577</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Yb</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.723</v>
+        <v>3.44</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>0.571</v>
+        <v>3.046</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.153</v>
+        <v>0.985</v>
       </c>
       <c r="I20" t="n">
-        <v>0.711</v>
+        <v>0.985</v>
       </c>
       <c r="J20" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Ni-cooh</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>2.548305816664062</v>
+        <v>0.64537899147522</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Yb-acac</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>0.6519315324529048</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>Tb</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1343,42 +1467,48 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.433</v>
+        <v>3.44</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>0.214</v>
+        <v>2.885</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.711</v>
+        <v>1.2</v>
       </c>
       <c r="I21" t="n">
-        <v>0.297</v>
+        <v>1.04</v>
       </c>
       <c r="J21" t="n">
-        <v>3.725</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>U-acac</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>3.880792217532229</v>
+        <v>0.858465802735781</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Tb-acac</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>0.7238308921917972</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Mg</t>
+          <t>Co</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1387,86 +1517,98 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.728</v>
+        <v>3.44</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2.685</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.207</v>
+        <v>1.88</v>
       </c>
       <c r="I22" t="n">
-        <v>0.242</v>
+        <v>0.745</v>
       </c>
       <c r="J22" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Mg-acac</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>7</v>
       </c>
       <c r="L22" t="n">
-        <v>3.78988609825063</v>
+        <v>0.681983072916667</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Co-acac</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>0.6666322272395951</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Mg</t>
+          <t>Cd</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.698</v>
+        <v>3.44</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4</v>
+        <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.818</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.207</v>
+        <v>1.1</v>
       </c>
       <c r="I23" t="n">
-        <v>0.242</v>
+        <v>1.1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Mg-cooh</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>10</v>
       </c>
       <c r="L23" t="n">
-        <v>2.021657112229444</v>
+        <v>0.678385159010601</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Cd-acac</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>0.6869637684381064</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ca</t>
+          <t>Nb</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1475,658 +1617,748 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.43</v>
+        <v>3.44</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>6.757</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.711</v>
+        <v>0.74</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="J24" t="n">
-        <v>2.625</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Ca-acac</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>2.816349607143749</v>
+        <v>0.631159565980533</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Nb-acac</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>0.6363586371733688</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Ca</t>
+          <t>Pt</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.334</v>
+        <v>3.44</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>3.333</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.711</v>
+        <v>0.6</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J25" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Ca-CHO</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.68685906319248</v>
+        <v>0.676983645983646</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Pt-acac</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>0.6719694437392961</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Ca</t>
+          <t>Dy</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.422</v>
+        <v>3.44</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4</v>
+        <v>8</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2.921</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0.711</v>
+        <v>1.027</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.027</v>
       </c>
       <c r="J26" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Ca-cooh</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1.760135530245899</v>
+        <v>0.731057224606581</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Dy-acac</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>0.6985540479221579</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Pd</t>
+          <t>Eu</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.607</v>
+        <v>3.04</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>0.571</v>
+        <v>2.814</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.459</v>
+        <v>1.2</v>
       </c>
       <c r="I27" t="n">
-        <v>0.953</v>
+        <v>1.066</v>
       </c>
       <c r="J27" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Pd-cooh</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>2.518862977750675</v>
+        <v>0.55619877675841</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Eu-bpy</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>0.5529891494825518</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Cu</t>
+          <t>Tb</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.847</v>
+        <v>3.04</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>0.643</v>
+        <v>2.885</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.225</v>
+        <v>1.2</v>
       </c>
       <c r="I28" t="n">
-        <v>0.703</v>
+        <v>1.04</v>
       </c>
       <c r="J28" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Cu-acac</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>5.339797340136382</v>
+        <v>0.7453734316388571</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Tb-bpy</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>0.573605992810288</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Cu</t>
+          <t>Ti</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.8120000000000001</v>
+        <v>3.04</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>0.643</v>
+        <v>4.478</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.225</v>
+        <v>1.54</v>
       </c>
       <c r="I29" t="n">
-        <v>0.703</v>
+        <v>0.67</v>
       </c>
       <c r="J29" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Cu-cooh</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>2.001879005787933</v>
+        <v>0.505169632265718</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Ti-bpy</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>0.5191728051980868</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Zn</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.8149999999999999</v>
+        <v>3.04</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>0.714</v>
+        <v>2.532</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.243</v>
+        <v>1.63</v>
       </c>
       <c r="I30" t="n">
-        <v>0.508</v>
+        <v>0.79</v>
       </c>
       <c r="J30" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Zn-cooh</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3</v>
       </c>
       <c r="L30" t="n">
-        <v>4.22887344007872</v>
+        <v>0.5277809867629361</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>V-bpy</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>0.5036524015919893</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Zn</t>
+          <t>Mo</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.823</v>
+        <v>3.04</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>0.714</v>
+        <v>4.348</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.243</v>
+        <v>2.16</v>
       </c>
       <c r="I31" t="n">
-        <v>0.508</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J31" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Zn-acac</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3</v>
       </c>
       <c r="L31" t="n">
-        <v>7.391584066877348</v>
+        <v>0.508845890919899</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Mo-bpy</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>0.5051944452091723</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Cr</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.794</v>
+        <v>3.04</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>0.143</v>
+        <v>4.878</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0.063</v>
+        <v>1.66</v>
       </c>
       <c r="I32" t="n">
-        <v>0.492</v>
+        <v>0.615</v>
       </c>
       <c r="J32" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>V-acac</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3</v>
       </c>
       <c r="L32" t="n">
-        <v>5.758232792862065</v>
+        <v>0.531573148606301</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Cr-bpy</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>0.514108840484871</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Ca</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.337</v>
+        <v>3.04</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4</v>
+        <v>8</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
-        <v>0.143</v>
+        <v>1.786</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.063</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>0.492</v>
+        <v>1.12</v>
       </c>
       <c r="J33" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>V-CHO</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1.761085949409803</v>
+        <v>0.5254021101992969</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Ca-bpy</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>0.5179849766189027</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Mn</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.739</v>
+        <v>3.04</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>0.143</v>
+        <v>2.985</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.063</v>
+        <v>1.55</v>
       </c>
       <c r="I34" t="n">
-        <v>0.492</v>
+        <v>0.67</v>
       </c>
       <c r="J34" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>V-cooh</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>5</v>
       </c>
       <c r="L34" t="n">
-        <v>1.551541057717377</v>
+        <v>0.515374411933448</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Mn-bpy</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>0.5082313734016429</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Mn</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.465</v>
+        <v>3.04</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
-        <v>0.357</v>
+        <v>2.899</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.405</v>
+        <v>1.91</v>
       </c>
       <c r="I35" t="n">
-        <v>0.43</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J35" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Mn-cooh</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>8</v>
       </c>
       <c r="L35" t="n">
-        <v>2.385651922369166</v>
+        <v>0.537283864921635</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Ni-bpy</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>0.5098675294279974</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Mn</t>
+          <t>Fe</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.586</v>
+        <v>3.04</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>0.357</v>
+        <v>3.279</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.405</v>
+        <v>1.83</v>
       </c>
       <c r="I36" t="n">
-        <v>0.43</v>
+        <v>0.61</v>
       </c>
       <c r="J36" t="n">
-        <v>5.475</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Mn-acac</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>6</v>
       </c>
       <c r="L36" t="n">
-        <v>5.37662573289747</v>
+        <v>0.5402997626314</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Fe-bpy</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>0.5118257298664793</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Mn</t>
+          <t>Co</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.5600000000000001</v>
+        <v>3.04</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>0.357</v>
+        <v>3.077</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.405</v>
+        <v>1.88</v>
       </c>
       <c r="I37" t="n">
-        <v>0.43</v>
+        <v>0.65</v>
       </c>
       <c r="J37" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Mn-CHO</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>7</v>
       </c>
       <c r="L37" t="n">
-        <v>2.406633287864738</v>
+        <v>0.523298449612403</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Co-bpy</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>0.508225473940794</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Tb</t>
+          <t>Ce</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.37</v>
+        <v>3.04</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>0.571</v>
+        <v>2.625</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0.784</v>
+        <v>1.143</v>
       </c>
       <c r="I38" t="n">
-        <v>0.078</v>
+        <v>1.143</v>
       </c>
       <c r="J38" t="n">
-        <v>9.425000000000001</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Tb-acac</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>8.026733513982165</v>
+        <v>0.519119219561637</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Ce-bpy</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>0.4981591872114713</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Tb</t>
+          <t>Er</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2135,344 +2367,392 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.192</v>
+        <v>3.04</v>
       </c>
       <c r="D39" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>0.571</v>
+        <v>2.988</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>0.784</v>
+        <v>1.004</v>
       </c>
       <c r="I39" t="n">
-        <v>0.078</v>
+        <v>1.004</v>
       </c>
       <c r="J39" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Tb-bpy</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>4.506634824965025</v>
+        <v>0.515907223326706</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Er-bpy</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>0.4985173014714777</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Tb</t>
+          <t>Dy</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.386</v>
+        <v>3.04</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>0.571</v>
+        <v>2.921</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.784</v>
+        <v>1.027</v>
       </c>
       <c r="I40" t="n">
-        <v>0.078</v>
+        <v>1.027</v>
       </c>
       <c r="J40" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Tb-cooh</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>5.937389267601095</v>
+        <v>0.5129169879208429</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Dy-bpy</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>0.5020505401064346</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Co</t>
+          <t>Zn</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.71</v>
+        <v>3.04</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5</v>
+        <v>2.703</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.252</v>
+        <v>0.74</v>
       </c>
       <c r="I41" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="J41" t="n">
-        <v>5.325</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>Co-acac</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>10</v>
       </c>
       <c r="L41" t="n">
-        <v>5.420277381428176</v>
+        <v>0.5702829967120711</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Zn-bpy</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>0.6037391012816996</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Co</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.709</v>
+        <v>3.04</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4</v>
+        <v>8</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5</v>
+        <v>3.071</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.252</v>
+        <v>0.977</v>
       </c>
       <c r="I42" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.977</v>
       </c>
       <c r="J42" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>Co-cooh</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>2.046465440332903</v>
+        <v>0.511687830687831</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Lu-bpy</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>0.5054014788285619</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Mo</t>
+          <t>Zr</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.634</v>
+        <v>3.04</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
-        <v>0.286</v>
+        <v>5.556</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.153</v>
+        <v>0.72</v>
       </c>
       <c r="I43" t="n">
-        <v>0.906</v>
+        <v>0.72</v>
       </c>
       <c r="J43" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Mo-cooh</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>3.277220291457192</v>
+        <v>0.598068595927117</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Zr-bpy</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>0.5201108042710217</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Pr</t>
+          <t>Ru</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.336</v>
+        <v>3.04</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>0.143</v>
+        <v>2.941</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="I44" t="n">
-        <v>0.102</v>
+        <v>0.68</v>
       </c>
       <c r="J44" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Pr-acac</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>6</v>
       </c>
       <c r="L44" t="n">
-        <v>7.956655298963112</v>
+        <v>0.6408996364785839</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Ru-bpy</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>0.5602829638920505</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Nd</t>
+          <t>Rh</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.35</v>
+        <v>3.04</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>0.214</v>
+        <v>4.511</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>0.909</v>
+        <v>0.665</v>
       </c>
       <c r="I45" t="n">
-        <v>0.109</v>
+        <v>0.665</v>
       </c>
       <c r="J45" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Nd-acac</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>6</v>
       </c>
       <c r="L45" t="n">
-        <v>7.956655298963112</v>
+        <v>0.528337164750958</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Rh-bpy</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>0.5272253564049482</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Pm</t>
+          <t>Nd</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.358</v>
+        <v>3.04</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>0.286</v>
+        <v>2.705</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.88</v>
+        <v>1.109</v>
       </c>
       <c r="I46" t="n">
-        <v>0.102</v>
+        <v>1.109</v>
       </c>
       <c r="J46" t="n">
-        <v>8</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Pm-acac</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>7.888393592455669</v>
+        <v>0.509122421078797</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Nd-bpy</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>0.4926921876344575</v>
       </c>
     </row>
     <row r="47">
@@ -2483,392 +2763,446 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.366</v>
+        <v>3.04</v>
       </c>
       <c r="D47" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47" t="n">
-        <v>0.357</v>
+        <v>2.78</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>0.855</v>
+        <v>1.079</v>
       </c>
       <c r="I47" t="n">
-        <v>0.133</v>
+        <v>1.079</v>
       </c>
       <c r="J47" t="n">
-        <v>7.975</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Sm-acac</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>7.832148530707952</v>
+        <v>0.513126088602802</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Sm-bpy</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>0.4692575308782474</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Gd</t>
+          <t>Ho</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.381</v>
+        <v>3.04</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>0.5</v>
+        <v>2.956</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.805</v>
+        <v>1.015</v>
       </c>
       <c r="I48" t="n">
-        <v>0.156</v>
+        <v>1.015</v>
       </c>
       <c r="J48" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>Gd-acac</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>7.697677764657134</v>
+        <v>0.509970721596062</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Ho-bpy</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>0.4785311700364979</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Dy</t>
+          <t>Yb</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.389</v>
+        <v>3.04</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
-        <v>0.643</v>
+        <v>3.046</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0.761</v>
+        <v>0.985</v>
       </c>
       <c r="I49" t="n">
-        <v>0.172</v>
+        <v>0.985</v>
       </c>
       <c r="J49" t="n">
-        <v>8.065</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Dy-acac</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>8.0175065697651</v>
+        <v>0.528772277227723</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Yb-bpy</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>0.4966570819258145</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Ho</t>
+          <t>In</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.395</v>
+        <v>3.04</v>
       </c>
       <c r="D50" t="n">
+        <v>6</v>
+      </c>
+      <c r="E50" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" t="n">
         <v>0.8</v>
       </c>
-      <c r="E50" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.714</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.739</v>
-      </c>
       <c r="I50" t="n">
-        <v>0.18</v>
+        <v>0.8</v>
       </c>
       <c r="J50" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Ho-acac</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>10</v>
       </c>
       <c r="L50" t="n">
-        <v>8.018718592388979</v>
+        <v>0.52730252729176</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>In-bpy</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>0.5295536011976366</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Er</t>
+          <t>Cu</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.402</v>
+        <v>3.04</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8</v>
+        <v>4</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" t="n">
-        <v>0.786</v>
+        <v>3.509</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0.719</v>
+        <v>0.57</v>
       </c>
       <c r="I51" t="n">
-        <v>0.188</v>
+        <v>0.57</v>
       </c>
       <c r="J51" t="n">
-        <v>8.074999999999999</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Er-acac</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>9</v>
       </c>
       <c r="L51" t="n">
-        <v>8.018718592388979</v>
+        <v>0.495517345399698</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Cu-bpy</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>0.4895338020397178</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Tm</t>
+          <t>La</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.41</v>
+        <v>3.04</v>
       </c>
       <c r="D52" t="n">
-        <v>0.6</v>
+        <v>8</v>
       </c>
       <c r="E52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" t="n">
-        <v>0.857</v>
+        <v>2.586</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.701</v>
+        <v>1.16</v>
       </c>
       <c r="I52" t="n">
-        <v>0.195</v>
+        <v>1.16</v>
       </c>
       <c r="J52" t="n">
-        <v>8.085000000000001</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Tm-acac</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>7.902210955515407</v>
+        <v>0.516547021356313</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>La-bpy</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>0.5000582360054923</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Yb</t>
+          <t>Cd</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.415</v>
+        <v>3.04</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" t="n">
-        <v>0.929</v>
+        <v>2.105</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.6850000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="I53" t="n">
-        <v>0.078</v>
+        <v>0.95</v>
       </c>
       <c r="J53" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Yb-acac</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>10</v>
       </c>
       <c r="L53" t="n">
-        <v>7.80852843953296</v>
+        <v>0.575463347763348</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Cd-bpy</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>0.5248133319975705</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>Pt</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.415</v>
+        <v>3.04</v>
       </c>
       <c r="D54" t="n">
+        <v>4</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="n">
         <v>0.6</v>
       </c>
-      <c r="E54" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.671</v>
-      </c>
       <c r="I54" t="n">
-        <v>0.211</v>
+        <v>0.6</v>
       </c>
       <c r="J54" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Lu-acac</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>8</v>
       </c>
       <c r="L54" t="n">
-        <v>7.676767154035876</v>
+        <v>0.553275132275132</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Pt-bpy</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>0.5148541171681049</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Tb</t>
+          <t>Ir</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.254</v>
+        <v>3.04</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>0.571</v>
+        <v>4.412</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.784</v>
+        <v>0.68</v>
       </c>
       <c r="I55" t="n">
-        <v>0.078</v>
+        <v>0.68</v>
       </c>
       <c r="J55" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>Tb-phen</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>6</v>
       </c>
       <c r="L55" t="n">
-        <v>9.161343789190699</v>
+        <v>0.585327218641547</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Ir-bpy</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>0.5269034599700443</v>
       </c>
     </row>
     <row r="56">
@@ -2879,486 +3213,552 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.25</v>
+        <v>3.44</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>0.429</v>
+        <v>2.679</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.832</v>
+        <v>1.2</v>
       </c>
       <c r="I56" t="n">
-        <v>0.156</v>
+        <v>1.12</v>
       </c>
       <c r="J56" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Eu-phen</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>9.123361760830393</v>
+        <v>0.509222222222222</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Eu-cooh</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>0.5315632827888637</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Pr</t>
+          <t>Ru</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.264</v>
+        <v>3.44</v>
       </c>
       <c r="D57" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F57" t="n">
-        <v>0.143</v>
+        <v>4.412</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9389999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="I57" t="n">
-        <v>0.102</v>
+        <v>0.68</v>
       </c>
       <c r="J57" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Pr-phen</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>6</v>
       </c>
       <c r="L57" t="n">
-        <v>7.889460126653197</v>
+        <v>0.511971830985916</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Ru-cooh</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>0.5060512038627285</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Nd</t>
+          <t>Fe</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.275</v>
+        <v>3.44</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" t="n">
-        <v>0.214</v>
+        <v>4.651</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.909</v>
+        <v>1.83</v>
       </c>
       <c r="I58" t="n">
-        <v>0.109</v>
+        <v>0.645</v>
       </c>
       <c r="J58" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Nd-phen</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>5</v>
       </c>
       <c r="L58" t="n">
-        <v>7.889460126653197</v>
+        <v>0.515533333333333</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Fe-cooh</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>0.5431926281468733</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Gd</t>
+          <t>Cr</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.295</v>
+        <v>3.44</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59" t="n">
-        <v>0.5</v>
+        <v>4.878</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.805</v>
+        <v>1.66</v>
       </c>
       <c r="I59" t="n">
-        <v>0.156</v>
+        <v>0.615</v>
       </c>
       <c r="J59" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Gd-phen</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3</v>
       </c>
       <c r="L59" t="n">
-        <v>7.494703393722633</v>
+        <v>0.510016625103907</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Cr-cooh</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>0.5168888521824672</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>La</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.305</v>
+        <v>3.44</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
       <c r="E60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>2.467</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.671</v>
+        <v>1.1</v>
       </c>
       <c r="I60" t="n">
-        <v>0.211</v>
+        <v>1.216</v>
       </c>
       <c r="J60" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Lu-phen</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>7.563361474293536</v>
+        <v>0.515814526588846</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>La-cooh</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>0.5156925610049812</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Zr</t>
+          <t>Ce</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.548</v>
+        <v>3.44</v>
       </c>
       <c r="D61" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>2.508</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.423</v>
+        <v>1.12</v>
       </c>
       <c r="I61" t="n">
-        <v>0.258</v>
+        <v>1.196</v>
       </c>
       <c r="J61" t="n">
-        <v>6</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Zr-acac</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>5.656381201935908</v>
+        <v>0.516177083333333</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Ce-cooh</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>0.5138726254428508</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Ru</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.709</v>
+        <v>3.44</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F62" t="n">
-        <v>0.429</v>
+        <v>2.899</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.027</v>
+        <v>1.91</v>
       </c>
       <c r="I62" t="n">
-        <v>0.953</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J62" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Ru-phen</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>8</v>
       </c>
       <c r="L62" t="n">
-        <v>7.056417983676484</v>
+        <v>0.516693784756297</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Ni-cooh</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>0.5173166495373986</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Ir</t>
+          <t>Mg</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.745</v>
+        <v>3.44</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
-        <v>0.429</v>
+        <v>2.778</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.036</v>
+        <v>1.31</v>
       </c>
       <c r="I63" t="n">
-        <v>0.953</v>
+        <v>0.72</v>
       </c>
       <c r="J63" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Ir-phen</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>7.511683543316413</v>
+        <v>0.52152886405959</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Mg-cooh</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>0.5152847683084024</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Pt</t>
+          <t>Ca</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>glycine</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.709</v>
+        <v>3.44</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
-        <v>0.571</v>
+        <v>2</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.351</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Pt-glycine</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>5.729133446839227</v>
+        <v>0.523686190066035</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Ca-cooh</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>0.5150100162959581</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Pt</t>
+          <t>Pd</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.732</v>
+        <v>3.44</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F65" t="n">
-        <v>0.571</v>
+        <v>3.125</v>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.351</v>
+        <v>2.2</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="J65" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Pt-acac</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>8</v>
       </c>
       <c r="L65" t="n">
-        <v>5.56680647420051</v>
+        <v>0.493728103044497</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Pd-cooh</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>0.5041669732737121</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Cu</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.443</v>
+        <v>3.44</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F66" t="n">
-        <v>0.714</v>
+        <v>3.509</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.622</v>
+        <v>1.9</v>
       </c>
       <c r="I66" t="n">
-        <v>0.539</v>
+        <v>0.57</v>
       </c>
       <c r="J66" t="n">
-        <v>5.175</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Cd-acac</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>9</v>
       </c>
       <c r="L66" t="n">
-        <v>5.29863033412189</v>
+        <v>0.505939488731921</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Cu-cooh</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>0.498844899527684</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Zn</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3367,124 +3767,142 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.453</v>
+        <v>3.44</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F67" t="n">
-        <v>0.714</v>
+        <v>3.333</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.622</v>
+        <v>1.65</v>
       </c>
       <c r="I67" t="n">
-        <v>0.539</v>
+        <v>0.6</v>
       </c>
       <c r="J67" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>Cd-cooh</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>10</v>
       </c>
       <c r="L67" t="n">
-        <v>2.076336055303786</v>
+        <v>0.520119132350449</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Zn-cooh</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>0.5235936858013011</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>glycine</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.432</v>
+        <v>3.44</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F68" t="n">
-        <v>0.714</v>
+        <v>4.688</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.622</v>
+        <v>1.63</v>
       </c>
       <c r="I68" t="n">
-        <v>0.539</v>
+        <v>0.64</v>
       </c>
       <c r="J68" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>Cd-glycine</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>2</v>
       </c>
       <c r="L68" t="n">
-        <v>5.29863033412189</v>
+        <v>0.510605349794239</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>V-cooh</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>0.5163480828866944</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>La</t>
+          <t>Mn</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>glycine</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.373</v>
+        <v>3.44</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6</v>
+        <v>6</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>1.55</v>
       </c>
       <c r="I69" t="n">
-        <v>0.078</v>
+        <v>0.83</v>
       </c>
       <c r="J69" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>La-glycine</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>5</v>
       </c>
       <c r="L69" t="n">
-        <v>5.23583004303986</v>
+        <v>0.5035918907007489</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Mn-cooh</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>0.5043174141703338</v>
       </c>
     </row>
     <row r="70">
@@ -3495,480 +3913,546 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>glycine</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.434</v>
+        <v>3.44</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
       <c r="E70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" t="n">
-        <v>0.571</v>
+        <v>2.74</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.784</v>
+        <v>1.2</v>
       </c>
       <c r="I70" t="n">
-        <v>0.078</v>
+        <v>1.095</v>
       </c>
       <c r="J70" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>Tb-glycine</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>6.47064124353182</v>
+        <v>0.596475177304965</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Tb-cooh</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>0.6008482406412768</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Zn</t>
+          <t>Co</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>glycine</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.615</v>
+        <v>3.44</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F71" t="n">
-        <v>0.714</v>
+        <v>2.685</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.243</v>
+        <v>1.88</v>
       </c>
       <c r="I71" t="n">
-        <v>0.508</v>
+        <v>0.745</v>
       </c>
       <c r="J71" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>Zn-glycine</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>7</v>
       </c>
       <c r="L71" t="n">
-        <v>7.262270622642395</v>
+        <v>0.520066795366795</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Co-cooh</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>0.5283338007567093</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Cu</t>
+          <t>Mo</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>glycine</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.675</v>
+        <v>3.44</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>0.643</v>
+        <v>4.348</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.225</v>
+        <v>2.16</v>
       </c>
       <c r="I72" t="n">
-        <v>0.703</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J72" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Cu-glycine</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>3</v>
       </c>
       <c r="L72" t="n">
-        <v>5.419622345732557</v>
+        <v>0.50530303030303</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Mo-cooh</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>0.5081793466256406</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Mn</t>
+          <t>Sm</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>glycine</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.491</v>
+        <v>3.44</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4</v>
+        <v>9</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>0.357</v>
+        <v>2.65</v>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.405</v>
+        <v>1.17</v>
       </c>
       <c r="I73" t="n">
-        <v>0.43</v>
+        <v>1.132</v>
       </c>
       <c r="J73" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Mn-glycine</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>5.331762648176361</v>
+        <v>0.5171961414791</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Sm-cooh</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>0.5165312246857545</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Fe</t>
+          <t>Tm</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>glycine</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.719</v>
+        <v>3.44</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4</v>
+        <v>9</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
-        <v>0.357</v>
+        <v>2.852</v>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.07199999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="I74" t="n">
-        <v>0.648</v>
+        <v>1.052</v>
       </c>
       <c r="J74" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>Fe-glycine</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>5.25151413673296</v>
+        <v>0.508939948488546</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Tm-cooh</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>0.5085618348068144</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>La</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>oxalate</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.295</v>
+        <v>3.44</v>
       </c>
       <c r="D75" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>2.907</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="I75" t="n">
-        <v>0.078</v>
+        <v>1.032</v>
       </c>
       <c r="J75" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>La-oxalate</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>5.382308993612297</v>
+        <v>0.518162515829464</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Lu-cooh</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>0.5070030893765975</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Tb</t>
+          <t>Ho</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>oxalate</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.357</v>
+        <v>3.44</v>
       </c>
       <c r="D76" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
-        <v>0.571</v>
+        <v>2.799</v>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.784</v>
+        <v>1.23</v>
       </c>
       <c r="I76" t="n">
-        <v>0.078</v>
+        <v>1.072</v>
       </c>
       <c r="J76" t="n">
-        <v>8.625</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>Tb-oxalate</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>8.063824013704767</v>
+        <v>0.509660468876314</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Ho-cooh</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>0.5119143025151676</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Zn</t>
+          <t>Gd</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>oxalate</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.677</v>
+        <v>3.44</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4</v>
+        <v>9</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F77" t="n">
-        <v>0.714</v>
+        <v>2.71</v>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.243</v>
+        <v>1.2</v>
       </c>
       <c r="I77" t="n">
-        <v>0.508</v>
+        <v>1.107</v>
       </c>
       <c r="J77" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>Zn-oxalate</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>7.180342866701795</v>
+        <v>0.5092948207171319</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Gd-cooh</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>0.4976776392719747</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Cu</t>
+          <t>Er</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>oxalate</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.745</v>
+        <v>3.44</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4</v>
+        <v>9</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F78" t="n">
-        <v>0.643</v>
+        <v>2.825</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.225</v>
+        <v>1.24</v>
       </c>
       <c r="I78" t="n">
-        <v>0.703</v>
+        <v>1.062</v>
       </c>
       <c r="J78" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>Cu-oxalate</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>5.979909761120762</v>
+        <v>0.514333745025388</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Er-cooh</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>0.5218581813293497</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Fe</t>
+          <t>Tb</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>oxalate</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.796</v>
+        <v>3.44</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4</v>
+        <v>9</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F79" t="n">
-        <v>0.357</v>
+        <v>2.74</v>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.07199999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="I79" t="n">
-        <v>0.648</v>
+        <v>1.095</v>
       </c>
       <c r="J79" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>Fe-oxalate</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>5.849488090529901</v>
+        <v>0.600494728304947</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Tb-cooh</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>0.6008482406412768</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Cr</t>
+          <t>Dy</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>oxalate</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.849</v>
+        <v>3.44</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4</v>
+        <v>9</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F80" t="n">
-        <v>0.214</v>
+        <v>2.77</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.018</v>
+        <v>1.22</v>
       </c>
       <c r="I80" t="n">
-        <v>0.516</v>
+        <v>1.083</v>
       </c>
       <c r="J80" t="n">
-        <v>6.05</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>Cr-oxalate</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>5.450553547305887</v>
+        <v>0.489039128829826</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Dy-cooh</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>0.5209755604822143</v>
       </c>
     </row>
     <row r="81">
@@ -3983,36 +4467,42 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.208</v>
+        <v>3.44</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4</v>
+        <v>9</v>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
-        <v>0.143</v>
+        <v>2.545</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.9389999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="I81" t="n">
-        <v>0.102</v>
+        <v>1.179</v>
       </c>
       <c r="J81" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K81" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.50731488598514</v>
+      </c>
+      <c r="M81" t="inlineStr">
         <is>
           <t>Pr-cooh</t>
         </is>
       </c>
-      <c r="L81" t="n">
-        <v>2.117669415060066</v>
+      <c r="N81" t="n">
+        <v>0.5105591592754913</v>
       </c>
     </row>
     <row r="82">
@@ -4027,42 +4517,48 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.213</v>
+        <v>3.44</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4</v>
+        <v>9</v>
       </c>
       <c r="E82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" t="n">
-        <v>0.214</v>
+        <v>2.58</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.909</v>
+        <v>1.163</v>
       </c>
       <c r="I82" t="n">
-        <v>0.109</v>
+        <v>1.163</v>
       </c>
       <c r="J82" t="n">
-        <v>2.925</v>
-      </c>
-      <c r="K82" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.523848238482385</v>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>Nd-cooh</t>
         </is>
       </c>
-      <c r="L82" t="n">
-        <v>2.694064173070639</v>
+      <c r="N82" t="n">
+        <v>0.5179601082726524</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Pm</t>
+          <t>Cd</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4071,42 +4567,48 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.218</v>
+        <v>3.44</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F83" t="n">
-        <v>0.286</v>
+        <v>2.105</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="I83" t="n">
-        <v>0.102</v>
+        <v>0.95</v>
       </c>
       <c r="J83" t="n">
-        <v>2.935</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>Pm-cooh</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>10</v>
       </c>
       <c r="L83" t="n">
-        <v>2.848178395209167</v>
+        <v>0.494868365180467</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Cd-cooh</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>0.5041221468276936</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sm</t>
+          <t>Ir</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4115,42 +4617,48 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.223</v>
+        <v>3.44</v>
       </c>
       <c r="D84" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F84" t="n">
-        <v>0.357</v>
+        <v>4.412</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.855</v>
+        <v>0.68</v>
       </c>
       <c r="I84" t="n">
-        <v>0.133</v>
+        <v>0.68</v>
       </c>
       <c r="J84" t="n">
-        <v>2.975</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>Sm-cooh</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>6</v>
       </c>
       <c r="L84" t="n">
-        <v>2.823947233119564</v>
+        <v>0.5127523717639491</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Ir-cooh</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>0.5623336981660388</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Gd</t>
+          <t>Zr</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4159,1048 +4667,1192 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.231</v>
+        <v>3.44</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5</v>
+        <v>5.556</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.805</v>
+        <v>0.72</v>
       </c>
       <c r="I85" t="n">
-        <v>0.156</v>
+        <v>0.72</v>
       </c>
       <c r="J85" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>Gd-cooh</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>2.486977091949622</v>
+        <v>0.615964757709251</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Zr-cooh</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>0.6092490760484891</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Dy</t>
+          <t>Cu</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.236</v>
+        <v>3.04</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4</v>
+        <v>5</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F86" t="n">
-        <v>0.643</v>
+        <v>3.077</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.761</v>
+        <v>1.9</v>
       </c>
       <c r="I86" t="n">
-        <v>0.172</v>
+        <v>0.65</v>
       </c>
       <c r="J86" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>Dy-cooh</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>9</v>
       </c>
       <c r="L86" t="n">
-        <v>2.901599354189149</v>
+        <v>0.468654761904762</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Cu-tpy</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>0.4809362806594413</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Ho</t>
+          <t>Pd</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.238</v>
+        <v>3.04</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F87" t="n">
-        <v>0.714</v>
+        <v>3.125</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0.739</v>
+        <v>2.2</v>
       </c>
       <c r="I87" t="n">
-        <v>0.18</v>
+        <v>0.64</v>
       </c>
       <c r="J87" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>Ho-cooh</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>8</v>
       </c>
       <c r="L87" t="n">
-        <v>3.223165620655075</v>
+        <v>0.500687427912341</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Pd-tpy</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>0.4915446022158669</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Er</t>
+          <t>Sm</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0.244</v>
+        <v>3.04</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4</v>
+        <v>9</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
-        <v>0.786</v>
+        <v>2.65</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>0.719</v>
+        <v>1.17</v>
       </c>
       <c r="I88" t="n">
-        <v>0.188</v>
+        <v>1.132</v>
       </c>
       <c r="J88" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>Er-cooh</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>3.257956613708799</v>
+        <v>0.515556193472277</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Sm-tpy</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>0.5121863118629094</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Tm</t>
+          <t>Cr</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.249</v>
+        <v>3.04</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F89" t="n">
-        <v>0.857</v>
+        <v>4.878</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.701</v>
+        <v>1.66</v>
       </c>
       <c r="I89" t="n">
-        <v>0.195</v>
+        <v>0.615</v>
       </c>
       <c r="J89" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>Tm-cooh</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>3</v>
       </c>
       <c r="L89" t="n">
-        <v>3.174245430248077</v>
+        <v>0.491597606339964</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Cr-tpy</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>0.4967785515562734</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Yb</t>
+          <t>Ti</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.254</v>
+        <v>3.04</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F90" t="n">
-        <v>0.929</v>
+        <v>6.612</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0.6850000000000001</v>
+        <v>1.54</v>
       </c>
       <c r="I90" t="n">
-        <v>0.078</v>
+        <v>0.605</v>
       </c>
       <c r="J90" t="n">
-        <v>2.725</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>Yb-cooh</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>2.894547278058006</v>
+        <v>0.476920099875156</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Ti-tpy</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>0.4791906400389588</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.257</v>
+        <v>3.04</v>
       </c>
       <c r="D91" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="E91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>2.532</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.671</v>
+        <v>1.63</v>
       </c>
       <c r="I91" t="n">
-        <v>0.211</v>
+        <v>0.64</v>
       </c>
       <c r="J91" t="n">
-        <v>2.775</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>Lu-cooh</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>2</v>
       </c>
       <c r="L91" t="n">
-        <v>2.842729946676289</v>
+        <v>0.491043408617652</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>V-tpy</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>0.4951872832345489</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Mo</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>glycine</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.5639999999999999</v>
+        <v>3.04</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
-        <v>0.143</v>
+        <v>4.348</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0.063</v>
+        <v>2.16</v>
       </c>
       <c r="I92" t="n">
-        <v>0.492</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J92" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>V-glycine</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>3</v>
       </c>
       <c r="L92" t="n">
-        <v>5.424799686728949</v>
+        <v>0.479833030852995</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>Mo-tpy</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>0.4878641562805746</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Ti</t>
+          <t>W</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>glycine</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.615</v>
+        <v>3.04</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="I93" t="n">
-        <v>0.422</v>
+        <v>0.6</v>
       </c>
       <c r="J93" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Ti-glycine</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>5.409701450282119</v>
+        <v>0.370939632545932</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>W-tpy</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>0.3726061428810776</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Ir</t>
+          <t>Fe</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.72</v>
+        <v>3.04</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F94" t="n">
-        <v>0.429</v>
+        <v>3.279</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.036</v>
+        <v>1.83</v>
       </c>
       <c r="I94" t="n">
-        <v>0.953</v>
+        <v>0.61</v>
       </c>
       <c r="J94" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>Ir-phen</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>6</v>
       </c>
       <c r="L94" t="n">
-        <v>7.070122995428948</v>
+        <v>0.502115591397849</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Fe-tpy</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>0.4955277130994976</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Ru</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>glycine</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.672</v>
+        <v>3.04</v>
       </c>
       <c r="D95" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F95" t="n">
-        <v>0.429</v>
+        <v>2.899</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.027</v>
+        <v>1.91</v>
       </c>
       <c r="I95" t="n">
-        <v>0.953</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J95" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>Ru-glycine</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>8</v>
       </c>
       <c r="L95" t="n">
-        <v>6.108782540230128</v>
+        <v>0.493516154452325</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Ni-tpy</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>0.4935695126610156</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Mo</t>
+          <t>Ca</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.665</v>
+        <v>3.04</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4</v>
+        <v>9</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F96" t="n">
-        <v>0.286</v>
+        <v>1.695</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.153</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>0.906</v>
+        <v>1.18</v>
       </c>
       <c r="J96" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>Mo-acac</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>5.806190182458089</v>
+        <v>0.509201383551114</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Ca-tpy</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>0.5148944367999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Mn</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>glycine</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.641</v>
+        <v>3.04</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F97" t="n">
-        <v>0.571</v>
+        <v>2.985</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.153</v>
+        <v>1.55</v>
       </c>
       <c r="I97" t="n">
-        <v>0.711</v>
+        <v>0.67</v>
       </c>
       <c r="J97" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>Ni-glycine</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>5</v>
       </c>
       <c r="L97" t="n">
-        <v>5.666477557391369</v>
+        <v>0.471207014415218</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Mn-tpy</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>0.4909010844730454</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Pt</t>
+          <t>Tm</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.72</v>
+        <v>3.04</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F98" t="n">
-        <v>0.571</v>
+        <v>2.852</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0.351</v>
+        <v>1.25</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>1.052</v>
       </c>
       <c r="J98" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>Pt-phen</t>
-        </is>
+        <v>12</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>5.70564156271894</v>
+        <v>0.488011630980703</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Tm-tpy</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>0.487843350605535</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Pd</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.641</v>
+        <v>3.04</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F99" t="n">
-        <v>0.571</v>
+        <v>2.907</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0.459</v>
+        <v>1.27</v>
       </c>
       <c r="I99" t="n">
-        <v>0.953</v>
+        <v>1.032</v>
       </c>
       <c r="J99" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>Pd-phen</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>5.434076476067667</v>
+        <v>0.488202572347267</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Lu-tpy</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>0.4946853419410153</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Cr</t>
+          <t>Zn</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>glycine</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.771</v>
+        <v>3.04</v>
       </c>
       <c r="D100" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F100" t="n">
-        <v>0.214</v>
+        <v>2.703</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0.018</v>
+        <v>1.65</v>
       </c>
       <c r="I100" t="n">
-        <v>0.516</v>
+        <v>0.74</v>
       </c>
       <c r="J100" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>Cr-glycine</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>10</v>
       </c>
       <c r="L100" t="n">
-        <v>5.799291513381621</v>
+        <v>0.512725768321513</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Zn-tpy</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>0.5134296949906539</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Fe</t>
+          <t>Ho</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>glycine</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>0.719</v>
+        <v>3.04</v>
       </c>
       <c r="D101" t="n">
-        <v>0.4</v>
+        <v>9</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F101" t="n">
-        <v>0.357</v>
+        <v>2.799</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.07199999999999999</v>
+        <v>1.23</v>
       </c>
       <c r="I101" t="n">
-        <v>0.648</v>
+        <v>1.072</v>
       </c>
       <c r="J101" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>Fe-glycine</t>
-        </is>
+        <v>10</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>5.25151413673296</v>
+        <v>0.489596837944664</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>Ho-tpy</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>0.493739893187835</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>Zr</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.357</v>
+        <v>3.04</v>
       </c>
       <c r="D102" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="E102" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F102" t="n">
-        <v>0.214</v>
+        <v>5.556</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
       </c>
       <c r="H102" t="n">
-        <v>0.711</v>
+        <v>1.33</v>
       </c>
       <c r="I102" t="n">
-        <v>0.297</v>
+        <v>0.72</v>
       </c>
       <c r="J102" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>U-phen</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>5.476642760011056</v>
+        <v>0.619316717237393</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>Zr-tpy</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>0.5009395385306762</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Co</t>
+          <t>Ce</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>glycine</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.672</v>
+        <v>3.04</v>
       </c>
       <c r="D103" t="n">
-        <v>0.4</v>
+        <v>9</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F103" t="n">
-        <v>0.5</v>
+        <v>2.508</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>0.252</v>
+        <v>1.12</v>
       </c>
       <c r="I103" t="n">
-        <v>0.6879999999999999</v>
+        <v>1.196</v>
       </c>
       <c r="J103" t="n">
-        <v>5.375</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>Co-glycine</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
       </c>
       <c r="L103" t="n">
-        <v>5.481275240935515</v>
+        <v>0.498353535353535</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>Ce-tpy</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>0.492036761954636</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Mn</t>
+          <t>Co</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>oxalate</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.46</v>
+        <v>3.04</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F104" t="n">
-        <v>0.357</v>
+        <v>3.077</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>0.405</v>
+        <v>1.88</v>
       </c>
       <c r="I104" t="n">
-        <v>0.43</v>
+        <v>0.65</v>
       </c>
       <c r="J104" t="n">
-        <v>5.475</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>Mn-oxalate</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>7</v>
       </c>
       <c r="L104" t="n">
-        <v>5.331762648176361</v>
+        <v>0.485025207452638</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Co-tpy</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>0.4919274571738123</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Pr</t>
+          <t>Gd</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>oxalate</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.305</v>
+        <v>3.04</v>
       </c>
       <c r="D105" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
       <c r="E105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F105" t="n">
-        <v>0.143</v>
+        <v>2.71</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>0.9389999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="I105" t="n">
-        <v>0.102</v>
+        <v>1.107</v>
       </c>
       <c r="J105" t="n">
-        <v>8.074999999999999</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>Pr-oxalate</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>7.956655298963112</v>
+        <v>0.482678178562292</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>Gd-tpy</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>0.5087055788850653</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Nd</t>
+          <t>In</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>oxalate</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.331</v>
+        <v>3.04</v>
       </c>
       <c r="D106" t="n">
+        <v>6</v>
+      </c>
+      <c r="E106" t="n">
+        <v>3</v>
+      </c>
+      <c r="F106" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="I106" t="n">
         <v>0.8</v>
       </c>
-      <c r="E106" t="n">
-        <v>1</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0.214</v>
-      </c>
-      <c r="G106" t="n">
-        <v>1</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0.909</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0.109</v>
-      </c>
       <c r="J106" t="n">
-        <v>8</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>Nd-oxalate</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>10</v>
       </c>
       <c r="L106" t="n">
-        <v>7.956655298963112</v>
+        <v>0.506411101216978</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>In-tpy</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>0.498531860769329</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sm</t>
+          <t>Er</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>oxalate</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.347</v>
+        <v>3.04</v>
       </c>
       <c r="D107" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F107" t="n">
-        <v>0.357</v>
+        <v>2.825</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0.855</v>
+        <v>1.24</v>
       </c>
       <c r="I107" t="n">
-        <v>0.133</v>
+        <v>1.062</v>
       </c>
       <c r="J107" t="n">
-        <v>7.925</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>Sm-oxalate</t>
-        </is>
+        <v>11</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
       </c>
       <c r="L107" t="n">
-        <v>7.983020890374415</v>
+        <v>0.491194045720362</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>Er-tpy</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>0.4943245705335089</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Gd</t>
+          <t>Tb</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>oxalate</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.368</v>
+        <v>3.04</v>
       </c>
       <c r="D108" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5</v>
+        <v>2.74</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>0.805</v>
+        <v>1.2</v>
       </c>
       <c r="I108" t="n">
-        <v>0.156</v>
+        <v>1.095</v>
       </c>
       <c r="J108" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>Gd-oxalate</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>7.697677764657134</v>
+        <v>0.771725182863114</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>Tb-tpy</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>0.7319126733183158</v>
       </c>
     </row>
     <row r="109">
@@ -5211,128 +5863,1846 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>oxalate</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.378</v>
+        <v>3.04</v>
       </c>
       <c r="D109" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F109" t="n">
-        <v>0.643</v>
+        <v>2.77</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>0.761</v>
+        <v>1.22</v>
       </c>
       <c r="I109" t="n">
-        <v>0.172</v>
+        <v>1.083</v>
       </c>
       <c r="J109" t="n">
-        <v>7.985</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>Dy-oxalate</t>
-        </is>
+        <v>9</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>8.0175065697651</v>
+        <v>0.505121666009723</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>Dy-tpy</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>0.5119973802983712</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Ho</t>
+          <t>La</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>oxalate</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.383</v>
+        <v>3.04</v>
       </c>
       <c r="D110" t="n">
-        <v>0.8</v>
+        <v>9</v>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F110" t="n">
-        <v>0.714</v>
+        <v>2.467</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>0.739</v>
+        <v>1.1</v>
       </c>
       <c r="I110" t="n">
-        <v>0.18</v>
+        <v>1.216</v>
       </c>
       <c r="J110" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>Ho-oxalate</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>8.018718592388979</v>
+        <v>0.479287795992714</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>La-tpy</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>0.4895674947450255</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
+          <t>Eu</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>tpy</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D111" t="n">
+        <v>9</v>
+      </c>
+      <c r="E111" t="n">
+        <v>3</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2.679</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I111" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="J111" t="n">
+        <v>6</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.627956956576782</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>Eu-tpy</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>0.5901860317105709</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Nd</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>tpy</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D112" t="n">
+        <v>9</v>
+      </c>
+      <c r="E112" t="n">
+        <v>3</v>
+      </c>
+      <c r="F112" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1.163</v>
+      </c>
+      <c r="J112" t="n">
+        <v>3</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.488825783530009</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>Nd-tpy</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>0.4996825357853725</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Ru</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>tpy</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D113" t="n">
+        <v>6</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2.941</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>6</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.498772412683084</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>Ru-tpy</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>0.494689919420502</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Pr</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>tpy</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D114" t="n">
+        <v>9</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2.545</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I114" t="n">
+        <v>1.179</v>
+      </c>
+      <c r="J114" t="n">
+        <v>2</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.483256944444444</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>Pr-tpy</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>0.489854039258819</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Ca</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>phen</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D115" t="n">
+        <v>8</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1.786</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.482205226258763</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>Ca-phen</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>0.5179849766189027</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>phen</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D116" t="n">
+        <v>6</v>
+      </c>
+      <c r="E116" t="n">
+        <v>2</v>
+      </c>
+      <c r="F116" t="n">
+        <v>2.532</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>3</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.45958064516129</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>V-phen</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>0.5036524015919893</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Co</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>phen</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D117" t="n">
+        <v>6</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2</v>
+      </c>
+      <c r="F117" t="n">
+        <v>3.077</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0.745</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>7</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.475532503457815</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>Co-phen</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>0.5011805392759321</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Ni</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>phen</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D118" t="n">
+        <v>6</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2.899</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>8</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0.483552758954501</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>Ni-phen</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>0.5098675294279974</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Cr</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>phen</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D119" t="n">
+        <v>6</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2</v>
+      </c>
+      <c r="F119" t="n">
+        <v>4.878</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>3</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0.456987473266117</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>Cr-phen</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>0.514108840484871</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Ti</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>phen</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D120" t="n">
+        <v>6</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2</v>
+      </c>
+      <c r="F120" t="n">
+        <v>6.612</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0.671348201011002</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>Ti-phen</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>0.6493014938307398</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Mo</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>phen</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D121" t="n">
+        <v>6</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2</v>
+      </c>
+      <c r="F121" t="n">
+        <v>4.348</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1</v>
+      </c>
+      <c r="H121" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>3</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.455660145249741</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>Mo-phen</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>0.5051944452091723</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Fe</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>phen</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D122" t="n">
+        <v>6</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2</v>
+      </c>
+      <c r="F122" t="n">
+        <v>3.279</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>6</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.484782258064516</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>Fe-phen</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>0.5118257298664793</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Zr</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>phen</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D123" t="n">
+        <v>6</v>
+      </c>
+      <c r="E123" t="n">
+        <v>2</v>
+      </c>
+      <c r="F123" t="n">
+        <v>5.556</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.414628369866465</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>Zr-phen</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>0.5201108042710217</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Sm</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>phen</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D124" t="n">
+        <v>8</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2</v>
+      </c>
+      <c r="F124" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1</v>
+      </c>
+      <c r="H124" t="n">
+        <v>1.079</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1.079</v>
+      </c>
+      <c r="J124" t="n">
+        <v>5</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.452485294117647</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>Sm-phen</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>0.4692575308782474</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Ho</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>phen</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D125" t="n">
+        <v>8</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2</v>
+      </c>
+      <c r="F125" t="n">
+        <v>2.956</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125" t="n">
+        <v>1.015</v>
+      </c>
+      <c r="I125" t="n">
+        <v>1.015</v>
+      </c>
+      <c r="J125" t="n">
+        <v>10</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.457235536657647</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>Ho-phen</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>0.4785311700364979</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Ru</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>phen</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D126" t="n">
+        <v>6</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2</v>
+      </c>
+      <c r="F126" t="n">
+        <v>2.941</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>6</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.490273901808786</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>Ru-phen</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>0.5602829638920505</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Rh</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>phen</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D127" t="n">
+        <v>6</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2</v>
+      </c>
+      <c r="F127" t="n">
+        <v>4.511</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0.665</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>6</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.466008292610692</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>Rh-phen</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>0.5272253564049482</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>La</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>phen</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D128" t="n">
+        <v>8</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2.586</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
+      <c r="H128" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0.475358173378497</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>La-phen</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>0.5000582360054923</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Ce</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>phen</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D129" t="n">
+        <v>8</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2</v>
+      </c>
+      <c r="F129" t="n">
+        <v>2.625</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1.143</v>
+      </c>
+      <c r="I129" t="n">
+        <v>1.143</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.468058882235529</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>Ce-phen</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>0.4981591872114713</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Nd</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>phen</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D130" t="n">
+        <v>8</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2.705</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1.109</v>
+      </c>
+      <c r="I130" t="n">
+        <v>1.109</v>
+      </c>
+      <c r="J130" t="n">
+        <v>3</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0.464059211360467</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>Nd-phen</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>0.4926921876344575</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Eu</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>phen</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D131" t="n">
+        <v>8</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2.814</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="I131" t="n">
+        <v>1.066</v>
+      </c>
+      <c r="J131" t="n">
+        <v>6</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0.556603970741902</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>Eu-phen</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>0.5358687590976081</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
           <t>Er</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>oxalate</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>0.388</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E111" t="n">
-        <v>1</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0.786</v>
-      </c>
-      <c r="G111" t="n">
-        <v>1</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0.719</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0.188</v>
-      </c>
-      <c r="J111" t="n">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>Er-oxalate</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>8.018718592388979</v>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>phen</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D132" t="n">
+        <v>8</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2.988</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" t="n">
+        <v>1.004</v>
+      </c>
+      <c r="I132" t="n">
+        <v>1.004</v>
+      </c>
+      <c r="J132" t="n">
+        <v>11</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0.4675250501002</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>Er-phen</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>0.4985173014714777</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Yb</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>phen</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D133" t="n">
+        <v>8</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2</v>
+      </c>
+      <c r="F133" t="n">
+        <v>3.046</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="J133" t="n">
+        <v>13</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0.464960127591707</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>Yb-phen</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>0.4966570819258145</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Lu</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>phen</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D134" t="n">
+        <v>8</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2</v>
+      </c>
+      <c r="F134" t="n">
+        <v>3.071</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0.977</v>
+      </c>
+      <c r="J134" t="n">
+        <v>14</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0.462251169004676</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>Lu-phen</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>0.5054014788285619</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Pd</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>phen</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D135" t="n">
+        <v>4</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2</v>
+      </c>
+      <c r="F135" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>8</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0.488258706467662</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>Pd-phen</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>0.5586769923678578</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Zn</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>phen</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D136" t="n">
+        <v>6</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2.703</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>10</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0.6545588678109</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>Zn-phen</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>0.6037391012816996</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Tb</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>phen</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D137" t="n">
+        <v>8</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2.885</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
+      <c r="H137" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I137" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="J137" t="n">
+        <v>8</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0.566285565126599</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>Tb-phen</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>0.5564856024253443</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Dy</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>phen</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D138" t="n">
+        <v>8</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2.921</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="n">
+        <v>1.027</v>
+      </c>
+      <c r="I138" t="n">
+        <v>1.027</v>
+      </c>
+      <c r="J138" t="n">
+        <v>9</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.467538522323192</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>Dy-phen</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>0.5020505401064346</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Cu</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>phen</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D139" t="n">
+        <v>4</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3.509</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>9</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0.476552058432935</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>Cu-phen</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>0.4895338020397178</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Cd</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>phen</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D140" t="n">
+        <v>6</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2.105</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>10</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0.528135206869633</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>Cd-phen</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>0.5248133319975705</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Tm</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>phen</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D141" t="n">
+        <v>8</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2.852</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.994</v>
+      </c>
+      <c r="J141" t="n">
+        <v>12</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0.45200976612696</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>Tm-phen</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>0.4618033248815657</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Pt</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>phen</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D142" t="n">
+        <v>4</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2</v>
+      </c>
+      <c r="F142" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>8</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0.472354256508545</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>Pt-phen</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>0.5148541171681049</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Gd</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>phen</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D143" t="n">
+        <v>8</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2.849</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1.053</v>
+      </c>
+      <c r="I143" t="n">
+        <v>1.053</v>
+      </c>
+      <c r="J143" t="n">
+        <v>7</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0.464905956112853</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>Gd-phen</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>0.4817791809688556</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Ir</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>phen</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D144" t="n">
+        <v>6</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2</v>
+      </c>
+      <c r="F144" t="n">
+        <v>4.412</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>6</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0.470604001861331</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>Ir-phen</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>0.5269034599700443</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Mn</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>phen</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="D145" t="n">
+        <v>6</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>5</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0.676076774862902</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>Mn-phen</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>0.6674459866985096</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/predicted_with_all_scores.xlsx
+++ b/outputs/predicted_with_all_scores.xlsx
@@ -508,7 +508,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Eu</t>
+          <t>Tb</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -526,7 +526,7 @@
         <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>2.814</v>
+        <v>2.885</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -535,130 +535,130 @@
         <v>1.2</v>
       </c>
       <c r="I2" t="n">
-        <v>1.066</v>
+        <v>1.04</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.722993271656855</v>
+        <v>0.818869520897044</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Eu-acac</t>
+          <t>Tb-acac</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.7216042189046086</v>
+        <v>0.8114207100746987</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ir</t>
+          <t>Tb</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>4.412</v>
+        <v>2.885</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0.68</v>
+        <v>1.04</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.641056378600823</v>
+        <v>0.792699881376038</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Ir-acac</t>
+          <t>Tb-bpy</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.6414433898726501</v>
+        <v>0.7377024750942954</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ru</t>
+          <t>Tb</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>4.412</v>
+        <v>2.74</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="I4" t="n">
-        <v>0.68</v>
+        <v>1.095</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.63141768172888</v>
+        <v>0.768487647134911</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Ru-acac</t>
+          <t>Tb-tpy</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.6414433898726501</v>
+        <v>0.7307908519614505</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fe</t>
+          <t>La</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -670,45 +670,45 @@
         <v>3.44</v>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>4.651</v>
+        <v>2.586</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.83</v>
+        <v>1.1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.645</v>
+        <v>1.16</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.706004156275977</v>
+        <v>0.75811568546727</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Fe-acac</t>
+          <t>La-acac</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.6779590591959073</v>
+        <v>0.7210654697982429</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cr</t>
+          <t>Er</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -720,45 +720,45 @@
         <v>3.44</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>4.878</v>
+        <v>2.988</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.66</v>
+        <v>1.004</v>
       </c>
       <c r="I6" t="n">
-        <v>0.615</v>
+        <v>1.004</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.634438363171355</v>
+        <v>0.743865497076023</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Cr-acac</t>
+          <t>Er-acac</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.6511145139357284</v>
+        <v>0.6036497799598879</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>La</t>
+          <t>Eu</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -776,89 +776,89 @@
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>2.586</v>
+        <v>2.814</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="I7" t="n">
-        <v>1.16</v>
+        <v>1.066</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7508962783823731</v>
+        <v>0.73341583586187</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>La-acac</t>
+          <t>Eu-acac</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.7287220703388472</v>
+        <v>0.7123591724776638</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ce</t>
+          <t>Mn</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>2.625</v>
+        <v>2.41</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.12</v>
+        <v>0.83</v>
       </c>
       <c r="I8" t="n">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>0.631431592576608</v>
+        <v>0.72179952909519</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Ce-acac</t>
+          <t>Mn-phen</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.6455538271454698</v>
+        <v>0.7022385548034957</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ti</t>
+          <t>Zn</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -870,45 +870,45 @@
         <v>3.44</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>6.612</v>
+        <v>2.941</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="I9" t="n">
-        <v>0.605</v>
+        <v>0.68</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6209140211640209</v>
+        <v>0.713787723785166</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Ti-acac</t>
+          <t>Zn-acac</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.6262779805831837</v>
+        <v>0.7078016173173276</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Dy</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -920,45 +920,45 @@
         <v>3.44</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>2.899</v>
+        <v>2.921</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.91</v>
+        <v>1.027</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.027</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6567333333333329</v>
+        <v>0.6926114706255549</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Ni-acac</t>
+          <t>Dy-acac</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.6499092512540642</v>
+        <v>0.6788899001770422</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mg</t>
+          <t>Yb</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -970,45 +970,45 @@
         <v>3.44</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>2.778</v>
+        <v>3.046</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.31</v>
+        <v>0.985</v>
       </c>
       <c r="I11" t="n">
-        <v>0.72</v>
+        <v>0.985</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.636899705014749</v>
+        <v>0.690661422484431</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Mg-acac</t>
+          <t>Yb-acac</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.6461197818828863</v>
+        <v>0.6488716472995052</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ca</t>
+          <t>Ho</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1020,45 +1020,45 @@
         <v>3.44</v>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>2.956</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>1.015</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>1.015</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.636039596832253</v>
+        <v>0.6801670710011321</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Ca-acac</t>
+          <t>Ho-acac</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.6408421341592259</v>
+        <v>0.6570299311319768</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cu</t>
+          <t>Mn</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1070,45 +1070,45 @@
         <v>3.44</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>3.509</v>
+        <v>2.41</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="I13" t="n">
-        <v>0.57</v>
+        <v>0.83</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L13" t="n">
-        <v>0.67705421170012</v>
+        <v>0.674228910354177</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Cu-acac</t>
+          <t>Mn-acac</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.6330705612809452</v>
+        <v>0.614262821992883</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Zn</t>
+          <t>Pt</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1120,45 +1120,45 @@
         <v>3.44</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>2.941</v>
+        <v>3.333</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1.65</v>
+        <v>0.6</v>
       </c>
       <c r="I14" t="n">
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L14" t="n">
-        <v>0.712904761904762</v>
+        <v>0.67253627311522</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Zn-acac</t>
+          <t>Pt-acac</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.6420737181592181</v>
+        <v>0.5905236521402553</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Fe</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1170,54 +1170,54 @@
         <v>3.44</v>
       </c>
       <c r="D15" t="n">
+        <v>6</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4.651</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>5</v>
       </c>
-      <c r="E15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5.66</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1</v>
-      </c>
       <c r="L15" t="n">
-        <v>0.62074561049445</v>
+        <v>0.670811264675286</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>V-acac</t>
+          <t>Fe-acac</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.6251372848800401</v>
+        <v>0.6280756489895599</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Mn</t>
+          <t>Ti</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D16" t="n">
         <v>6</v>
@@ -1226,148 +1226,148 @@
         <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>2.41</v>
+        <v>6.612</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="I16" t="n">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>0.642156855462705</v>
+        <v>0.668270906949352</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Mn-acac</t>
+          <t>Ti-phen</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.6395060242373106</v>
+        <v>0.639313021267676</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Er</t>
+          <t>Zr</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>2.988</v>
+        <v>5.556</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1.004</v>
+        <v>0.72</v>
       </c>
       <c r="I17" t="n">
-        <v>1.004</v>
+        <v>0.72</v>
       </c>
       <c r="J17" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.768200974072482</v>
+        <v>0.662908971840209</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Er-acac</t>
+          <t>Zr-bpy</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.7240976472840855</v>
+        <v>0.5913852119500256</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>Zr</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>3.44</v>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>3.071</v>
+        <v>5.556</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.977</v>
+        <v>0.72</v>
       </c>
       <c r="I18" t="n">
-        <v>0.977</v>
+        <v>0.72</v>
       </c>
       <c r="J18" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.63876898270302</v>
+        <v>0.652740740740741</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Lu-acac</t>
+          <t>Zr-cooh</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.6519315324529048</v>
+        <v>0.6390048555118851</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ho</t>
+          <t>Tb</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D19" t="n">
         <v>8</v>
@@ -1376,39 +1376,39 @@
         <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>2.956</v>
+        <v>2.885</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1.015</v>
+        <v>1.04</v>
       </c>
       <c r="I19" t="n">
-        <v>1.015</v>
+        <v>1.04</v>
       </c>
       <c r="J19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.630859115243731</v>
+        <v>0.6523371268349</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Ho-acac</t>
+          <t>Tb-phen</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0.6641566459088577</v>
+        <v>0.6690571156213168</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Yb</t>
+          <t>Co</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1420,45 +1420,45 @@
         <v>3.44</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>3.046</v>
+        <v>2.685</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0.985</v>
+        <v>1.88</v>
       </c>
       <c r="I20" t="n">
-        <v>0.985</v>
+        <v>0.745</v>
       </c>
       <c r="J20" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L20" t="n">
-        <v>0.64537899147522</v>
+        <v>0.651232489264031</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Yb-acac</t>
+          <t>Co-acac</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.6519315324529048</v>
+        <v>0.5765879663002924</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Tb</t>
+          <t>Cu</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1470,89 +1470,89 @@
         <v>3.44</v>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
         <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>2.885</v>
+        <v>3.509</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="I21" t="n">
-        <v>1.04</v>
+        <v>0.57</v>
       </c>
       <c r="J21" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L21" t="n">
-        <v>0.858465802735781</v>
+        <v>0.642733517750115</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Tb-acac</t>
+          <t>Cu-acac</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>0.7238308921917972</v>
+        <v>0.616695415413077</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Co</t>
+          <t>Tb</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>3.44</v>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E22" t="n">
         <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>2.685</v>
+        <v>2.74</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.88</v>
+        <v>1.2</v>
       </c>
       <c r="I22" t="n">
-        <v>0.745</v>
+        <v>1.095</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K22" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.681983072916667</v>
+        <v>0.6377797833935021</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Co-acac</t>
+          <t>Tb-cooh</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>0.6666322272395951</v>
+        <v>0.6346800547506417</v>
       </c>
     </row>
     <row r="23">
@@ -1594,7 +1594,7 @@
         <v>10</v>
       </c>
       <c r="L23" t="n">
-        <v>0.678385159010601</v>
+        <v>0.637426520490734</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -1602,63 +1602,63 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>0.6869637684381064</v>
+        <v>0.6454809904762767</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Nb</t>
+          <t>Ru</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E24" t="n">
         <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>6.757</v>
+        <v>2.941</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
       <c r="I24" t="n">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L24" t="n">
-        <v>0.631159565980533</v>
+        <v>0.634449612403101</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Nb-acac</t>
+          <t>Ru-bpy</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>0.6363586371733688</v>
+        <v>0.5472564579239217</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Pt</t>
+          <t>Mg</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1670,45 +1670,45 @@
         <v>3.44</v>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E25" t="n">
         <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>3.333</v>
+        <v>2.778</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6</v>
+        <v>1.31</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6</v>
+        <v>0.72</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.676983645983646</v>
+        <v>0.63067824967825</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Pt-acac</t>
+          <t>Mg-acac</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>0.6719694437392961</v>
+        <v>0.6337446319817552</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Dy</t>
+          <t>Cr</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1720,39 +1720,39 @@
         <v>3.44</v>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>2.921</v>
+        <v>4.878</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>1.027</v>
+        <v>1.66</v>
       </c>
       <c r="I26" t="n">
-        <v>1.027</v>
+        <v>0.615</v>
       </c>
       <c r="J26" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L26" t="n">
-        <v>0.731057224606581</v>
+        <v>0.629541129032258</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Dy-acac</t>
+          <t>Cr-acac</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>0.6985540479221579</v>
+        <v>0.6107701928855873</v>
       </c>
     </row>
     <row r="27">
@@ -1763,20 +1763,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>3.04</v>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" t="n">
-        <v>2.814</v>
+        <v>2.679</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1785,7 +1785,7 @@
         <v>1.2</v>
       </c>
       <c r="I27" t="n">
-        <v>1.066</v>
+        <v>1.12</v>
       </c>
       <c r="J27" t="n">
         <v>6</v>
@@ -1794,26 +1794,26 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0.55619877675841</v>
+        <v>0.627090909090909</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Eu-bpy</t>
+          <t>Eu-tpy</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>0.5529891494825518</v>
+        <v>0.6260705608428605</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Tb</t>
+          <t>Eu</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1826,66 +1826,66 @@
         <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>2.885</v>
+        <v>2.814</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1.2</v>
+        <v>1.066</v>
       </c>
       <c r="I28" t="n">
-        <v>1.04</v>
+        <v>1.066</v>
       </c>
       <c r="J28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.7453734316388571</v>
+        <v>0.6221575074369809</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Tb-bpy</t>
+          <t>Eu-phen</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>0.573605992810288</v>
+        <v>0.5459443392887066</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Ti</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
         <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>4.478</v>
+        <v>5.66</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="I29" t="n">
-        <v>0.67</v>
+        <v>0.53</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -1894,26 +1894,26 @@
         <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>0.505169632265718</v>
+        <v>0.62074561049445</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Ti-bpy</t>
+          <t>V-acac</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>0.5191728051980868</v>
+        <v>0.6056184893613431</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Zn</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1926,39 +1926,39 @@
         <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>2.532</v>
+        <v>2.703</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>1.63</v>
+        <v>0.74</v>
       </c>
       <c r="I30" t="n">
-        <v>0.79</v>
+        <v>0.74</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="L30" t="n">
-        <v>0.5277809867629361</v>
+        <v>0.618913072685745</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>V-bpy</t>
+          <t>Zn-phen</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>0.5036524015919893</v>
+        <v>0.6106185471381139</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Mo</t>
+          <t>Nd</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1970,122 +1970,122 @@
         <v>3.04</v>
       </c>
       <c r="D31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E31" t="n">
         <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>4.348</v>
+        <v>2.705</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>2.16</v>
+        <v>1.109</v>
       </c>
       <c r="I31" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.109</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.508845890919899</v>
+        <v>0.618</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Mo-bpy</t>
+          <t>Nd-bpy</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>0.5051944452091723</v>
+        <v>0.6023700518087144</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Cr</t>
+          <t>Tb</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D32" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E32" t="n">
         <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>4.878</v>
+        <v>2.74</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.66</v>
+        <v>1.2</v>
       </c>
       <c r="I32" t="n">
-        <v>0.615</v>
+        <v>1.095</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.531573148606301</v>
+        <v>0.613019319363947</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Cr-bpy</t>
+          <t>Tb-cooh</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>0.514108840484871</v>
+        <v>0.6346800547506417</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Ca</t>
+          <t>Zr</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>3.04</v>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
-        <v>1.786</v>
+        <v>5.556</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="I33" t="n">
-        <v>1.12</v>
+        <v>0.72</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -2094,30 +2094,30 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.5254021101992969</v>
+        <v>0.609912251191477</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Ca-bpy</t>
+          <t>Zr-tpy</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>0.5179849766189027</v>
+        <v>0.5857736617865955</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Mn</t>
+          <t>Ti</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D34" t="n">
         <v>6</v>
@@ -2126,189 +2126,189 @@
         <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>2.985</v>
+        <v>6.612</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="I34" t="n">
-        <v>0.67</v>
+        <v>0.605</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0.515374411933448</v>
+        <v>0.609618158608585</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Mn-bpy</t>
+          <t>Ti-acac</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>0.5082313734016429</v>
+        <v>0.6093190523131699</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D35" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E35" t="n">
         <v>2</v>
       </c>
       <c r="F35" t="n">
-        <v>2.899</v>
+        <v>3.071</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>1.91</v>
+        <v>0.977</v>
       </c>
       <c r="I35" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.977</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K35" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.537283864921635</v>
+        <v>0.609429796355841</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Ni-bpy</t>
+          <t>Lu-acac</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>0.5098675294279974</v>
+        <v>0.6162385641979705</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fe</t>
+          <t>Ce</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D36" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E36" t="n">
         <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>3.279</v>
+        <v>2.625</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>1.83</v>
+        <v>1.12</v>
       </c>
       <c r="I36" t="n">
-        <v>0.61</v>
+        <v>0.97</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.5402997626314</v>
+        <v>0.607619906479626</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Fe-bpy</t>
+          <t>Ce-acac</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>0.5118257298664793</v>
+        <v>0.6304381956244476</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Co</t>
+          <t>Ce</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>3.04</v>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
-        <v>3.077</v>
+        <v>2.508</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>1.88</v>
+        <v>1.12</v>
       </c>
       <c r="I37" t="n">
-        <v>0.65</v>
+        <v>1.196</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.523298449612403</v>
+        <v>0.603464344941957</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Co-bpy</t>
+          <t>Ce-tpy</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>0.508225473940794</v>
+        <v>0.57396867113256</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Ce</t>
+          <t>Sm</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2326,39 +2326,39 @@
         <v>2</v>
       </c>
       <c r="F38" t="n">
-        <v>2.625</v>
+        <v>2.78</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>1.143</v>
+        <v>1.079</v>
       </c>
       <c r="I38" t="n">
-        <v>1.143</v>
+        <v>1.079</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0.519119219561637</v>
+        <v>0.6029106479237361</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Ce-bpy</t>
+          <t>Sm-bpy</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>0.4981591872114713</v>
+        <v>0.5761475560287724</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Er</t>
+          <t>Ca</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2376,139 +2376,139 @@
         <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>2.988</v>
+        <v>1.786</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>1.004</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>1.004</v>
+        <v>1.12</v>
       </c>
       <c r="J39" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.515907223326706</v>
+        <v>0.601408081776074</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Er-bpy</t>
+          <t>Ca-bpy</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>0.4985173014714777</v>
+        <v>0.5669064167418347</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Dy</t>
+          <t>Ca</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D40" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E40" t="n">
         <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>2.921</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>1.027</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>1.027</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.5129169879208429</v>
+        <v>0.599645592392701</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Dy-bpy</t>
+          <t>Ca-acac</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>0.5020505401064346</v>
+        <v>0.6166923764511398</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Zn</t>
+          <t>Gd</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D41" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E41" t="n">
         <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>2.703</v>
+        <v>2.71</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.74</v>
+        <v>1.2</v>
       </c>
       <c r="I41" t="n">
-        <v>0.74</v>
+        <v>1.107</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K41" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0.5702829967120711</v>
+        <v>0.595802419354839</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Zn-bpy</t>
+          <t>Gd-cooh</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>0.6037391012816996</v>
+        <v>0.5794866302613084</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>Dy</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2526,339 +2526,339 @@
         <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>3.071</v>
+        <v>2.921</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.977</v>
+        <v>1.027</v>
       </c>
       <c r="I42" t="n">
-        <v>0.977</v>
+        <v>1.027</v>
       </c>
       <c r="J42" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0.511687830687831</v>
+        <v>0.593623048446805</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Lu-bpy</t>
+          <t>Dy-bpy</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>0.5054014788285619</v>
+        <v>0.5361721319632383</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Zr</t>
+          <t>Nd</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>3.04</v>
       </c>
       <c r="D43" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" t="n">
-        <v>5.556</v>
+        <v>2.58</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.72</v>
+        <v>1.14</v>
       </c>
       <c r="I43" t="n">
-        <v>0.72</v>
+        <v>1.163</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.598068595927117</v>
+        <v>0.592076475477972</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Zr-bpy</t>
+          <t>Nd-tpy</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>0.5201108042710217</v>
+        <v>0.5861803087511192</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Ru</t>
+          <t>Nd</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D44" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E44" t="n">
         <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>2.941</v>
+        <v>2.58</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.68</v>
+        <v>1.163</v>
       </c>
       <c r="I44" t="n">
-        <v>0.68</v>
+        <v>1.163</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K44" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0.6408996364785839</v>
+        <v>0.590165128703254</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Ru-bpy</t>
+          <t>Nd-cooh</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>0.5602829638920505</v>
+        <v>0.5661899777865257</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Rh</t>
+          <t>Eu</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D45" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E45" t="n">
         <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>4.511</v>
+        <v>2.679</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.665</v>
+        <v>1.2</v>
       </c>
       <c r="I45" t="n">
-        <v>0.665</v>
+        <v>1.12</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K45" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0.528337164750958</v>
+        <v>0.586910952804987</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Rh-bpy</t>
+          <t>Eu-cooh</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>0.5272253564049482</v>
+        <v>0.586060279841831</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Nd</t>
+          <t>Ca</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>3.04</v>
       </c>
       <c r="D46" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46" t="n">
-        <v>2.705</v>
+        <v>1.695</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>1.109</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>1.109</v>
+        <v>1.18</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0.509122421078797</v>
+        <v>0.58049278734295</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Nd-bpy</t>
+          <t>Ca-tpy</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>0.4926921876344575</v>
+        <v>0.5762690908164084</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sm</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D47" t="n">
+        <v>6</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2.899</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>8</v>
       </c>
-      <c r="E47" t="n">
-        <v>2</v>
-      </c>
-      <c r="F47" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1.079</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1.079</v>
-      </c>
-      <c r="J47" t="n">
-        <v>5</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
       <c r="L47" t="n">
-        <v>0.513126088602802</v>
+        <v>0.578177070063694</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Sm-bpy</t>
+          <t>Ni-acac</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>0.4692575308782474</v>
+        <v>0.5825932564277062</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ho</t>
+          <t>Ir</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D48" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E48" t="n">
         <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>2.956</v>
+        <v>4.412</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>1.015</v>
+        <v>2.2</v>
       </c>
       <c r="I48" t="n">
-        <v>1.015</v>
+        <v>0.68</v>
       </c>
       <c r="J48" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L48" t="n">
-        <v>0.509970721596062</v>
+        <v>0.576273673036093</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Ho-bpy</t>
+          <t>Ir-acac</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>0.4785311700364979</v>
+        <v>0.5735318924942395</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Yb</t>
+          <t>Ir</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2870,45 +2870,45 @@
         <v>3.04</v>
       </c>
       <c r="D49" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E49" t="n">
         <v>2</v>
       </c>
       <c r="F49" t="n">
-        <v>3.046</v>
+        <v>4.412</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0.985</v>
+        <v>0.68</v>
       </c>
       <c r="I49" t="n">
-        <v>0.985</v>
+        <v>0.68</v>
       </c>
       <c r="J49" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L49" t="n">
-        <v>0.528772277227723</v>
+        <v>0.575773436243769</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Yb-bpy</t>
+          <t>Ir-bpy</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>0.4966570819258145</v>
+        <v>0.515454196075436</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>In</t>
+          <t>Ho</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2920,195 +2920,195 @@
         <v>3.04</v>
       </c>
       <c r="D50" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E50" t="n">
         <v>2</v>
       </c>
       <c r="F50" t="n">
-        <v>3.75</v>
+        <v>2.956</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>0.8</v>
+        <v>1.015</v>
       </c>
       <c r="I50" t="n">
-        <v>0.8</v>
+        <v>1.015</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K50" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0.52730252729176</v>
+        <v>0.575569288389513</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>In-bpy</t>
+          <t>Ho-bpy</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>0.5295536011976366</v>
+        <v>0.5087666331490961</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Cu</t>
+          <t>Sm</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>3.04</v>
       </c>
       <c r="D51" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E51" t="n">
         <v>2</v>
       </c>
       <c r="F51" t="n">
-        <v>3.509</v>
+        <v>2.78</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>0.57</v>
+        <v>1.079</v>
       </c>
       <c r="I51" t="n">
-        <v>0.57</v>
+        <v>1.079</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K51" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0.495517345399698</v>
+        <v>0.571818243472364</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Cu-bpy</t>
+          <t>Sm-phen</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>0.4895338020397178</v>
+        <v>0.5761475560287724</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>La</t>
+          <t>Ho</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D52" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E52" t="n">
         <v>2</v>
       </c>
       <c r="F52" t="n">
-        <v>2.586</v>
+        <v>2.799</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="I52" t="n">
-        <v>1.16</v>
+        <v>1.072</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0.516547021356313</v>
+        <v>0.57128784238347</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>La-bpy</t>
+          <t>Ho-cooh</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>0.5000582360054923</v>
+        <v>0.5494154785667543</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Nb</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D53" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E53" t="n">
         <v>2</v>
       </c>
       <c r="F53" t="n">
-        <v>2.105</v>
+        <v>6.757</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.95</v>
+        <v>0.74</v>
       </c>
       <c r="I53" t="n">
-        <v>0.95</v>
+        <v>0.74</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0.575463347763348</v>
+        <v>0.569802083333333</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Cd-bpy</t>
+          <t>Nb-acac</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>0.5248133319975705</v>
+        <v>0.6919761810671631</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Pt</t>
+          <t>In</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3120,45 +3120,45 @@
         <v>3.04</v>
       </c>
       <c r="D54" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E54" t="n">
         <v>2</v>
       </c>
       <c r="F54" t="n">
-        <v>3.333</v>
+        <v>3.75</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I54" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L54" t="n">
-        <v>0.553275132275132</v>
+        <v>0.5617175811501069</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Pt-bpy</t>
+          <t>In-bpy</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>0.5148541171681049</v>
+        <v>0.5592950517273482</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Ir</t>
+          <t>Mn</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3176,339 +3176,339 @@
         <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>4.412</v>
+        <v>2.985</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.68</v>
+        <v>1.55</v>
       </c>
       <c r="I55" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L55" t="n">
-        <v>0.585327218641547</v>
+        <v>0.560483950617284</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Ir-bpy</t>
+          <t>Mn-bpy</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>0.5269034599700443</v>
+        <v>0.5119257241764766</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Eu</t>
+          <t>Yb</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D56" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E56" t="n">
         <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>2.679</v>
+        <v>3.046</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>1.2</v>
+        <v>0.985</v>
       </c>
       <c r="I56" t="n">
-        <v>1.12</v>
+        <v>0.985</v>
       </c>
       <c r="J56" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0.509222222222222</v>
+        <v>0.559454451878538</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Eu-cooh</t>
+          <t>Yb-phen</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>0.5315632827888637</v>
+        <v>0.5441725279432913</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Ru</t>
+          <t>Gd</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D57" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57" t="n">
-        <v>4.412</v>
+        <v>2.71</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="I57" t="n">
-        <v>0.68</v>
+        <v>1.107</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K57" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0.511971830985916</v>
+        <v>0.558903861308117</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Ru-cooh</t>
+          <t>Gd-tpy</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>0.5060512038627285</v>
+        <v>0.5859756192277811</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Fe</t>
+          <t>Yb</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D58" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E58" t="n">
         <v>2</v>
       </c>
       <c r="F58" t="n">
-        <v>4.651</v>
+        <v>3.046</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>1.83</v>
+        <v>0.985</v>
       </c>
       <c r="I58" t="n">
-        <v>0.645</v>
+        <v>0.985</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K58" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0.515533333333333</v>
+        <v>0.558051835853132</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Fe-cooh</t>
+          <t>Yb-bpy</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>0.5431926281468733</v>
+        <v>0.5441725279432913</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Cr</t>
+          <t>Eu</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D59" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E59" t="n">
         <v>2</v>
       </c>
       <c r="F59" t="n">
-        <v>4.878</v>
+        <v>2.814</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
-        <v>1.66</v>
+        <v>1.2</v>
       </c>
       <c r="I59" t="n">
-        <v>0.615</v>
+        <v>1.066</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0.510016625103907</v>
+        <v>0.5574338705551291</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Cr-cooh</t>
+          <t>Eu-bpy</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>0.5168888521824672</v>
+        <v>0.5954727482074488</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>La</t>
+          <t>Ru</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>3.44</v>
       </c>
       <c r="D60" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E60" t="n">
         <v>2</v>
       </c>
       <c r="F60" t="n">
-        <v>2.467</v>
+        <v>4.412</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="I60" t="n">
-        <v>1.216</v>
+        <v>0.68</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L60" t="n">
-        <v>0.515814526588846</v>
+        <v>0.556256581781325</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>La-cooh</t>
+          <t>Ru-acac</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>0.5156925610049812</v>
+        <v>0.5735318924942395</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Ce</t>
+          <t>Cd</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D61" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E61" t="n">
         <v>2</v>
       </c>
       <c r="F61" t="n">
-        <v>2.508</v>
+        <v>2.105</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>1.12</v>
+        <v>0.95</v>
       </c>
       <c r="I61" t="n">
-        <v>1.196</v>
+        <v>0.95</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L61" t="n">
-        <v>0.516177083333333</v>
+        <v>0.551933067729084</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Ce-cooh</t>
+          <t>Cd-phen</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>0.5138726254428508</v>
+        <v>0.560989232535259</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Cd</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3526,233 +3526,233 @@
         <v>2</v>
       </c>
       <c r="F62" t="n">
-        <v>2.899</v>
+        <v>2.105</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>1.91</v>
+        <v>0.95</v>
       </c>
       <c r="I62" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
       </c>
       <c r="K62" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L62" t="n">
-        <v>0.516693784756297</v>
+        <v>0.54876112412178</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Ni-cooh</t>
+          <t>Cd-cooh</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>0.5173166495373986</v>
+        <v>0.5331482307324145</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Mg</t>
+          <t>Sm</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D63" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" t="n">
-        <v>2.778</v>
+        <v>2.65</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="I63" t="n">
-        <v>0.72</v>
+        <v>1.132</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>0.52152886405959</v>
+        <v>0.547572805507745</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Mg-cooh</t>
+          <t>Sm-tpy</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>0.5152847683084024</v>
+        <v>0.554320363323528</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Ca</t>
+          <t>Zn</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D64" t="n">
         <v>6</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>2.703</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>1.65</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L64" t="n">
-        <v>0.523686190066035</v>
+        <v>0.547143790849673</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Ca-cooh</t>
+          <t>Zn-tpy</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>0.5150100162959581</v>
+        <v>0.5513226631597916</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Pd</t>
+          <t>Cd</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D65" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E65" t="n">
         <v>2</v>
       </c>
       <c r="F65" t="n">
-        <v>3.125</v>
+        <v>2.105</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>2.2</v>
+        <v>0.95</v>
       </c>
       <c r="I65" t="n">
-        <v>0.64</v>
+        <v>0.95</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L65" t="n">
-        <v>0.493728103044497</v>
+        <v>0.545097603055446</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Pd-cooh</t>
+          <t>Cd-bpy</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>0.5041669732737121</v>
+        <v>0.560989232535259</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Cu</t>
+          <t>La</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D66" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E66" t="n">
         <v>2</v>
       </c>
       <c r="F66" t="n">
-        <v>3.509</v>
+        <v>2.586</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>1.9</v>
+        <v>1.16</v>
       </c>
       <c r="I66" t="n">
-        <v>0.57</v>
+        <v>1.16</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0.505939488731921</v>
+        <v>0.543483103541498</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Cu-cooh</t>
+          <t>La-bpy</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>0.498844899527684</v>
+        <v>0.5400905934950415</v>
       </c>
     </row>
     <row r="67">
@@ -3763,29 +3763,29 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D67" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E67" t="n">
         <v>2</v>
       </c>
       <c r="F67" t="n">
-        <v>3.333</v>
+        <v>2.703</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>1.65</v>
+        <v>0.74</v>
       </c>
       <c r="I67" t="n">
-        <v>0.6</v>
+        <v>0.74</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -3794,30 +3794,30 @@
         <v>10</v>
       </c>
       <c r="L67" t="n">
-        <v>0.520119132350449</v>
+        <v>0.542334556178967</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Zn-cooh</t>
+          <t>Zn-bpy</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>0.5235936858013011</v>
+        <v>0.6106185471381139</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Mo</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D68" t="n">
         <v>6</v>
@@ -3826,333 +3826,333 @@
         <v>2</v>
       </c>
       <c r="F68" t="n">
-        <v>4.688</v>
+        <v>4.348</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
-        <v>1.63</v>
+        <v>2.16</v>
       </c>
       <c r="I68" t="n">
-        <v>0.64</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L68" t="n">
-        <v>0.510605349794239</v>
+        <v>0.540985279685967</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>V-cooh</t>
+          <t>Mo-bpy</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>0.5163480828866944</v>
+        <v>0.4754654793693973</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Mn</t>
+          <t>Ho</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D69" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F69" t="n">
-        <v>2.41</v>
+        <v>2.799</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>1.55</v>
+        <v>1.23</v>
       </c>
       <c r="I69" t="n">
-        <v>0.83</v>
+        <v>1.072</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K69" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>0.5035918907007489</v>
+        <v>0.538940108892922</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Mn-cooh</t>
+          <t>Ho-tpy</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>0.5043174141703338</v>
+        <v>0.5354239174877994</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Tb</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E70" t="n">
         <v>2</v>
       </c>
       <c r="F70" t="n">
-        <v>2.74</v>
+        <v>2.532</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1.2</v>
+        <v>1.63</v>
       </c>
       <c r="I70" t="n">
-        <v>1.095</v>
+        <v>0.79</v>
       </c>
       <c r="J70" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L70" t="n">
-        <v>0.596475177304965</v>
+        <v>0.537522748375116</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Tb-cooh</t>
+          <t>V-bpy</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>0.6008482406412768</v>
+        <v>0.5273202560056789</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Co</t>
+          <t>Tm</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D71" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E71" t="n">
         <v>2</v>
       </c>
       <c r="F71" t="n">
-        <v>2.685</v>
+        <v>2.852</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>1.88</v>
+        <v>0.994</v>
       </c>
       <c r="I71" t="n">
-        <v>0.745</v>
+        <v>0.994</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K71" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>0.520066795366795</v>
+        <v>0.536080729166667</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Co-cooh</t>
+          <t>Tm-phen</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>0.5283338007567093</v>
+        <v>0.5198042840894801</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Mo</t>
+          <t>Ca</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D72" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E72" t="n">
         <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>4.348</v>
+        <v>1.786</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>2.16</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.12</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>0.50530303030303</v>
+        <v>0.535725507633022</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Mo-cooh</t>
+          <t>Ca-phen</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>0.5081793466256406</v>
+        <v>0.5669064167418347</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sm</t>
+          <t>Ce</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D73" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E73" t="n">
         <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>2.65</v>
+        <v>2.625</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>1.17</v>
+        <v>1.143</v>
       </c>
       <c r="I73" t="n">
-        <v>1.132</v>
+        <v>1.143</v>
       </c>
       <c r="J73" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0.5171961414791</v>
+        <v>0.535292929292929</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>Sm-cooh</t>
+          <t>Ce-bpy</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>0.5165312246857545</v>
+        <v>0.5405458670504294</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Tm</t>
+          <t>Ce</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D74" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E74" t="n">
         <v>2</v>
       </c>
       <c r="F74" t="n">
-        <v>2.852</v>
+        <v>2.625</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>1.25</v>
+        <v>1.143</v>
       </c>
       <c r="I74" t="n">
-        <v>1.052</v>
+        <v>1.143</v>
       </c>
       <c r="J74" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>0.508939948488546</v>
+        <v>0.535233363444745</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>Tm-cooh</t>
+          <t>Ce-phen</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>0.5085618348068144</v>
+        <v>0.5405458670504294</v>
       </c>
     </row>
     <row r="75">
@@ -4163,29 +4163,29 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D75" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E75" t="n">
         <v>2</v>
       </c>
       <c r="F75" t="n">
-        <v>2.907</v>
+        <v>3.071</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
-        <v>1.27</v>
+        <v>0.977</v>
       </c>
       <c r="I75" t="n">
-        <v>1.032</v>
+        <v>0.977</v>
       </c>
       <c r="J75" t="n">
         <v>14</v>
@@ -4194,71 +4194,71 @@
         <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>0.518162515829464</v>
+        <v>0.532234698184888</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Lu-cooh</t>
+          <t>Lu-bpy</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>0.5070030893765975</v>
+        <v>0.5124944223275885</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Ho</t>
+          <t>Ti</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D76" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E76" t="n">
         <v>2</v>
       </c>
       <c r="F76" t="n">
-        <v>2.799</v>
+        <v>4.478</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>1.23</v>
+        <v>1.54</v>
       </c>
       <c r="I76" t="n">
-        <v>1.072</v>
+        <v>0.67</v>
       </c>
       <c r="J76" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L76" t="n">
-        <v>0.509660468876314</v>
+        <v>0.530843674843675</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Ho-cooh</t>
+          <t>Ti-bpy</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>0.5119143025151676</v>
+        <v>0.5444466422977338</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Gd</t>
+          <t>Tm</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4276,89 +4276,89 @@
         <v>2</v>
       </c>
       <c r="F77" t="n">
-        <v>2.71</v>
+        <v>2.852</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="I77" t="n">
-        <v>1.107</v>
+        <v>1.052</v>
       </c>
       <c r="J77" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K77" t="n">
         <v>0</v>
       </c>
       <c r="L77" t="n">
-        <v>0.5092948207171319</v>
+        <v>0.530393006790926</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>Gd-cooh</t>
+          <t>Tm-cooh</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>0.4976776392719747</v>
+        <v>0.5299473517533857</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Er</t>
+          <t>Pt</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D78" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E78" t="n">
         <v>2</v>
       </c>
       <c r="F78" t="n">
-        <v>2.825</v>
+        <v>3.333</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>1.24</v>
+        <v>0.6</v>
       </c>
       <c r="I78" t="n">
-        <v>1.062</v>
+        <v>0.6</v>
       </c>
       <c r="J78" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L78" t="n">
-        <v>0.514333745025388</v>
+        <v>0.528375478927203</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>Er-cooh</t>
+          <t>Pt-bpy</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>0.5218581813293497</v>
+        <v>0.4682349938685744</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Tb</t>
+          <t>Ce</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4376,39 +4376,39 @@
         <v>2</v>
       </c>
       <c r="F79" t="n">
-        <v>2.74</v>
+        <v>2.508</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="I79" t="n">
-        <v>1.095</v>
+        <v>1.196</v>
       </c>
       <c r="J79" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>0.600494728304947</v>
+        <v>0.524813627254509</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Tb-cooh</t>
+          <t>Ce-cooh</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>0.6008482406412768</v>
+        <v>0.5352676300409993</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Dy</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4420,95 +4420,95 @@
         <v>3.44</v>
       </c>
       <c r="D80" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E80" t="n">
         <v>2</v>
       </c>
       <c r="F80" t="n">
-        <v>2.77</v>
+        <v>2.899</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>1.22</v>
+        <v>1.91</v>
       </c>
       <c r="I80" t="n">
-        <v>1.083</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J80" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L80" t="n">
-        <v>0.489039128829826</v>
+        <v>0.520334920634921</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Dy-cooh</t>
+          <t>Ni-cooh</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>0.5209755604822143</v>
+        <v>0.4731912248359502</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Pr</t>
+          <t>Tm</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D81" t="n">
         <v>9</v>
       </c>
       <c r="E81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F81" t="n">
-        <v>2.545</v>
+        <v>2.852</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="I81" t="n">
-        <v>1.179</v>
+        <v>1.052</v>
       </c>
       <c r="J81" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>0.50731488598514</v>
+        <v>0.517699064074874</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Pr-cooh</t>
+          <t>Tm-tpy</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>0.5105591592754913</v>
+        <v>0.5155876781440623</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Nd</t>
+          <t>Mo</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4520,45 +4520,45 @@
         <v>3.44</v>
       </c>
       <c r="D82" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E82" t="n">
         <v>2</v>
       </c>
       <c r="F82" t="n">
-        <v>2.58</v>
+        <v>4.348</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>1.163</v>
+        <v>2.16</v>
       </c>
       <c r="I82" t="n">
-        <v>1.163</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
         <v>3</v>
       </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.523848238482385</v>
+        <v>0.513670957817181</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Nd-cooh</t>
+          <t>Mo-cooh</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>0.5179601082726524</v>
+        <v>0.4931234941535918</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Mg</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4576,39 +4576,39 @@
         <v>2</v>
       </c>
       <c r="F83" t="n">
-        <v>2.105</v>
+        <v>2.778</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.95</v>
+        <v>1.31</v>
       </c>
       <c r="I83" t="n">
-        <v>0.95</v>
+        <v>0.72</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0.494868365180467</v>
+        <v>0.513037878787879</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Cd-cooh</t>
+          <t>Mg-cooh</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>0.5041221468276936</v>
+        <v>0.5281743407771434</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Ir</t>
+          <t>Zn</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4620,95 +4620,95 @@
         <v>3.44</v>
       </c>
       <c r="D84" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E84" t="n">
         <v>2</v>
       </c>
       <c r="F84" t="n">
-        <v>4.412</v>
+        <v>3.333</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.68</v>
+        <v>1.65</v>
       </c>
       <c r="I84" t="n">
-        <v>0.68</v>
+        <v>0.6</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="L84" t="n">
-        <v>0.5127523717639491</v>
+        <v>0.512087301587302</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Ir-cooh</t>
+          <t>Zn-cooh</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>0.5623336981660388</v>
+        <v>0.6037430433380376</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Zr</t>
+          <t>Er</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D85" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E85" t="n">
         <v>2</v>
       </c>
       <c r="F85" t="n">
-        <v>5.556</v>
+        <v>2.988</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0.72</v>
+        <v>1.004</v>
       </c>
       <c r="I85" t="n">
-        <v>0.72</v>
+        <v>1.004</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0.615964757709251</v>
+        <v>0.511172413793103</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Zr-cooh</t>
+          <t>Er-bpy</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>0.6092490760484891</v>
+        <v>0.488875648372974</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Cu</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4720,145 +4720,145 @@
         <v>3.04</v>
       </c>
       <c r="D86" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E86" t="n">
         <v>3</v>
       </c>
       <c r="F86" t="n">
-        <v>3.077</v>
+        <v>2.899</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="I86" t="n">
-        <v>0.65</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J86" t="n">
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L86" t="n">
-        <v>0.468654761904762</v>
+        <v>0.509979838043299</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Cu-tpy</t>
+          <t>Ni-tpy</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>0.4809362806594413</v>
+        <v>0.4571599001723849</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Pd</t>
+          <t>Sm</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D87" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F87" t="n">
-        <v>3.125</v>
+        <v>2.65</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>2.2</v>
+        <v>1.17</v>
       </c>
       <c r="I87" t="n">
-        <v>0.64</v>
+        <v>1.132</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K87" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>0.500687427912341</v>
+        <v>0.507970040380357</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Pd-tpy</t>
+          <t>Sm-cooh</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>0.4915446022158669</v>
+        <v>0.528540068504204</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Sm</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D88" t="n">
         <v>9</v>
       </c>
       <c r="E88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F88" t="n">
-        <v>2.65</v>
+        <v>2.907</v>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="I88" t="n">
-        <v>1.132</v>
+        <v>1.032</v>
       </c>
       <c r="J88" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>0.515556193472277</v>
+        <v>0.505895485969907</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Sm-tpy</t>
+          <t>Lu-cooh</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>0.5121863118629094</v>
+        <v>0.5130227621140995</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Cr</t>
+          <t>W</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4876,144 +4876,144 @@
         <v>3</v>
       </c>
       <c r="F89" t="n">
-        <v>4.878</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>1.66</v>
+        <v>2.36</v>
       </c>
       <c r="I89" t="n">
-        <v>0.615</v>
+        <v>0.6</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
       </c>
       <c r="K89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>0.491597606339964</v>
+        <v>0.505006802721088</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>Cr-tpy</t>
+          <t>W-tpy</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>0.4967785515562734</v>
+        <v>0.4944497376614143</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Ti</t>
+          <t>Mn</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D90" t="n">
         <v>6</v>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F90" t="n">
-        <v>6.612</v>
+        <v>2.41</v>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="I90" t="n">
-        <v>0.605</v>
+        <v>0.83</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L90" t="n">
-        <v>0.476920099875156</v>
+        <v>0.5035918907007489</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>Ti-tpy</t>
+          <t>Mn-cooh</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>0.4791906400389588</v>
+        <v>0.5075640383697748</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Pr</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D91" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F91" t="n">
-        <v>2.532</v>
+        <v>2.545</v>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>1.63</v>
+        <v>1.13</v>
       </c>
       <c r="I91" t="n">
-        <v>0.64</v>
+        <v>1.179</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>0.491043408617652</v>
+        <v>0.502530607093273</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>V-tpy</t>
+          <t>Pr-cooh</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>0.4951872832345489</v>
+        <v>0.5200270478873156</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Mo</t>
+          <t>Zr</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -5023,69 +5023,69 @@
         <v>6</v>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
-        <v>4.348</v>
+        <v>5.556</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>2.16</v>
+        <v>0.72</v>
       </c>
       <c r="I92" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>0.479833030852995</v>
+        <v>0.502427265170407</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>Mo-tpy</t>
+          <t>Zr-phen</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>0.4878641562805746</v>
+        <v>0.5913852119500256</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>La</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C93" t="n">
         <v>3.04</v>
       </c>
       <c r="D93" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F93" t="n">
-        <v>10</v>
+        <v>2.586</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>2.36</v>
+        <v>1.16</v>
       </c>
       <c r="I93" t="n">
-        <v>0.6</v>
+        <v>1.16</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -5094,65 +5094,65 @@
         <v>0</v>
       </c>
       <c r="L93" t="n">
-        <v>0.370939632545932</v>
+        <v>0.501680216802168</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>W-tpy</t>
+          <t>La-phen</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>0.3726061428810776</v>
+        <v>0.5400905934950415</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Fe</t>
+          <t>Er</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D94" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" t="n">
-        <v>3.279</v>
+        <v>2.825</v>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>1.83</v>
+        <v>1.24</v>
       </c>
       <c r="I94" t="n">
-        <v>0.61</v>
+        <v>1.062</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K94" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0.502115591397849</v>
+        <v>0.500243069241887</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Fe-tpy</t>
+          <t>Er-cooh</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>0.4955277130994976</v>
+        <v>0.5144717128694796</v>
       </c>
     </row>
     <row r="95">
@@ -5163,7 +5163,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -5173,7 +5173,7 @@
         <v>6</v>
       </c>
       <c r="E95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F95" t="n">
         <v>2.899</v>
@@ -5194,171 +5194,171 @@
         <v>8</v>
       </c>
       <c r="L95" t="n">
-        <v>0.493516154452325</v>
+        <v>0.500138643578644</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>Ni-tpy</t>
+          <t>Ni-bpy</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>0.4935695126610156</v>
+        <v>0.4652107258904765</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Ca</t>
+          <t>Dy</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D96" t="n">
         <v>9</v>
       </c>
       <c r="E96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F96" t="n">
-        <v>1.695</v>
+        <v>2.77</v>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="I96" t="n">
-        <v>1.18</v>
+        <v>1.083</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0.509201383551114</v>
+        <v>0.499800509878904</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>Ca-tpy</t>
+          <t>Dy-cooh</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>0.5148944367999</v>
+        <v>0.527779021218707</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Mn</t>
+          <t>Cu</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C97" t="n">
         <v>3.04</v>
       </c>
       <c r="D97" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F97" t="n">
-        <v>2.985</v>
+        <v>3.509</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>1.55</v>
+        <v>0.57</v>
       </c>
       <c r="I97" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L97" t="n">
-        <v>0.471207014415218</v>
+        <v>0.499446379468378</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>Mn-tpy</t>
+          <t>Cu-bpy</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>0.4909010844730454</v>
+        <v>0.4891610830060453</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Tm</t>
+          <t>La</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D98" t="n">
         <v>9</v>
       </c>
       <c r="E98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F98" t="n">
-        <v>2.852</v>
+        <v>2.467</v>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="I98" t="n">
-        <v>1.052</v>
+        <v>1.216</v>
       </c>
       <c r="J98" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>0.488011630980703</v>
+        <v>0.498737664574874</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>Tm-tpy</t>
+          <t>La-cooh</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>0.487843350605535</v>
+        <v>0.4990874792591904</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>Pr</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5376,39 +5376,39 @@
         <v>3</v>
       </c>
       <c r="F99" t="n">
-        <v>2.907</v>
+        <v>2.545</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>1.27</v>
+        <v>1.13</v>
       </c>
       <c r="I99" t="n">
-        <v>1.032</v>
+        <v>1.179</v>
       </c>
       <c r="J99" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>0.488202572347267</v>
+        <v>0.497883663687006</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Lu-tpy</t>
+          <t>Pr-tpy</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>0.4946853419410153</v>
+        <v>0.5587280889788763</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Zn</t>
+          <t>La</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5420,122 +5420,122 @@
         <v>3.04</v>
       </c>
       <c r="D100" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E100" t="n">
         <v>3</v>
       </c>
       <c r="F100" t="n">
-        <v>2.703</v>
+        <v>2.467</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>1.65</v>
+        <v>1.1</v>
       </c>
       <c r="I100" t="n">
-        <v>0.74</v>
+        <v>1.216</v>
       </c>
       <c r="J100" t="n">
         <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>0.512725768321513</v>
+        <v>0.497146553932872</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>Zn-tpy</t>
+          <t>La-tpy</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>0.5134296949906539</v>
+        <v>0.5113845150589845</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Ho</t>
+          <t>Dy</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C101" t="n">
         <v>3.04</v>
       </c>
       <c r="D101" t="n">
+        <v>8</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2</v>
+      </c>
+      <c r="F101" t="n">
+        <v>2.921</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1.027</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1.027</v>
+      </c>
+      <c r="J101" t="n">
         <v>9</v>
       </c>
-      <c r="E101" t="n">
-        <v>3</v>
-      </c>
-      <c r="F101" t="n">
-        <v>2.799</v>
-      </c>
-      <c r="G101" t="n">
-        <v>1</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="I101" t="n">
-        <v>1.072</v>
-      </c>
-      <c r="J101" t="n">
-        <v>10</v>
-      </c>
       <c r="K101" t="n">
         <v>0</v>
       </c>
       <c r="L101" t="n">
-        <v>0.489596837944664</v>
+        <v>0.496559139784946</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>Ho-tpy</t>
+          <t>Dy-phen</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>0.493739893187835</v>
+        <v>0.5361721319632383</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Zr</t>
+          <t>Ca</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D102" t="n">
         <v>6</v>
       </c>
       <c r="E102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F102" t="n">
-        <v>5.556</v>
+        <v>2</v>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>0.72</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -5544,71 +5544,71 @@
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>0.619316717237393</v>
+        <v>0.493282131661442</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>Zr-tpy</t>
+          <t>Ca-cooh</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>0.5009395385306762</v>
+        <v>0.5355353308401885</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Ce</t>
+          <t>Cu</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D103" t="n">
+        <v>4</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2</v>
+      </c>
+      <c r="F103" t="n">
+        <v>3.509</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
         <v>9</v>
       </c>
-      <c r="E103" t="n">
-        <v>3</v>
-      </c>
-      <c r="F103" t="n">
-        <v>2.508</v>
-      </c>
-      <c r="G103" t="n">
-        <v>1</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="I103" t="n">
-        <v>1.196</v>
-      </c>
-      <c r="J103" t="n">
-        <v>1</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.498353535353535</v>
+        <v>0.492810680864795</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>Ce-tpy</t>
+          <t>Cu-cooh</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>0.492036761954636</v>
+        <v>0.4897778646321944</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Co</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5620,45 +5620,45 @@
         <v>3.04</v>
       </c>
       <c r="D104" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E104" t="n">
         <v>3</v>
       </c>
       <c r="F104" t="n">
-        <v>3.077</v>
+        <v>2.907</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>1.88</v>
+        <v>1.27</v>
       </c>
       <c r="I104" t="n">
-        <v>0.65</v>
+        <v>1.032</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K104" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>0.485025207452638</v>
+        <v>0.490091888978712</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>Co-tpy</t>
+          <t>Lu-tpy</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>0.4919274571738123</v>
+        <v>0.4954318448076506</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Gd</t>
+          <t>Dy</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5676,333 +5676,333 @@
         <v>3</v>
       </c>
       <c r="F105" t="n">
-        <v>2.71</v>
+        <v>2.77</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="I105" t="n">
-        <v>1.107</v>
+        <v>1.083</v>
       </c>
       <c r="J105" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>0.482678178562292</v>
+        <v>0.486352182539682</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Gd-tpy</t>
+          <t>Dy-tpy</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>0.5087055788850653</v>
+        <v>0.5137874601397521</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>In</t>
+          <t>Ir</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D106" t="n">
         <v>6</v>
       </c>
       <c r="E106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F106" t="n">
-        <v>3.75</v>
+        <v>4.412</v>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H106" t="n">
-        <v>1.78</v>
+        <v>0.68</v>
       </c>
       <c r="I106" t="n">
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L106" t="n">
-        <v>0.506411101216978</v>
+        <v>0.484424375917768</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>In-tpy</t>
+          <t>Ir-cooh</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>0.498531860769329</v>
+        <v>0.4916049891463073</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Er</t>
+          <t>Rh</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C107" t="n">
         <v>3.04</v>
       </c>
       <c r="D107" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F107" t="n">
-        <v>2.825</v>
+        <v>4.511</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>1.24</v>
+        <v>0.665</v>
       </c>
       <c r="I107" t="n">
-        <v>1.062</v>
+        <v>0.665</v>
       </c>
       <c r="J107" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L107" t="n">
-        <v>0.491194045720362</v>
+        <v>0.483751322751323</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>Er-tpy</t>
+          <t>Rh-bpy</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>0.4943245705335089</v>
+        <v>0.4843917136496874</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Tb</t>
+          <t>Pd</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D108" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F108" t="n">
-        <v>2.74</v>
+        <v>3.125</v>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="I108" t="n">
-        <v>1.095</v>
+        <v>0.64</v>
       </c>
       <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
         <v>8</v>
       </c>
-      <c r="K108" t="n">
-        <v>0</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.771725182863114</v>
+        <v>0.480625676686107</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>Tb-tpy</t>
+          <t>Pd-cooh</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>0.7319126733183158</v>
+        <v>0.475450798047812</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Dy</t>
+          <t>Ru</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C109" t="n">
         <v>3.04</v>
       </c>
       <c r="D109" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F109" t="n">
-        <v>2.77</v>
+        <v>2.941</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
       </c>
       <c r="H109" t="n">
-        <v>1.22</v>
+        <v>0.68</v>
       </c>
       <c r="I109" t="n">
-        <v>1.083</v>
+        <v>0.68</v>
       </c>
       <c r="J109" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K109" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L109" t="n">
-        <v>0.505121666009723</v>
+        <v>0.479722248316894</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>Dy-tpy</t>
+          <t>Ru-phen</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>0.5119973802983712</v>
+        <v>0.5472564579239217</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>La</t>
+          <t>Cr</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C110" t="n">
         <v>3.04</v>
       </c>
       <c r="D110" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E110" t="n">
+        <v>2</v>
+      </c>
+      <c r="F110" t="n">
+        <v>4.878</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
         <v>3</v>
       </c>
-      <c r="F110" t="n">
-        <v>2.467</v>
-      </c>
-      <c r="G110" t="n">
-        <v>1</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1.216</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.479287795992714</v>
+        <v>0.475109819121447</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>La-tpy</t>
+          <t>Cr-phen</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>0.4895674947450255</v>
+        <v>0.4551766787290711</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Eu</t>
+          <t>Mo</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C111" t="n">
         <v>3.04</v>
       </c>
       <c r="D111" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E111" t="n">
+        <v>2</v>
+      </c>
+      <c r="F111" t="n">
+        <v>4.348</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1</v>
+      </c>
+      <c r="H111" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
         <v>3</v>
       </c>
-      <c r="F111" t="n">
-        <v>2.679</v>
-      </c>
-      <c r="G111" t="n">
-        <v>1</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="J111" t="n">
-        <v>6</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.627956956576782</v>
+        <v>0.472675253708041</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>Eu-tpy</t>
+          <t>Mo-phen</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>0.5901860317105709</v>
+        <v>0.4754654793693973</v>
       </c>
     </row>
     <row r="112">
@@ -6013,29 +6013,29 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C112" t="n">
         <v>3.04</v>
       </c>
       <c r="D112" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F112" t="n">
-        <v>2.58</v>
+        <v>2.705</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>1.14</v>
+        <v>1.109</v>
       </c>
       <c r="I112" t="n">
-        <v>1.163</v>
+        <v>1.109</v>
       </c>
       <c r="J112" t="n">
         <v>3</v>
@@ -6044,71 +6044,71 @@
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>0.488825783530009</v>
+        <v>0.471536964980545</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>Nd-tpy</t>
+          <t>Nd-phen</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>0.4996825357853725</v>
+        <v>0.6023700518087144</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Ru</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D113" t="n">
         <v>6</v>
       </c>
       <c r="E113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F113" t="n">
-        <v>2.941</v>
+        <v>4.688</v>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>2.2</v>
+        <v>1.63</v>
       </c>
       <c r="I113" t="n">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="J113" t="n">
         <v>0</v>
       </c>
       <c r="K113" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L113" t="n">
-        <v>0.498772412683084</v>
+        <v>0.468092780403954</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>Ru-tpy</t>
+          <t>V-cooh</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>0.494689919420502</v>
+        <v>0.4655108277475762</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Pr</t>
+          <t>Cu</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -6120,100 +6120,100 @@
         <v>3.04</v>
       </c>
       <c r="D114" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E114" t="n">
         <v>3</v>
       </c>
       <c r="F114" t="n">
-        <v>2.545</v>
+        <v>3.077</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>1.13</v>
+        <v>1.9</v>
       </c>
       <c r="I114" t="n">
-        <v>1.179</v>
+        <v>0.65</v>
       </c>
       <c r="J114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L114" t="n">
-        <v>0.483256944444444</v>
+        <v>0.467398251074552</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>Pr-tpy</t>
+          <t>Cu-tpy</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>0.489854039258819</v>
+        <v>0.46210296154174</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Ca</t>
+          <t>In</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C115" t="n">
         <v>3.04</v>
       </c>
       <c r="D115" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F115" t="n">
-        <v>1.786</v>
+        <v>3.75</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>1.78</v>
       </c>
       <c r="I115" t="n">
-        <v>1.12</v>
+        <v>0.8</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L115" t="n">
-        <v>0.482205226258763</v>
+        <v>0.467238039061476</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>Ca-phen</t>
+          <t>In-tpy</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>0.5179849766189027</v>
+        <v>0.4908932129198995</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Mo</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -6223,19 +6223,19 @@
         <v>6</v>
       </c>
       <c r="E116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F116" t="n">
-        <v>2.532</v>
+        <v>4.348</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>1.63</v>
+        <v>2.16</v>
       </c>
       <c r="I116" t="n">
-        <v>0.79</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -6244,26 +6244,26 @@
         <v>3</v>
       </c>
       <c r="L116" t="n">
-        <v>0.45958064516129</v>
+        <v>0.463308641975309</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>V-phen</t>
+          <t>Mo-tpy</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>0.5036524015919893</v>
+        <v>0.4660213714594875</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Co</t>
+          <t>Fe</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -6276,44 +6276,44 @@
         <v>2</v>
       </c>
       <c r="F117" t="n">
-        <v>3.077</v>
+        <v>3.279</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="I117" t="n">
-        <v>0.745</v>
+        <v>0.61</v>
       </c>
       <c r="J117" t="n">
         <v>0</v>
       </c>
       <c r="K117" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L117" t="n">
-        <v>0.475532503457815</v>
+        <v>0.462925720327782</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>Co-phen</t>
+          <t>Fe-bpy</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>0.5011805392759321</v>
+        <v>0.4453378844051776</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -6323,97 +6323,97 @@
         <v>6</v>
       </c>
       <c r="E118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F118" t="n">
-        <v>2.899</v>
+        <v>2.532</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>1.91</v>
+        <v>1.63</v>
       </c>
       <c r="I118" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L118" t="n">
-        <v>0.483552758954501</v>
+        <v>0.462494283201407</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>Ni-phen</t>
+          <t>V-tpy</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>0.5098675294279974</v>
+        <v>0.4582707888609406</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Cr</t>
+          <t>Er</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C119" t="n">
         <v>3.04</v>
       </c>
       <c r="D119" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F119" t="n">
-        <v>4.878</v>
+        <v>2.825</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>1.66</v>
+        <v>1.24</v>
       </c>
       <c r="I119" t="n">
-        <v>0.615</v>
+        <v>1.062</v>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
-        <v>0.456987473266117</v>
+        <v>0.462253794778385</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>Cr-phen</t>
+          <t>Er-tpy</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>0.514108840484871</v>
+        <v>0.4906300803695266</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Ti</t>
+          <t>Co</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -6426,39 +6426,39 @@
         <v>2</v>
       </c>
       <c r="F120" t="n">
-        <v>6.612</v>
+        <v>3.077</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>1.54</v>
+        <v>1.88</v>
       </c>
       <c r="I120" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L120" t="n">
-        <v>0.671348201011002</v>
+        <v>0.460876238865889</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>Ti-phen</t>
+          <t>Co-bpy</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>0.6493014938307398</v>
+        <v>0.4529963283094147</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Mo</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -6470,39 +6470,39 @@
         <v>3.04</v>
       </c>
       <c r="D121" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E121" t="n">
         <v>2</v>
       </c>
       <c r="F121" t="n">
-        <v>4.348</v>
+        <v>3.071</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>2.16</v>
+        <v>0.977</v>
       </c>
       <c r="I121" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.977</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
-        <v>0.455660145249741</v>
+        <v>0.460305444887118</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>Mo-phen</t>
+          <t>Lu-phen</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>0.5051944452091723</v>
+        <v>0.5124944223275885</v>
       </c>
     </row>
     <row r="122">
@@ -6513,7 +6513,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -6523,7 +6523,7 @@
         <v>6</v>
       </c>
       <c r="E122" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F122" t="n">
         <v>3.279</v>
@@ -6544,21 +6544,21 @@
         <v>6</v>
       </c>
       <c r="L122" t="n">
-        <v>0.484782258064516</v>
+        <v>0.460184397163121</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>Fe-phen</t>
+          <t>Fe-tpy</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>0.5118257298664793</v>
+        <v>0.437287058687086</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Zr</t>
+          <t>Gd</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6570,45 +6570,45 @@
         <v>3.04</v>
       </c>
       <c r="D123" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E123" t="n">
         <v>2</v>
       </c>
       <c r="F123" t="n">
-        <v>5.556</v>
+        <v>2.849</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>0.72</v>
+        <v>1.053</v>
       </c>
       <c r="I123" t="n">
-        <v>0.72</v>
+        <v>1.053</v>
       </c>
       <c r="J123" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K123" t="n">
         <v>0</v>
       </c>
       <c r="L123" t="n">
-        <v>0.414628369866465</v>
+        <v>0.458598513963618</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>Zr-phen</t>
+          <t>Gd-phen</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>0.5201108042710217</v>
+        <v>0.4964620650126118</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Sm</t>
+          <t>Ir</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6620,95 +6620,95 @@
         <v>3.04</v>
       </c>
       <c r="D124" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E124" t="n">
         <v>2</v>
       </c>
       <c r="F124" t="n">
-        <v>2.78</v>
+        <v>4.412</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>1.079</v>
+        <v>0.68</v>
       </c>
       <c r="I124" t="n">
-        <v>1.079</v>
+        <v>0.68</v>
       </c>
       <c r="J124" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L124" t="n">
-        <v>0.452485294117647</v>
+        <v>0.457119047619048</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>Sm-phen</t>
+          <t>Ir-phen</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>0.4692575308782474</v>
+        <v>0.515454196075436</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Ho</t>
+          <t>Mn</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C125" t="n">
         <v>3.04</v>
       </c>
       <c r="D125" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E125" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F125" t="n">
-        <v>2.956</v>
+        <v>2.985</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>1.015</v>
+        <v>1.55</v>
       </c>
       <c r="I125" t="n">
-        <v>1.015</v>
+        <v>0.67</v>
       </c>
       <c r="J125" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L125" t="n">
-        <v>0.457235536657647</v>
+        <v>0.456794326241135</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>Ho-phen</t>
+          <t>Mn-tpy</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>0.4785311700364979</v>
+        <v>0.5024816162665668</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Ru</t>
+          <t>Pd</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6720,45 +6720,45 @@
         <v>3.04</v>
       </c>
       <c r="D126" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E126" t="n">
         <v>2</v>
       </c>
       <c r="F126" t="n">
-        <v>2.941</v>
+        <v>3.125</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="I126" t="n">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
       </c>
       <c r="K126" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L126" t="n">
-        <v>0.490273901808786</v>
+        <v>0.456742081447964</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>Ru-phen</t>
+          <t>Pd-phen</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>0.5602829638920505</v>
+        <v>0.4665382154198296</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Rh</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6776,189 +6776,189 @@
         <v>2</v>
       </c>
       <c r="F127" t="n">
-        <v>4.511</v>
+        <v>2.532</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>0.665</v>
+        <v>1.63</v>
       </c>
       <c r="I127" t="n">
-        <v>0.665</v>
+        <v>0.79</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L127" t="n">
-        <v>0.466008292610692</v>
+        <v>0.453990701606086</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>Rh-phen</t>
+          <t>V-phen</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>0.5272253564049482</v>
+        <v>0.5273202560056789</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>La</t>
+          <t>Ru</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D128" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E128" t="n">
         <v>2</v>
       </c>
       <c r="F128" t="n">
-        <v>2.586</v>
+        <v>4.412</v>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>1.16</v>
+        <v>2.2</v>
       </c>
       <c r="I128" t="n">
-        <v>1.16</v>
+        <v>0.68</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
       </c>
       <c r="K128" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L128" t="n">
-        <v>0.475358173378497</v>
+        <v>0.452385685884692</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>La-phen</t>
+          <t>Ru-cooh</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>0.5000582360054923</v>
+        <v>0.4557322425086311</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Ce</t>
+          <t>Cr</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C129" t="n">
         <v>3.04</v>
       </c>
       <c r="D129" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E129" t="n">
         <v>2</v>
       </c>
       <c r="F129" t="n">
-        <v>2.625</v>
+        <v>4.878</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>1.143</v>
+        <v>1.66</v>
       </c>
       <c r="I129" t="n">
-        <v>1.143</v>
+        <v>0.615</v>
       </c>
       <c r="J129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L129" t="n">
-        <v>0.468058882235529</v>
+        <v>0.450734189972285</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>Ce-phen</t>
+          <t>Cr-bpy</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>0.4981591872114713</v>
+        <v>0.4551766787290711</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Nd</t>
+          <t>Fe</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D130" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E130" t="n">
         <v>2</v>
       </c>
       <c r="F130" t="n">
-        <v>2.705</v>
+        <v>4.651</v>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>1.109</v>
+        <v>1.83</v>
       </c>
       <c r="I130" t="n">
-        <v>1.109</v>
+        <v>0.645</v>
       </c>
       <c r="J130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L130" t="n">
-        <v>0.464059211360467</v>
+        <v>0.45031629153269</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>Nd-phen</t>
+          <t>Fe-cooh</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>0.4926921876344575</v>
+        <v>0.4736244430324994</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Eu</t>
+          <t>Er</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -6976,139 +6976,139 @@
         <v>2</v>
       </c>
       <c r="F131" t="n">
-        <v>2.814</v>
+        <v>2.988</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>1.066</v>
+        <v>1.004</v>
       </c>
       <c r="I131" t="n">
-        <v>1.066</v>
+        <v>1.004</v>
       </c>
       <c r="J131" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="K131" t="n">
         <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>0.556603970741902</v>
+        <v>0.450271553361185</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>Eu-phen</t>
+          <t>Er-phen</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>0.5358687590976081</v>
+        <v>0.488875648372974</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Er</t>
+          <t>Ti</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C132" t="n">
         <v>3.04</v>
       </c>
       <c r="D132" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E132" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F132" t="n">
-        <v>2.988</v>
+        <v>6.612</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>1.004</v>
+        <v>1.54</v>
       </c>
       <c r="I132" t="n">
-        <v>1.004</v>
+        <v>0.605</v>
       </c>
       <c r="J132" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K132" t="n">
         <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>0.4675250501002</v>
+        <v>0.4500886981402</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>Er-phen</t>
+          <t>Ti-tpy</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>0.4985173014714777</v>
+        <v>0.4850810342868609</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Yb</t>
+          <t>Co</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D133" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E133" t="n">
         <v>2</v>
       </c>
       <c r="F133" t="n">
-        <v>3.046</v>
+        <v>2.685</v>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133" t="n">
-        <v>0.985</v>
+        <v>1.88</v>
       </c>
       <c r="I133" t="n">
-        <v>0.985</v>
+        <v>0.745</v>
       </c>
       <c r="J133" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L133" t="n">
-        <v>0.464960127591707</v>
+        <v>0.444385628742515</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>Yb-phen</t>
+          <t>Co-cooh</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>0.4966570819258145</v>
+        <v>0.4458883183788635</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>Cu</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -7120,45 +7120,45 @@
         <v>3.04</v>
       </c>
       <c r="D134" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E134" t="n">
         <v>2</v>
       </c>
       <c r="F134" t="n">
-        <v>3.071</v>
+        <v>3.509</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>0.977</v>
+        <v>0.57</v>
       </c>
       <c r="I134" t="n">
-        <v>0.977</v>
+        <v>0.57</v>
       </c>
       <c r="J134" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K134" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L134" t="n">
-        <v>0.462251169004676</v>
+        <v>0.441380523342254</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>Lu-phen</t>
+          <t>Cu-phen</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>0.5054014788285619</v>
+        <v>0.4891610830060453</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Pd</t>
+          <t>Rh</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -7170,145 +7170,145 @@
         <v>3.04</v>
       </c>
       <c r="D135" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E135" t="n">
         <v>2</v>
       </c>
       <c r="F135" t="n">
-        <v>3.125</v>
+        <v>4.511</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>0.64</v>
+        <v>0.665</v>
       </c>
       <c r="I135" t="n">
-        <v>0.64</v>
+        <v>0.665</v>
       </c>
       <c r="J135" t="n">
         <v>0</v>
       </c>
       <c r="K135" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L135" t="n">
-        <v>0.488258706467662</v>
+        <v>0.436033226152197</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>Pd-phen</t>
+          <t>Rh-phen</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>0.5586769923678578</v>
+        <v>0.4843917136496874</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Zn</t>
+          <t>Pd</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C136" t="n">
         <v>3.04</v>
       </c>
       <c r="D136" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E136" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F136" t="n">
-        <v>2.703</v>
+        <v>3.125</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
       </c>
       <c r="H136" t="n">
-        <v>0.74</v>
+        <v>2.2</v>
       </c>
       <c r="I136" t="n">
-        <v>0.74</v>
+        <v>0.64</v>
       </c>
       <c r="J136" t="n">
         <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L136" t="n">
-        <v>0.6545588678109</v>
+        <v>0.431894389438944</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>Zn-phen</t>
+          <t>Pd-tpy</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>0.6037391012816996</v>
+        <v>0.4343401897898326</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Tb</t>
+          <t>Ru</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C137" t="n">
         <v>3.04</v>
       </c>
       <c r="D137" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E137" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F137" t="n">
-        <v>2.885</v>
+        <v>2.941</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="I137" t="n">
-        <v>1.04</v>
+        <v>0.68</v>
       </c>
       <c r="J137" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L137" t="n">
-        <v>0.566285565126599</v>
+        <v>0.429326908249807</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>Tb-phen</t>
+          <t>Ru-tpy</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>0.5564856024253443</v>
+        <v>0.4421057190883357</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Dy</t>
+          <t>Co</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -7320,100 +7320,100 @@
         <v>3.04</v>
       </c>
       <c r="D138" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E138" t="n">
         <v>2</v>
       </c>
       <c r="F138" t="n">
-        <v>2.921</v>
+        <v>3.077</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>1.027</v>
+        <v>1.88</v>
       </c>
       <c r="I138" t="n">
-        <v>1.027</v>
+        <v>0.745</v>
       </c>
       <c r="J138" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L138" t="n">
-        <v>0.467538522323192</v>
+        <v>0.424676071055381</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>Dy-phen</t>
+          <t>Co-phen</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>0.5020505401064346</v>
+        <v>0.445855662190151</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Cu</t>
+          <t>Cr</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D139" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E139" t="n">
         <v>2</v>
       </c>
       <c r="F139" t="n">
-        <v>3.509</v>
+        <v>4.878</v>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>0.57</v>
+        <v>1.66</v>
       </c>
       <c r="I139" t="n">
-        <v>0.57</v>
+        <v>0.615</v>
       </c>
       <c r="J139" t="n">
         <v>0</v>
       </c>
       <c r="K139" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="L139" t="n">
-        <v>0.476552058432935</v>
+        <v>0.424142156862745</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>Cu-phen</t>
+          <t>Cr-cooh</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>0.4895338020397178</v>
+        <v>0.4488162304589624</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Cr</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -7423,92 +7423,92 @@
         <v>6</v>
       </c>
       <c r="E140" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F140" t="n">
-        <v>2.105</v>
+        <v>4.878</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
       </c>
       <c r="H140" t="n">
-        <v>0.95</v>
+        <v>1.66</v>
       </c>
       <c r="I140" t="n">
-        <v>0.95</v>
+        <v>0.615</v>
       </c>
       <c r="J140" t="n">
         <v>0</v>
       </c>
       <c r="K140" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L140" t="n">
-        <v>0.528135206869633</v>
+        <v>0.423362453292102</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>Cd-phen</t>
+          <t>Cr-tpy</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>0.5248133319975705</v>
+        <v>0.4438654211585825</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Tm</t>
+          <t>Co</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C141" t="n">
         <v>3.04</v>
       </c>
       <c r="D141" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F141" t="n">
-        <v>2.852</v>
+        <v>3.077</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
       </c>
       <c r="H141" t="n">
-        <v>0.994</v>
+        <v>1.88</v>
       </c>
       <c r="I141" t="n">
-        <v>0.994</v>
+        <v>0.65</v>
       </c>
       <c r="J141" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L141" t="n">
-        <v>0.45200976612696</v>
+        <v>0.422195511601369</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>Tm-phen</t>
+          <t>Co-tpy</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>0.4618033248815657</v>
+        <v>0.444945502591323</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Pt</t>
+          <t>Fe</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -7520,45 +7520,45 @@
         <v>3.04</v>
       </c>
       <c r="D142" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E142" t="n">
         <v>2</v>
       </c>
       <c r="F142" t="n">
-        <v>3.333</v>
+        <v>3.279</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>0.6</v>
+        <v>1.83</v>
       </c>
       <c r="I142" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="J142" t="n">
         <v>0</v>
       </c>
       <c r="K142" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L142" t="n">
-        <v>0.472354256508545</v>
+        <v>0.409727272727273</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>Pt-phen</t>
+          <t>Fe-phen</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>0.5148541171681049</v>
+        <v>0.4453378844051776</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Gd</t>
+          <t>Pt</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -7570,45 +7570,45 @@
         <v>3.04</v>
       </c>
       <c r="D143" t="n">
+        <v>4</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
         <v>8</v>
       </c>
-      <c r="E143" t="n">
-        <v>2</v>
-      </c>
-      <c r="F143" t="n">
-        <v>2.849</v>
-      </c>
-      <c r="G143" t="n">
-        <v>1</v>
-      </c>
-      <c r="H143" t="n">
-        <v>1.053</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1.053</v>
-      </c>
-      <c r="J143" t="n">
-        <v>7</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.464905956112853</v>
+        <v>0.399361173253791</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>Gd-phen</t>
+          <t>Pt-phen</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>0.4817791809688556</v>
+        <v>0.4682349938685744</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Ir</t>
+          <t>Ho</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7620,45 +7620,45 @@
         <v>3.04</v>
       </c>
       <c r="D144" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E144" t="n">
         <v>2</v>
       </c>
       <c r="F144" t="n">
-        <v>4.412</v>
+        <v>2.956</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>0.68</v>
+        <v>1.015</v>
       </c>
       <c r="I144" t="n">
-        <v>0.68</v>
+        <v>1.015</v>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K144" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L144" t="n">
-        <v>0.470604001861331</v>
+        <v>0.398175853018373</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>Ir-phen</t>
+          <t>Ho-phen</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>0.5269034599700443</v>
+        <v>0.5087666331490961</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Mn</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7676,33 +7676,33 @@
         <v>2</v>
       </c>
       <c r="F145" t="n">
-        <v>2.41</v>
+        <v>2.899</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>0.83</v>
+        <v>1.91</v>
       </c>
       <c r="I145" t="n">
-        <v>0.83</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J145" t="n">
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L145" t="n">
-        <v>0.676076774862902</v>
+        <v>0.38812865497076</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>Mn-phen</t>
+          <t>Ni-phen</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>0.6674459866985096</v>
+        <v>0.4652107258904765</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/predicted_with_all_scores.xlsx
+++ b/outputs/predicted_with_all_scores.xlsx
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.818869520897044</v>
+        <v>0.858465802735781</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.8114207100746987</v>
+        <v>0.8418670457771255</v>
       </c>
     </row>
     <row r="3">
@@ -563,20 +563,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3.04</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>2.885</v>
+        <v>2.74</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -585,7 +585,7 @@
         <v>1.2</v>
       </c>
       <c r="I3" t="n">
-        <v>1.04</v>
+        <v>1.095</v>
       </c>
       <c r="J3" t="n">
         <v>8</v>
@@ -594,65 +594,65 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.792699881376038</v>
+        <v>0.771725182863114</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Tb-bpy</t>
+          <t>Tb-tpy</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.7377024750942954</v>
+        <v>0.7437524293374532</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tb</t>
+          <t>Er</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>2.74</v>
+        <v>2.988</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.2</v>
+        <v>1.004</v>
       </c>
       <c r="I4" t="n">
-        <v>1.095</v>
+        <v>1.004</v>
       </c>
       <c r="J4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.768487647134911</v>
+        <v>0.768200974072482</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Tb-tpy</t>
+          <t>Er-acac</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.7307908519614505</v>
+        <v>0.7208683013187339</v>
       </c>
     </row>
     <row r="5">
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.75811568546727</v>
+        <v>0.7508962783823731</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
@@ -702,22 +702,22 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.7210654697982429</v>
+        <v>0.7346646999625425</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Er</t>
+          <t>Tb</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D6" t="n">
         <v>8</v>
@@ -726,39 +726,39 @@
         <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>2.988</v>
+        <v>2.885</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.004</v>
+        <v>1.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1.004</v>
+        <v>1.04</v>
       </c>
       <c r="J6" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.743865497076023</v>
+        <v>0.7453734316388571</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Er-acac</t>
+          <t>Tb-bpy</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.6036497799598879</v>
+        <v>0.6987412593774934</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Eu</t>
+          <t>Dy</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -776,139 +776,139 @@
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>2.814</v>
+        <v>2.921</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.2</v>
+        <v>1.027</v>
       </c>
       <c r="I7" t="n">
-        <v>1.066</v>
+        <v>1.027</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.73341583586187</v>
+        <v>0.731057224606581</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Eu-acac</t>
+          <t>Dy-acac</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.7123591724776638</v>
+        <v>0.7122242607771581</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mn</t>
+          <t>Eu</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>2.41</v>
+        <v>2.814</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.83</v>
+        <v>1.2</v>
       </c>
       <c r="I8" t="n">
-        <v>0.83</v>
+        <v>1.066</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.72179952909519</v>
+        <v>0.722993271656855</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Mn-phen</t>
+          <t>Eu-acac</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.7022385548034957</v>
+        <v>0.7496373098745643</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Zn</t>
+          <t>Tb</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>2.941</v>
+        <v>2.885</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.65</v>
+        <v>1.04</v>
       </c>
       <c r="I9" t="n">
-        <v>0.68</v>
+        <v>1.04</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K9" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.713787723785166</v>
+        <v>0.716285565126599</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Zn-acac</t>
+          <t>Tb-phen</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.7078016173173276</v>
+        <v>0.7056631709146681</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dy</t>
+          <t>Zn</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -920,45 +920,45 @@
         <v>3.44</v>
       </c>
       <c r="D10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
       </c>
       <c r="F10" t="n">
-        <v>2.921</v>
+        <v>2.941</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.027</v>
+        <v>1.65</v>
       </c>
       <c r="I10" t="n">
-        <v>1.027</v>
+        <v>0.68</v>
       </c>
       <c r="J10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6926114706255549</v>
+        <v>0.712904761904762</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Dy-acac</t>
+          <t>Zn-acac</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.6788899001770422</v>
+        <v>0.6931592157607195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Yb</t>
+          <t>Fe</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -970,45 +970,45 @@
         <v>3.44</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>3.046</v>
+        <v>4.651</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.985</v>
+        <v>1.83</v>
       </c>
       <c r="I11" t="n">
-        <v>0.985</v>
+        <v>0.645</v>
       </c>
       <c r="J11" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
-        <v>0.690661422484431</v>
+        <v>0.706004156275977</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Yb-acac</t>
+          <t>Fe-acac</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.6488716472995052</v>
+        <v>0.6304543701756324</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ho</t>
+          <t>Co</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1020,45 +1020,45 @@
         <v>3.44</v>
       </c>
       <c r="D12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>2.956</v>
+        <v>2.685</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1.015</v>
+        <v>1.88</v>
       </c>
       <c r="I12" t="n">
-        <v>1.015</v>
+        <v>0.745</v>
       </c>
       <c r="J12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6801670710011321</v>
+        <v>0.681983072916667</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Ho-acac</t>
+          <t>Co-acac</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.6570299311319768</v>
+        <v>0.6625897759588465</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mn</t>
+          <t>Cd</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1070,45 +1070,45 @@
         <v>3.44</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>2.41</v>
+        <v>1.818</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1.55</v>
+        <v>1.1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.83</v>
+        <v>1.1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L13" t="n">
-        <v>0.674228910354177</v>
+        <v>0.678385159010601</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Mn-acac</t>
+          <t>Cd-acac</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.614262821992883</v>
+        <v>0.8048369390320433</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Pt</t>
+          <t>Cu</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1126,39 +1126,39 @@
         <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>3.333</v>
+        <v>3.509</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L14" t="n">
-        <v>0.67253627311522</v>
+        <v>0.67705421170012</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Pt-acac</t>
+          <t>Cu-acac</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.5905236521402553</v>
+        <v>0.6437615672324837</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fe</t>
+          <t>Pt</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1170,45 +1170,45 @@
         <v>3.44</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>4.651</v>
+        <v>3.333</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1.83</v>
+        <v>0.6</v>
       </c>
       <c r="I15" t="n">
-        <v>0.645</v>
+        <v>0.6</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L15" t="n">
-        <v>0.670811264675286</v>
+        <v>0.676983645983646</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Fe-acac</t>
+          <t>Pt-acac</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.6280756489895599</v>
+        <v>0.6680422417072969</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Ti</t>
+          <t>Mn</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1226,44 +1226,44 @@
         <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>6.612</v>
+        <v>2.41</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1.54</v>
+        <v>0.83</v>
       </c>
       <c r="I16" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L16" t="n">
-        <v>0.668270906949352</v>
+        <v>0.676076774862902</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Ti-phen</t>
+          <t>Mn-phen</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.639313021267676</v>
+        <v>0.6631745457618895</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Zr</t>
+          <t>Ti</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1276,89 +1276,89 @@
         <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>5.556</v>
+        <v>6.612</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.72</v>
+        <v>1.54</v>
       </c>
       <c r="I17" t="n">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>0.662908971840209</v>
+        <v>0.671348201011002</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Zr-bpy</t>
+          <t>Ti-phen</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.5913852119500256</v>
+        <v>0.6412892754840561</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Zr</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>3.44</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>5.556</v>
+        <v>2.899</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.72</v>
+        <v>1.91</v>
       </c>
       <c r="I18" t="n">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L18" t="n">
-        <v>0.652740740740741</v>
+        <v>0.6567333333333329</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Zr-cooh</t>
+          <t>Ni-acac</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.6390048555118851</v>
+        <v>0.6611127780022398</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Tb</t>
+          <t>Zn</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1370,45 +1370,45 @@
         <v>3.04</v>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>2.885</v>
+        <v>2.703</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1.04</v>
+        <v>0.74</v>
       </c>
       <c r="I19" t="n">
-        <v>1.04</v>
+        <v>0.74</v>
       </c>
       <c r="J19" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L19" t="n">
-        <v>0.6523371268349</v>
+        <v>0.6545588678109</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Tb-phen</t>
+          <t>Zn-phen</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0.6690571156213168</v>
+        <v>0.6024451455093381</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Co</t>
+          <t>Yb</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1420,45 +1420,45 @@
         <v>3.44</v>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>2.685</v>
+        <v>3.046</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>1.88</v>
+        <v>0.985</v>
       </c>
       <c r="I20" t="n">
-        <v>0.745</v>
+        <v>0.985</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.651232489264031</v>
+        <v>0.64537899147522</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Co-acac</t>
+          <t>Yb-acac</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.5765879663002924</v>
+        <v>0.6845340601948066</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cu</t>
+          <t>Mn</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1470,189 +1470,189 @@
         <v>3.44</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
         <v>2</v>
       </c>
       <c r="F21" t="n">
-        <v>3.509</v>
+        <v>2.41</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="I21" t="n">
-        <v>0.57</v>
+        <v>0.83</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L21" t="n">
-        <v>0.642733517750115</v>
+        <v>0.642156855462705</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Cu-acac</t>
+          <t>Mn-acac</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>0.616695415413077</v>
+        <v>0.6532354653494377</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tb</t>
+          <t>Ir</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>3.44</v>
       </c>
       <c r="D22" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E22" t="n">
         <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>2.74</v>
+        <v>4.412</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="I22" t="n">
-        <v>1.095</v>
+        <v>0.68</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L22" t="n">
-        <v>0.6377797833935021</v>
+        <v>0.641056378600823</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Tb-cooh</t>
+          <t>Ir-acac</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>0.6346800547506417</v>
+        <v>0.6386068898619659</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Ru</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E23" t="n">
         <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>1.818</v>
+        <v>2.941</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>1.1</v>
+        <v>0.68</v>
       </c>
       <c r="I23" t="n">
-        <v>1.1</v>
+        <v>0.68</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L23" t="n">
-        <v>0.637426520490734</v>
+        <v>0.6408996364785839</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Cd-acac</t>
+          <t>Ru-bpy</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>0.6454809904762767</v>
+        <v>0.5573749802854877</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ru</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E24" t="n">
         <v>2</v>
       </c>
       <c r="F24" t="n">
-        <v>2.941</v>
+        <v>3.071</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.68</v>
+        <v>0.977</v>
       </c>
       <c r="I24" t="n">
-        <v>0.68</v>
+        <v>0.977</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K24" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.634449612403101</v>
+        <v>0.63876898270302</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Ru-bpy</t>
+          <t>Lu-acac</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>0.5472564579239217</v>
+        <v>0.6519311542302545</v>
       </c>
     </row>
     <row r="25">
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.63067824967825</v>
+        <v>0.636899705014749</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -1702,13 +1702,13 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>0.6337446319817552</v>
+        <v>0.6421204306896025</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Cr</t>
+          <t>Ca</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1726,98 +1726,98 @@
         <v>2</v>
       </c>
       <c r="F26" t="n">
-        <v>4.878</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>1.66</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0.615</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0.629541129032258</v>
+        <v>0.636039596832253</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Cr-acac</t>
+          <t>Ca-acac</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>0.6107701928855873</v>
+        <v>0.6439621517910681</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Eu</t>
+          <t>Cr</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D27" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4.878</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>3</v>
       </c>
-      <c r="F27" t="n">
-        <v>2.679</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="J27" t="n">
-        <v>6</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
-        <v>0.627090909090909</v>
+        <v>0.634438363171355</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Eu-tpy</t>
+          <t>Cr-acac</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>0.6260705608428605</v>
+        <v>0.6300690413522232</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Eu</t>
+          <t>Ce</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D28" t="n">
         <v>8</v>
@@ -1826,39 +1826,39 @@
         <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>2.814</v>
+        <v>2.625</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>1.066</v>
+        <v>1.12</v>
       </c>
       <c r="I28" t="n">
-        <v>1.066</v>
+        <v>0.97</v>
       </c>
       <c r="J28" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.6221575074369809</v>
+        <v>0.631431592576608</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Eu-phen</t>
+          <t>Ce-acac</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>0.5459443392887066</v>
+        <v>0.6507080680847169</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Ru</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1870,63 +1870,63 @@
         <v>3.44</v>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E29" t="n">
         <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>5.66</v>
+        <v>4.412</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>1.63</v>
+        <v>2.2</v>
       </c>
       <c r="I29" t="n">
-        <v>0.53</v>
+        <v>0.68</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L29" t="n">
-        <v>0.62074561049445</v>
+        <v>0.63141768172888</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>V-acac</t>
+          <t>Ru-acac</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>0.6056184893613431</v>
+        <v>0.6386068898619659</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Zn</t>
+          <t>Nb</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D30" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E30" t="n">
         <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>2.703</v>
+        <v>6.757</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1941,33 +1941,33 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.618913072685745</v>
+        <v>0.631159565980533</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Zn-phen</t>
+          <t>Nb-acac</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>0.6106185471381139</v>
+        <v>0.6347516072941857</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Nd</t>
+          <t>Ho</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D31" t="n">
         <v>8</v>
@@ -1976,116 +1976,116 @@
         <v>2</v>
       </c>
       <c r="F31" t="n">
-        <v>2.705</v>
+        <v>2.956</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>1.109</v>
+        <v>1.015</v>
       </c>
       <c r="I31" t="n">
-        <v>1.109</v>
+        <v>1.015</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.618</v>
+        <v>0.630859115243731</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Nd-bpy</t>
+          <t>Ho-acac</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>0.6023700518087144</v>
+        <v>0.6651227535343907</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tb</t>
+          <t>Eu</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D32" t="n">
         <v>9</v>
       </c>
       <c r="E32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" t="n">
-        <v>2.74</v>
+        <v>2.679</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>1.2</v>
       </c>
       <c r="I32" t="n">
-        <v>1.095</v>
+        <v>1.12</v>
       </c>
       <c r="J32" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0.613019319363947</v>
+        <v>0.627956956576782</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Tb-cooh</t>
+          <t>Eu-tpy</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>0.6346800547506417</v>
+        <v>0.6092401801417143</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Zr</t>
+          <t>Ti</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>acac</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D33" t="n">
         <v>6</v>
       </c>
       <c r="E33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" t="n">
-        <v>5.556</v>
+        <v>6.612</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>1.33</v>
+        <v>1.54</v>
       </c>
       <c r="I33" t="n">
-        <v>0.72</v>
+        <v>0.605</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -2094,21 +2094,21 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0.609912251191477</v>
+        <v>0.6209140211640209</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Zr-tpy</t>
+          <t>Ti-acac</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>0.5857736617865955</v>
+        <v>0.6261536813038817</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ti</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2120,104 +2120,104 @@
         <v>3.44</v>
       </c>
       <c r="D34" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E34" t="n">
         <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>6.612</v>
+        <v>5.66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="I34" t="n">
-        <v>0.605</v>
+        <v>0.53</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
-        <v>0.609618158608585</v>
+        <v>0.62074561049445</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Ti-acac</t>
+          <t>V-acac</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>0.6093190523131699</v>
+        <v>0.6265296041382061</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>Zr</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D35" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" t="n">
-        <v>3.071</v>
+        <v>5.556</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.977</v>
+        <v>1.33</v>
       </c>
       <c r="I35" t="n">
-        <v>0.977</v>
+        <v>0.72</v>
       </c>
       <c r="J35" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.609429796355841</v>
+        <v>0.619316717237393</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Lu-acac</t>
+          <t>Zr-tpy</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>0.6162385641979705</v>
+        <v>0.5804350098227848</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Ce</t>
+          <t>Eu</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D36" t="n">
         <v>8</v>
@@ -2226,139 +2226,139 @@
         <v>2</v>
       </c>
       <c r="F36" t="n">
-        <v>2.625</v>
+        <v>2.814</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>1.12</v>
+        <v>1.066</v>
       </c>
       <c r="I36" t="n">
-        <v>0.97</v>
+        <v>1.066</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.607619906479626</v>
+        <v>0.616603970741902</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Ce-acac</t>
+          <t>Eu-phen</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>0.6304381956244476</v>
+        <v>0.5795712577946703</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Ce</t>
+          <t>Zr</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D37" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>2.508</v>
+        <v>5.556</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.12</v>
+        <v>0.72</v>
       </c>
       <c r="I37" t="n">
-        <v>1.196</v>
+        <v>0.72</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.603464344941957</v>
+        <v>0.615964757709251</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>Ce-tpy</t>
+          <t>Zr-cooh</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>0.57396867113256</v>
+        <v>0.6044219754130878</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sm</t>
+          <t>Tb</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D38" t="n">
+        <v>9</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.095</v>
+      </c>
+      <c r="J38" t="n">
         <v>8</v>
       </c>
-      <c r="E38" t="n">
-        <v>2</v>
-      </c>
-      <c r="F38" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1.079</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1.079</v>
-      </c>
-      <c r="J38" t="n">
-        <v>5</v>
-      </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0.6029106479237361</v>
+        <v>0.600494728304947</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Sm-bpy</t>
+          <t>Tb-cooh</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>0.5761475560287724</v>
+        <v>0.6003925881604439</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Ca</t>
+          <t>Zr</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2370,22 +2370,22 @@
         <v>3.04</v>
       </c>
       <c r="D39" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E39" t="n">
         <v>2</v>
       </c>
       <c r="F39" t="n">
-        <v>1.786</v>
+        <v>5.556</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="I39" t="n">
-        <v>1.12</v>
+        <v>0.72</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -2394,121 +2394,121 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.601408081776074</v>
+        <v>0.598068595927117</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Ca-bpy</t>
+          <t>Zr-bpy</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>0.5669064167418347</v>
+        <v>0.5248355684823509</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ca</t>
+          <t>Tb</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>3.44</v>
       </c>
       <c r="D40" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E40" t="n">
         <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>2.74</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>1.095</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.599645592392701</v>
+        <v>0.596475177304965</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Ca-acac</t>
+          <t>Tb-cooh</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>0.6166923764511398</v>
+        <v>0.6003925881604439</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Gd</t>
+          <t>Ir</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D41" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E41" t="n">
         <v>2</v>
       </c>
       <c r="F41" t="n">
-        <v>2.71</v>
+        <v>4.412</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>1.2</v>
+        <v>0.68</v>
       </c>
       <c r="I41" t="n">
-        <v>1.107</v>
+        <v>0.68</v>
       </c>
       <c r="J41" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L41" t="n">
-        <v>0.595802419354839</v>
+        <v>0.585327218641547</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Gd-cooh</t>
+          <t>Ir-bpy</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>0.5794866302613084</v>
+        <v>0.5253390781092594</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Dy</t>
+          <t>Cd</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2520,239 +2520,239 @@
         <v>3.04</v>
       </c>
       <c r="D42" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E42" t="n">
         <v>2</v>
       </c>
       <c r="F42" t="n">
-        <v>2.921</v>
+        <v>2.105</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>1.027</v>
+        <v>0.95</v>
       </c>
       <c r="I42" t="n">
-        <v>1.027</v>
+        <v>0.95</v>
       </c>
       <c r="J42" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L42" t="n">
-        <v>0.593623048446805</v>
+        <v>0.575463347763348</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Dy-bpy</t>
+          <t>Cd-bpy</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>0.5361721319632383</v>
+        <v>0.5494232290112218</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Nd</t>
+          <t>Zn</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>3.04</v>
       </c>
       <c r="D43" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" t="n">
-        <v>2.58</v>
+        <v>2.703</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>1.14</v>
+        <v>0.74</v>
       </c>
       <c r="I43" t="n">
-        <v>1.163</v>
+        <v>0.74</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L43" t="n">
-        <v>0.592076475477972</v>
+        <v>0.5702829967120711</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Nd-tpy</t>
+          <t>Zn-bpy</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>0.5861803087511192</v>
+        <v>0.6024451455093381</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Nd</t>
+          <t>Eu</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D44" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E44" t="n">
         <v>2</v>
       </c>
       <c r="F44" t="n">
-        <v>2.58</v>
+        <v>2.814</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>1.163</v>
+        <v>1.2</v>
       </c>
       <c r="I44" t="n">
-        <v>1.163</v>
+        <v>1.066</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0.590165128703254</v>
+        <v>0.55619877675841</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Nd-cooh</t>
+          <t>Eu-bpy</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>0.5661899777865257</v>
+        <v>0.5699416029566932</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Eu</t>
+          <t>Pt</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D45" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E45" t="n">
         <v>2</v>
       </c>
       <c r="F45" t="n">
-        <v>2.679</v>
+        <v>3.333</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="I45" t="n">
-        <v>1.12</v>
+        <v>0.6</v>
       </c>
       <c r="J45" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L45" t="n">
-        <v>0.586910952804987</v>
+        <v>0.553275132275132</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Eu-cooh</t>
+          <t>Pt-bpy</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>0.586060279841831</v>
+        <v>0.5103852871125211</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Ca</t>
+          <t>Fe</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>3.04</v>
       </c>
       <c r="D46" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>1.695</v>
+        <v>3.279</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>1.83</v>
       </c>
       <c r="I46" t="n">
-        <v>1.18</v>
+        <v>0.61</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L46" t="n">
-        <v>0.58049278734295</v>
+        <v>0.5402997626314</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Ca-tpy</t>
+          <t>Fe-bpy</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>0.5762690908164084</v>
+        <v>0.5212315271588136</v>
       </c>
     </row>
     <row r="47">
@@ -2763,11 +2763,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D47" t="n">
         <v>6</v>
@@ -2794,30 +2794,30 @@
         <v>8</v>
       </c>
       <c r="L47" t="n">
-        <v>0.578177070063694</v>
+        <v>0.537283864921635</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Ni-acac</t>
+          <t>Ni-bpy</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>0.5825932564277062</v>
+        <v>0.4935023709440107</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ir</t>
+          <t>Cr</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D48" t="n">
         <v>6</v>
@@ -2826,39 +2826,39 @@
         <v>2</v>
       </c>
       <c r="F48" t="n">
-        <v>4.412</v>
+        <v>4.878</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>2.2</v>
+        <v>1.66</v>
       </c>
       <c r="I48" t="n">
-        <v>0.68</v>
+        <v>0.615</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L48" t="n">
-        <v>0.576273673036093</v>
+        <v>0.531573148606301</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Ir-acac</t>
+          <t>Cr-bpy</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>0.5735318924942395</v>
+        <v>0.493189632594549</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Ir</t>
+          <t>Yb</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2870,45 +2870,45 @@
         <v>3.04</v>
       </c>
       <c r="D49" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E49" t="n">
         <v>2</v>
       </c>
       <c r="F49" t="n">
-        <v>4.412</v>
+        <v>3.046</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
       </c>
       <c r="H49" t="n">
-        <v>0.68</v>
+        <v>0.985</v>
       </c>
       <c r="I49" t="n">
-        <v>0.68</v>
+        <v>0.985</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K49" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>0.575773436243769</v>
+        <v>0.528772277227723</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Ir-bpy</t>
+          <t>Yb-bpy</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>0.515454196075436</v>
+        <v>0.5157834379178817</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Ho</t>
+          <t>Rh</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2920,45 +2920,45 @@
         <v>3.04</v>
       </c>
       <c r="D50" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E50" t="n">
         <v>2</v>
       </c>
       <c r="F50" t="n">
-        <v>2.956</v>
+        <v>4.511</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
       </c>
       <c r="H50" t="n">
-        <v>1.015</v>
+        <v>0.665</v>
       </c>
       <c r="I50" t="n">
-        <v>1.015</v>
+        <v>0.665</v>
       </c>
       <c r="J50" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L50" t="n">
-        <v>0.575569288389513</v>
+        <v>0.528337164750958</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Ho-bpy</t>
+          <t>Rh-bpy</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>0.5087666331490961</v>
+        <v>0.5029061950074087</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sm</t>
+          <t>Cd</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2970,145 +2970,145 @@
         <v>3.04</v>
       </c>
       <c r="D51" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E51" t="n">
         <v>2</v>
       </c>
       <c r="F51" t="n">
-        <v>2.78</v>
+        <v>2.105</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
       </c>
       <c r="H51" t="n">
-        <v>1.079</v>
+        <v>0.95</v>
       </c>
       <c r="I51" t="n">
-        <v>1.079</v>
+        <v>0.95</v>
       </c>
       <c r="J51" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L51" t="n">
-        <v>0.571818243472364</v>
+        <v>0.528135206869633</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Sm-phen</t>
+          <t>Cd-phen</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>0.5761475560287724</v>
+        <v>0.5494232290112218</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Ho</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D52" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E52" t="n">
         <v>2</v>
       </c>
       <c r="F52" t="n">
-        <v>2.799</v>
+        <v>2.532</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>1.23</v>
+        <v>1.63</v>
       </c>
       <c r="I52" t="n">
-        <v>1.072</v>
+        <v>0.79</v>
       </c>
       <c r="J52" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L52" t="n">
-        <v>0.57128784238347</v>
+        <v>0.5277809867629361</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Ho-cooh</t>
+          <t>V-bpy</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>0.5494154785667543</v>
+        <v>0.5002152956548197</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Nb</t>
+          <t>In</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D53" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E53" t="n">
         <v>2</v>
       </c>
       <c r="F53" t="n">
-        <v>6.757</v>
+        <v>3.75</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.74</v>
+        <v>0.8</v>
       </c>
       <c r="I53" t="n">
-        <v>0.74</v>
+        <v>0.8</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L53" t="n">
-        <v>0.569802083333333</v>
+        <v>0.52730252729176</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Nb-acac</t>
+          <t>In-bpy</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>0.6919761810671631</v>
+        <v>0.5385340752614093</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>In</t>
+          <t>Ca</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3120,300 +3120,300 @@
         <v>3.04</v>
       </c>
       <c r="D54" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E54" t="n">
         <v>2</v>
       </c>
       <c r="F54" t="n">
-        <v>3.75</v>
+        <v>1.786</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
       </c>
       <c r="H54" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>0.8</v>
+        <v>1.12</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>0.5617175811501069</v>
+        <v>0.5254021101992969</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>In-bpy</t>
+          <t>Ca-bpy</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>0.5592950517273482</v>
+        <v>0.5208280744173287</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Mn</t>
+          <t>Nd</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D55" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E55" t="n">
         <v>2</v>
       </c>
       <c r="F55" t="n">
-        <v>2.985</v>
+        <v>2.58</v>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>1.55</v>
+        <v>1.163</v>
       </c>
       <c r="I55" t="n">
-        <v>0.67</v>
+        <v>1.163</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K55" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0.560483950617284</v>
+        <v>0.523848238482385</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Mn-bpy</t>
+          <t>Nd-cooh</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>0.5119257241764766</v>
+        <v>0.5168979964777075</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Yb</t>
+          <t>Ca</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D56" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E56" t="n">
         <v>2</v>
       </c>
       <c r="F56" t="n">
-        <v>3.046</v>
+        <v>2</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.985</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0.985</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0.559454451878538</v>
+        <v>0.523686190066035</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Yb-phen</t>
+          <t>Ca-cooh</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>0.5441725279432913</v>
+        <v>0.5158474679499144</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Gd</t>
+          <t>Co</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>3.04</v>
       </c>
       <c r="D57" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F57" t="n">
-        <v>2.71</v>
+        <v>3.077</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
       </c>
       <c r="H57" t="n">
-        <v>1.2</v>
+        <v>1.88</v>
       </c>
       <c r="I57" t="n">
-        <v>1.107</v>
+        <v>0.65</v>
       </c>
       <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
         <v>7</v>
       </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
       <c r="L57" t="n">
-        <v>0.558903861308117</v>
+        <v>0.523298449612403</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Gd-tpy</t>
+          <t>Co-bpy</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>0.5859756192277811</v>
+        <v>0.4831412876154432</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Yb</t>
+          <t>Mg</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D58" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E58" t="n">
         <v>2</v>
       </c>
       <c r="F58" t="n">
-        <v>3.046</v>
+        <v>2.778</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.985</v>
+        <v>1.31</v>
       </c>
       <c r="I58" t="n">
-        <v>0.985</v>
+        <v>0.72</v>
       </c>
       <c r="J58" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0.558051835853132</v>
+        <v>0.52152886405959</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Yb-bpy</t>
+          <t>Mg-cooh</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>0.5441725279432913</v>
+        <v>0.5119603330551751</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Eu</t>
+          <t>Zn</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D59" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E59" t="n">
         <v>2</v>
       </c>
       <c r="F59" t="n">
-        <v>2.814</v>
+        <v>3.333</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>1.2</v>
+        <v>1.65</v>
       </c>
       <c r="I59" t="n">
-        <v>1.066</v>
+        <v>0.6</v>
       </c>
       <c r="J59" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L59" t="n">
-        <v>0.5574338705551291</v>
+        <v>0.520119132350449</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Eu-bpy</t>
+          <t>Zn-cooh</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>0.5954727482074488</v>
+        <v>0.5204278784441407</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Ru</t>
+          <t>Co</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>acac</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -3426,89 +3426,89 @@
         <v>2</v>
       </c>
       <c r="F60" t="n">
-        <v>4.412</v>
+        <v>2.685</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>2.2</v>
+        <v>1.88</v>
       </c>
       <c r="I60" t="n">
-        <v>0.68</v>
+        <v>0.745</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L60" t="n">
-        <v>0.556256581781325</v>
+        <v>0.520066795366795</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Ru-acac</t>
+          <t>Co-cooh</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>0.5735318924942395</v>
+        <v>0.5223109958090494</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Ce</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>3.04</v>
       </c>
       <c r="D61" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E61" t="n">
         <v>2</v>
       </c>
       <c r="F61" t="n">
-        <v>2.105</v>
+        <v>2.625</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.95</v>
+        <v>1.143</v>
       </c>
       <c r="I61" t="n">
-        <v>0.95</v>
+        <v>1.143</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0.551933067729084</v>
+        <v>0.519119219561637</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Cd-phen</t>
+          <t>Ce-bpy</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>0.560989232535259</v>
+        <v>0.4959330077082915</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3520,39 +3520,39 @@
         <v>3.44</v>
       </c>
       <c r="D62" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E62" t="n">
         <v>2</v>
       </c>
       <c r="F62" t="n">
-        <v>2.105</v>
+        <v>2.907</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.95</v>
+        <v>1.27</v>
       </c>
       <c r="I62" t="n">
-        <v>0.95</v>
+        <v>1.032</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K62" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0.54876112412178</v>
+        <v>0.518162515829464</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Cd-cooh</t>
+          <t>Lu-cooh</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>0.5331482307324145</v>
+        <v>0.5159068039155098</v>
       </c>
     </row>
     <row r="63">
@@ -3563,23 +3563,23 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D63" t="n">
         <v>9</v>
       </c>
       <c r="E63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F63" t="n">
         <v>2.65</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
         <v>1.17</v>
@@ -3594,71 +3594,71 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>0.547572805507745</v>
+        <v>0.5171961414791</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Sm-tpy</t>
+          <t>Sm-cooh</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>0.554320363323528</v>
+        <v>0.5168979964777075</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Zn</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D64" t="n">
         <v>6</v>
       </c>
       <c r="E64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" t="n">
-        <v>2.703</v>
+        <v>2.899</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="I64" t="n">
-        <v>0.74</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L64" t="n">
-        <v>0.547143790849673</v>
+        <v>0.516693784756297</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Zn-tpy</t>
+          <t>Ni-cooh</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>0.5513226631597916</v>
+        <v>0.5208975564542733</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Cd</t>
+          <t>La</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3670,95 +3670,95 @@
         <v>3.04</v>
       </c>
       <c r="D65" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E65" t="n">
         <v>2</v>
       </c>
       <c r="F65" t="n">
-        <v>2.105</v>
+        <v>2.586</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
       </c>
       <c r="H65" t="n">
-        <v>0.95</v>
+        <v>1.16</v>
       </c>
       <c r="I65" t="n">
-        <v>0.95</v>
+        <v>1.16</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0.545097603055446</v>
+        <v>0.516547021356313</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>Cd-bpy</t>
+          <t>La-bpy</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>0.560989232535259</v>
+        <v>0.5014410652369858</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>La</t>
+          <t>Ce</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D66" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E66" t="n">
         <v>2</v>
       </c>
       <c r="F66" t="n">
-        <v>2.586</v>
+        <v>2.508</v>
       </c>
       <c r="G66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="I66" t="n">
-        <v>1.16</v>
+        <v>1.196</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0.543483103541498</v>
+        <v>0.516177083333333</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>La-bpy</t>
+          <t>Ce-cooh</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>0.5400905934950415</v>
+        <v>0.507567959589187</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Zn</t>
+          <t>Er</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3770,95 +3770,95 @@
         <v>3.04</v>
       </c>
       <c r="D67" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E67" t="n">
         <v>2</v>
       </c>
       <c r="F67" t="n">
-        <v>2.703</v>
+        <v>2.988</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.74</v>
+        <v>1.004</v>
       </c>
       <c r="I67" t="n">
-        <v>0.74</v>
+        <v>1.004</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K67" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>0.542334556178967</v>
+        <v>0.515907223326706</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Zn-bpy</t>
+          <t>Er-bpy</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>0.6106185471381139</v>
+        <v>0.4986918505202177</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Mo</t>
+          <t>La</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D68" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E68" t="n">
         <v>2</v>
       </c>
       <c r="F68" t="n">
-        <v>4.348</v>
+        <v>2.467</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>2.16</v>
+        <v>1.1</v>
       </c>
       <c r="I68" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.216</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0.540985279685967</v>
+        <v>0.515814526588846</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Mo-bpy</t>
+          <t>La-cooh</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>0.4754654793693973</v>
+        <v>0.5124612444279861</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Ho</t>
+          <t>Sm</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3876,48 +3876,48 @@
         <v>3</v>
       </c>
       <c r="F69" t="n">
-        <v>2.799</v>
+        <v>2.65</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
       </c>
       <c r="H69" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="I69" t="n">
-        <v>1.072</v>
+        <v>1.132</v>
       </c>
       <c r="J69" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>0.538940108892922</v>
+        <v>0.515556193472277</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>Ho-tpy</t>
+          <t>Sm-tpy</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>0.5354239174877994</v>
+        <v>0.5119002253288535</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Fe</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D70" t="n">
         <v>6</v>
@@ -3926,139 +3926,139 @@
         <v>2</v>
       </c>
       <c r="F70" t="n">
-        <v>2.532</v>
+        <v>4.651</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="I70" t="n">
-        <v>0.79</v>
+        <v>0.645</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L70" t="n">
-        <v>0.537522748375116</v>
+        <v>0.515533333333333</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>V-bpy</t>
+          <t>Fe-cooh</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>0.5273202560056789</v>
+        <v>0.5129452637296932</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Tm</t>
+          <t>Mn</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>3.04</v>
       </c>
       <c r="D71" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E71" t="n">
         <v>2</v>
       </c>
       <c r="F71" t="n">
-        <v>2.852</v>
+        <v>2.985</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
       </c>
       <c r="H71" t="n">
-        <v>0.994</v>
+        <v>1.55</v>
       </c>
       <c r="I71" t="n">
-        <v>0.994</v>
+        <v>0.67</v>
       </c>
       <c r="J71" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L71" t="n">
-        <v>0.536080729166667</v>
+        <v>0.515374411933448</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Tm-phen</t>
+          <t>Mn-bpy</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>0.5198042840894801</v>
+        <v>0.5409645297620594</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Ca</t>
+          <t>Er</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D72" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E72" t="n">
         <v>2</v>
       </c>
       <c r="F72" t="n">
-        <v>1.786</v>
+        <v>2.825</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>1.24</v>
       </c>
       <c r="I72" t="n">
-        <v>1.12</v>
+        <v>1.062</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>0.535725507633022</v>
+        <v>0.514333745025388</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>Ca-phen</t>
+          <t>Er-cooh</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>0.5669064167418347</v>
+        <v>0.5179651914673508</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Ce</t>
+          <t>Sm</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4076,44 +4076,44 @@
         <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>2.625</v>
+        <v>2.78</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>1.143</v>
+        <v>1.079</v>
       </c>
       <c r="I73" t="n">
-        <v>1.143</v>
+        <v>1.079</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0.535292929292929</v>
+        <v>0.513126088602802</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>Ce-bpy</t>
+          <t>Sm-bpy</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>0.5405458670504294</v>
+        <v>0.4976157739967907</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Ce</t>
+          <t>Dy</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -4126,94 +4126,94 @@
         <v>2</v>
       </c>
       <c r="F74" t="n">
-        <v>2.625</v>
+        <v>2.921</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>1.143</v>
+        <v>1.027</v>
       </c>
       <c r="I74" t="n">
-        <v>1.143</v>
+        <v>1.027</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>0.535233363444745</v>
+        <v>0.5129169879208429</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>Ce-phen</t>
+          <t>Dy-bpy</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>0.5405458670504294</v>
+        <v>0.4961758112459337</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>Ir</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D75" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E75" t="n">
         <v>2</v>
       </c>
       <c r="F75" t="n">
-        <v>3.071</v>
+        <v>4.412</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.977</v>
+        <v>0.68</v>
       </c>
       <c r="I75" t="n">
-        <v>0.977</v>
+        <v>0.68</v>
       </c>
       <c r="J75" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L75" t="n">
-        <v>0.532234698184888</v>
+        <v>0.5127523717639491</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>Lu-bpy</t>
+          <t>Ir-cooh</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>0.5124944223275885</v>
+        <v>0.5682972703175201</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Ti</t>
+          <t>Zn</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -4223,42 +4223,42 @@
         <v>6</v>
       </c>
       <c r="E76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76" t="n">
-        <v>4.478</v>
+        <v>2.703</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>1.54</v>
+        <v>1.65</v>
       </c>
       <c r="I76" t="n">
-        <v>0.67</v>
+        <v>0.74</v>
       </c>
       <c r="J76" t="n">
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L76" t="n">
-        <v>0.530843674843675</v>
+        <v>0.512725768321513</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>Ti-bpy</t>
+          <t>Zn-tpy</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>0.5444466422977338</v>
+        <v>0.526685772607963</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Tm</t>
+          <t>Ru</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4270,45 +4270,45 @@
         <v>3.44</v>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E77" t="n">
         <v>2</v>
       </c>
       <c r="F77" t="n">
-        <v>2.852</v>
+        <v>4.412</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="I77" t="n">
-        <v>1.052</v>
+        <v>0.68</v>
       </c>
       <c r="J77" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L77" t="n">
-        <v>0.530393006790926</v>
+        <v>0.511971830985916</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>Tm-cooh</t>
+          <t>Ru-cooh</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>0.5299473517533857</v>
+        <v>0.5142796483782837</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Pt</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4320,45 +4320,45 @@
         <v>3.04</v>
       </c>
       <c r="D78" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E78" t="n">
         <v>2</v>
       </c>
       <c r="F78" t="n">
-        <v>3.333</v>
+        <v>3.071</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.6</v>
+        <v>0.977</v>
       </c>
       <c r="I78" t="n">
-        <v>0.6</v>
+        <v>0.977</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K78" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
-        <v>0.528375478927203</v>
+        <v>0.511687830687831</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>Pt-bpy</t>
+          <t>Lu-bpy</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>0.4682349938685744</v>
+        <v>0.4884107951492614</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Ce</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4370,45 +4370,45 @@
         <v>3.44</v>
       </c>
       <c r="D79" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E79" t="n">
         <v>2</v>
       </c>
       <c r="F79" t="n">
-        <v>2.508</v>
+        <v>4.688</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>1.12</v>
+        <v>1.63</v>
       </c>
       <c r="I79" t="n">
-        <v>1.196</v>
+        <v>0.64</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L79" t="n">
-        <v>0.524813627254509</v>
+        <v>0.510605349794239</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>Ce-cooh</t>
+          <t>V-cooh</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>0.5352676300409993</v>
+        <v>0.5129904175292391</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Cr</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4426,89 +4426,89 @@
         <v>2</v>
       </c>
       <c r="F80" t="n">
-        <v>2.899</v>
+        <v>4.878</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>1.91</v>
+        <v>1.66</v>
       </c>
       <c r="I80" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.615</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L80" t="n">
-        <v>0.520334920634921</v>
+        <v>0.510016625103907</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>Ni-cooh</t>
+          <t>Cr-cooh</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>0.4731912248359502</v>
+        <v>0.5143192373721993</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Tm</t>
+          <t>Ho</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C81" t="n">
         <v>3.04</v>
       </c>
       <c r="D81" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F81" t="n">
-        <v>2.852</v>
+        <v>2.956</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>1.25</v>
+        <v>1.015</v>
       </c>
       <c r="I81" t="n">
-        <v>1.052</v>
+        <v>1.015</v>
       </c>
       <c r="J81" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K81" t="n">
         <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>0.517699064074874</v>
+        <v>0.509970721596062</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>Tm-tpy</t>
+          <t>Ho-bpy</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>0.5155876781440623</v>
+        <v>0.4810936727413325</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Mo</t>
+          <t>Ho</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4520,45 +4520,45 @@
         <v>3.44</v>
       </c>
       <c r="D82" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E82" t="n">
         <v>2</v>
       </c>
       <c r="F82" t="n">
-        <v>4.348</v>
+        <v>2.799</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>2.16</v>
+        <v>1.23</v>
       </c>
       <c r="I82" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.072</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>0.513670957817181</v>
+        <v>0.509660468876314</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>Mo-cooh</t>
+          <t>Ho-cooh</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>0.4931234941535918</v>
+        <v>0.5000912894826307</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Mg</t>
+          <t>Gd</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4570,45 +4570,45 @@
         <v>3.44</v>
       </c>
       <c r="D83" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E83" t="n">
         <v>2</v>
       </c>
       <c r="F83" t="n">
-        <v>2.778</v>
+        <v>2.71</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="I83" t="n">
-        <v>0.72</v>
+        <v>1.107</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>0.513037878787879</v>
+        <v>0.5092948207171319</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>Mg-cooh</t>
+          <t>Gd-cooh</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>0.5281743407771434</v>
+        <v>0.5088106386458588</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Zn</t>
+          <t>Eu</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4620,145 +4620,145 @@
         <v>3.44</v>
       </c>
       <c r="D84" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E84" t="n">
         <v>2</v>
       </c>
       <c r="F84" t="n">
-        <v>3.333</v>
+        <v>2.679</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>1.65</v>
+        <v>1.2</v>
       </c>
       <c r="I84" t="n">
-        <v>0.6</v>
+        <v>1.12</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K84" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>0.512087301587302</v>
+        <v>0.509222222222222</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Zn-cooh</t>
+          <t>Eu-cooh</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>0.6037430433380376</v>
+        <v>0.5833448976463919</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Er</t>
+          <t>Ca</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C85" t="n">
         <v>3.04</v>
       </c>
       <c r="D85" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F85" t="n">
-        <v>2.988</v>
+        <v>1.695</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>1.004</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>1.004</v>
+        <v>1.18</v>
       </c>
       <c r="J85" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
       </c>
       <c r="L85" t="n">
-        <v>0.511172413793103</v>
+        <v>0.509201383551114</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>Er-bpy</t>
+          <t>Ca-tpy</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>0.488875648372974</v>
+        <v>0.5134086145608104</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Nd</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C86" t="n">
         <v>3.04</v>
       </c>
       <c r="D86" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E86" t="n">
+        <v>2</v>
+      </c>
+      <c r="F86" t="n">
+        <v>2.705</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1.109</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1.109</v>
+      </c>
+      <c r="J86" t="n">
         <v>3</v>
       </c>
-      <c r="F86" t="n">
-        <v>2.899</v>
-      </c>
-      <c r="G86" t="n">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
       <c r="K86" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0.509979838043299</v>
+        <v>0.509122421078797</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>Ni-tpy</t>
+          <t>Nd-bpy</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>0.4571599001723849</v>
+        <v>0.4867761345031222</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Sm</t>
+          <t>Tm</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4776,189 +4776,189 @@
         <v>2</v>
       </c>
       <c r="F87" t="n">
-        <v>2.65</v>
+        <v>2.852</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="I87" t="n">
-        <v>1.132</v>
+        <v>1.052</v>
       </c>
       <c r="J87" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>0.507970040380357</v>
+        <v>0.508939948488546</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>Sm-cooh</t>
+          <t>Tm-cooh</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>0.528540068504204</v>
+        <v>0.5062574497358698</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>Mo</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D88" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E88" t="n">
         <v>2</v>
       </c>
       <c r="F88" t="n">
-        <v>2.907</v>
+        <v>4.348</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
-        <v>1.27</v>
+        <v>2.16</v>
       </c>
       <c r="I88" t="n">
-        <v>1.032</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J88" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L88" t="n">
-        <v>0.505895485969907</v>
+        <v>0.508845890919899</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>Lu-cooh</t>
+          <t>Mo-bpy</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>0.5130227621140995</v>
+        <v>0.4821786957715965</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>Pr</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D89" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F89" t="n">
-        <v>10</v>
+        <v>2.545</v>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>2.36</v>
+        <v>1.13</v>
       </c>
       <c r="I89" t="n">
-        <v>0.6</v>
+        <v>1.179</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>0.505006802721088</v>
+        <v>0.50731488598514</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>W-tpy</t>
+          <t>Pr-cooh</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>0.4944497376614143</v>
+        <v>0.507567959589187</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Mn</t>
+          <t>In</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D90" t="n">
         <v>6</v>
       </c>
       <c r="E90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F90" t="n">
-        <v>2.41</v>
+        <v>3.75</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="I90" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L90" t="n">
-        <v>0.5035918907007489</v>
+        <v>0.506411101216978</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>Mn-cooh</t>
+          <t>In-tpy</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>0.5075640383697748</v>
+        <v>0.5087007384284945</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Pr</t>
+          <t>Cu</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4970,54 +4970,54 @@
         <v>3.44</v>
       </c>
       <c r="D91" t="n">
+        <v>4</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2</v>
+      </c>
+      <c r="F91" t="n">
+        <v>3.509</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
         <v>9</v>
       </c>
-      <c r="E91" t="n">
-        <v>2</v>
-      </c>
-      <c r="F91" t="n">
-        <v>2.545</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1.179</v>
-      </c>
-      <c r="J91" t="n">
-        <v>2</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.502530607093273</v>
+        <v>0.505939488731921</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>Pr-cooh</t>
+          <t>Cu-cooh</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>0.5200270478873156</v>
+        <v>0.5045678863223442</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Zr</t>
+          <t>Mo</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D92" t="n">
         <v>6</v>
@@ -5026,148 +5026,148 @@
         <v>2</v>
       </c>
       <c r="F92" t="n">
-        <v>5.556</v>
+        <v>4.348</v>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.72</v>
+        <v>2.16</v>
       </c>
       <c r="I92" t="n">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J92" t="n">
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L92" t="n">
-        <v>0.502427265170407</v>
+        <v>0.50530303030303</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>Zr-phen</t>
+          <t>Mo-cooh</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>0.5913852119500256</v>
+        <v>0.5077237912503441</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>La</t>
+          <t>Ti</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C93" t="n">
         <v>3.04</v>
       </c>
       <c r="D93" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E93" t="n">
         <v>2</v>
       </c>
       <c r="F93" t="n">
-        <v>2.586</v>
+        <v>4.478</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>1.16</v>
+        <v>1.54</v>
       </c>
       <c r="I93" t="n">
-        <v>1.16</v>
+        <v>0.67</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93" t="n">
-        <v>0.501680216802168</v>
+        <v>0.505169632265718</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>La-phen</t>
+          <t>Ti-bpy</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>0.5400905934950415</v>
+        <v>0.5263578111856801</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Er</t>
+          <t>Dy</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D94" t="n">
         <v>9</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F94" t="n">
-        <v>2.825</v>
+        <v>2.77</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="I94" t="n">
-        <v>1.062</v>
+        <v>1.083</v>
       </c>
       <c r="J94" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0.500243069241887</v>
+        <v>0.505121666009723</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Er-cooh</t>
+          <t>Dy-tpy</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>0.5144717128694796</v>
+        <v>0.4960285371271203</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>Mn</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D95" t="n">
         <v>6</v>
@@ -5176,94 +5176,94 @@
         <v>2</v>
       </c>
       <c r="F95" t="n">
-        <v>2.899</v>
+        <v>2.41</v>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>1.91</v>
+        <v>1.55</v>
       </c>
       <c r="I95" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L95" t="n">
-        <v>0.500138643578644</v>
+        <v>0.5035918907007489</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>Ni-bpy</t>
+          <t>Mn-cooh</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>0.4652107258904765</v>
+        <v>0.5095007298356775</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Dy</t>
+          <t>Fe</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D96" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F96" t="n">
-        <v>2.77</v>
+        <v>3.279</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>1.22</v>
+        <v>1.83</v>
       </c>
       <c r="I96" t="n">
-        <v>1.083</v>
+        <v>0.61</v>
       </c>
       <c r="J96" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L96" t="n">
-        <v>0.499800509878904</v>
+        <v>0.502115591397849</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>Dy-cooh</t>
+          <t>Fe-tpy</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>0.527779021218707</v>
+        <v>0.521250016443924</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Cu</t>
+          <t>Pd</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -5273,92 +5273,92 @@
         <v>4</v>
       </c>
       <c r="E97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F97" t="n">
-        <v>3.509</v>
+        <v>3.125</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.57</v>
+        <v>2.2</v>
       </c>
       <c r="I97" t="n">
-        <v>0.57</v>
+        <v>0.64</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L97" t="n">
-        <v>0.499446379468378</v>
+        <v>0.500687427912341</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>Cu-bpy</t>
+          <t>Pd-tpy</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>0.4891610830060453</v>
+        <v>0.4918261928941319</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>La</t>
+          <t>Ru</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D98" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F98" t="n">
-        <v>2.467</v>
+        <v>2.941</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="I98" t="n">
-        <v>1.216</v>
+        <v>0.68</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L98" t="n">
-        <v>0.498737664574874</v>
+        <v>0.498772412683084</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>La-cooh</t>
+          <t>Ru-tpy</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>0.4990874792591904</v>
+        <v>0.4990590777558123</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Pr</t>
+          <t>Ce</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5376,139 +5376,139 @@
         <v>3</v>
       </c>
       <c r="F99" t="n">
-        <v>2.545</v>
+        <v>2.508</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="I99" t="n">
-        <v>1.179</v>
+        <v>1.196</v>
       </c>
       <c r="J99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
       </c>
       <c r="L99" t="n">
-        <v>0.497883663687006</v>
+        <v>0.498353535353535</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>Pr-tpy</t>
+          <t>Ce-tpy</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>0.5587280889788763</v>
+        <v>0.4899511874961291</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>La</t>
+          <t>Cu</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>bpy</t>
         </is>
       </c>
       <c r="C100" t="n">
         <v>3.04</v>
       </c>
       <c r="D100" t="n">
+        <v>4</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2</v>
+      </c>
+      <c r="F100" t="n">
+        <v>3.509</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
         <v>9</v>
       </c>
-      <c r="E100" t="n">
-        <v>3</v>
-      </c>
-      <c r="F100" t="n">
-        <v>2.467</v>
-      </c>
-      <c r="G100" t="n">
-        <v>1</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>1.216</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.497146553932872</v>
+        <v>0.495517345399698</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>La-tpy</t>
+          <t>Cu-bpy</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>0.5113845150589845</v>
+        <v>0.4901401294794372</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Dy</t>
+          <t>Cd</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D101" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E101" t="n">
         <v>2</v>
       </c>
       <c r="F101" t="n">
-        <v>2.921</v>
+        <v>2.105</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>1.027</v>
+        <v>0.95</v>
       </c>
       <c r="I101" t="n">
-        <v>1.027</v>
+        <v>0.95</v>
       </c>
       <c r="J101" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L101" t="n">
-        <v>0.496559139784946</v>
+        <v>0.494868365180467</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>Dy-phen</t>
+          <t>Cd-cooh</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>0.5361721319632383</v>
+        <v>0.509975587127099</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Ca</t>
+          <t>Pd</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5520,95 +5520,95 @@
         <v>3.44</v>
       </c>
       <c r="D102" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E102" t="n">
         <v>2</v>
       </c>
       <c r="F102" t="n">
-        <v>2</v>
+        <v>3.125</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L102" t="n">
-        <v>0.493282131661442</v>
+        <v>0.493728103044497</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>Ca-cooh</t>
+          <t>Pd-cooh</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>0.5355353308401885</v>
+        <v>0.5111047193547064</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Cu</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D103" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F103" t="n">
-        <v>3.509</v>
+        <v>2.899</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="I103" t="n">
-        <v>0.57</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
       </c>
       <c r="K103" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L103" t="n">
-        <v>0.492810680864795</v>
+        <v>0.493516154452325</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>Cu-cooh</t>
+          <t>Ni-tpy</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>0.4897778646321944</v>
+        <v>0.493520860229121</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>Cr</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5620,45 +5620,45 @@
         <v>3.04</v>
       </c>
       <c r="D104" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E104" t="n">
         <v>3</v>
       </c>
       <c r="F104" t="n">
-        <v>2.907</v>
+        <v>4.878</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
       </c>
       <c r="H104" t="n">
-        <v>1.27</v>
+        <v>1.66</v>
       </c>
       <c r="I104" t="n">
-        <v>1.032</v>
+        <v>0.615</v>
       </c>
       <c r="J104" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L104" t="n">
-        <v>0.490091888978712</v>
+        <v>0.491597606339964</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>Lu-tpy</t>
+          <t>Cr-tpy</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>0.4954318448076506</v>
+        <v>0.4932081218796593</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Dy</t>
+          <t>Er</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5676,94 +5676,94 @@
         <v>3</v>
       </c>
       <c r="F105" t="n">
-        <v>2.77</v>
+        <v>2.825</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="I105" t="n">
-        <v>1.083</v>
+        <v>1.062</v>
       </c>
       <c r="J105" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>0.486352182539682</v>
+        <v>0.491194045720362</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Dy-tpy</t>
+          <t>Er-tpy</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>0.5137874601397521</v>
+        <v>0.4924986508133797</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Ir</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D106" t="n">
         <v>6</v>
       </c>
       <c r="E106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F106" t="n">
-        <v>4.412</v>
+        <v>2.532</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0.68</v>
+        <v>1.63</v>
       </c>
       <c r="I106" t="n">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
       </c>
       <c r="K106" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L106" t="n">
-        <v>0.484424375917768</v>
+        <v>0.491043408617652</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>Ir-cooh</t>
+          <t>V-tpy</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>0.4916049891463073</v>
+        <v>0.490578611045357</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Rh</t>
+          <t>Ru</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -5776,16 +5776,16 @@
         <v>2</v>
       </c>
       <c r="F107" t="n">
-        <v>4.511</v>
+        <v>2.941</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
       </c>
       <c r="H107" t="n">
-        <v>0.665</v>
+        <v>0.68</v>
       </c>
       <c r="I107" t="n">
-        <v>0.665</v>
+        <v>0.68</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -5794,171 +5794,171 @@
         <v>6</v>
       </c>
       <c r="L107" t="n">
-        <v>0.483751322751323</v>
+        <v>0.490273901808786</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>Rh-bpy</t>
+          <t>Ru-phen</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>0.4843917136496874</v>
+        <v>0.5573749802854877</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Pd</t>
+          <t>Ho</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D108" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F108" t="n">
-        <v>3.125</v>
+        <v>2.799</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
-        <v>2.2</v>
+        <v>1.23</v>
       </c>
       <c r="I108" t="n">
-        <v>0.64</v>
+        <v>1.072</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K108" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>0.480625676686107</v>
+        <v>0.489596837944664</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>Pd-cooh</t>
+          <t>Ho-tpy</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>0.475450798047812</v>
+        <v>0.4901014587909368</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Ru</t>
+          <t>Dy</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>cooh</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>3.04</v>
+        <v>3.44</v>
       </c>
       <c r="D109" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E109" t="n">
         <v>2</v>
       </c>
       <c r="F109" t="n">
-        <v>2.941</v>
+        <v>2.77</v>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>0.68</v>
+        <v>1.22</v>
       </c>
       <c r="I109" t="n">
-        <v>0.68</v>
+        <v>1.083</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K109" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>0.479722248316894</v>
+        <v>0.489039128829826</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>Ru-phen</t>
+          <t>Dy-cooh</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>0.5472564579239217</v>
+        <v>0.5074761795999053</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Cr</t>
+          <t>Nd</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C110" t="n">
         <v>3.04</v>
       </c>
       <c r="D110" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F110" t="n">
-        <v>4.878</v>
+        <v>2.58</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
       </c>
       <c r="H110" t="n">
-        <v>1.66</v>
+        <v>1.14</v>
       </c>
       <c r="I110" t="n">
-        <v>0.615</v>
+        <v>1.163</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
-        <v>0.475109819121447</v>
+        <v>0.488825783530009</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>Cr-phen</t>
+          <t>Nd-tpy</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>0.4551766787290711</v>
+        <v>0.4935848620539141</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Mo</t>
+          <t>Pd</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5970,145 +5970,145 @@
         <v>3.04</v>
       </c>
       <c r="D111" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E111" t="n">
         <v>2</v>
       </c>
       <c r="F111" t="n">
-        <v>4.348</v>
+        <v>3.125</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>2.16</v>
+        <v>0.64</v>
       </c>
       <c r="I111" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L111" t="n">
-        <v>0.472675253708041</v>
+        <v>0.488258706467662</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>Mo-phen</t>
+          <t>Pd-phen</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>0.4754654793693973</v>
+        <v>0.5023837738694719</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Nd</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C112" t="n">
         <v>3.04</v>
       </c>
       <c r="D112" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F112" t="n">
-        <v>2.705</v>
+        <v>2.907</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>1.109</v>
+        <v>1.27</v>
       </c>
       <c r="I112" t="n">
-        <v>1.109</v>
+        <v>1.032</v>
       </c>
       <c r="J112" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K112" t="n">
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>0.471536964980545</v>
+        <v>0.488202572347267</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>Nd-phen</t>
+          <t>Lu-tpy</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>0.6023700518087144</v>
+        <v>0.4897773084825779</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Tm</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D113" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F113" t="n">
-        <v>4.688</v>
+        <v>2.852</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>1.63</v>
+        <v>1.25</v>
       </c>
       <c r="I113" t="n">
-        <v>0.64</v>
+        <v>1.052</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
-        <v>0.468092780403954</v>
+        <v>0.488011630980703</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>V-cooh</t>
+          <t>Tm-tpy</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>0.4655108277475762</v>
+        <v>0.4864561318414493</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Cu</t>
+          <t>Co</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -6120,7 +6120,7 @@
         <v>3.04</v>
       </c>
       <c r="D114" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E114" t="n">
         <v>3</v>
@@ -6132,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="H114" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="I114" t="n">
         <v>0.65</v>
@@ -6141,29 +6141,29 @@
         <v>0</v>
       </c>
       <c r="K114" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L114" t="n">
-        <v>0.467398251074552</v>
+        <v>0.485025207452638</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>Cu-tpy</t>
+          <t>Co-tpy</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>0.46210296154174</v>
+        <v>0.4838729665602899</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>In</t>
+          <t>Fe</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -6173,47 +6173,47 @@
         <v>6</v>
       </c>
       <c r="E115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F115" t="n">
-        <v>3.75</v>
+        <v>3.279</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
       </c>
       <c r="H115" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="I115" t="n">
-        <v>0.8</v>
+        <v>0.61</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="L115" t="n">
-        <v>0.467238039061476</v>
+        <v>0.484782258064516</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>In-tpy</t>
+          <t>Fe-phen</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>0.4908932129198995</v>
+        <v>0.5212315271588136</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Mo</t>
+          <t>Ni</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -6223,16 +6223,16 @@
         <v>6</v>
       </c>
       <c r="E116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F116" t="n">
-        <v>4.348</v>
+        <v>2.899</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
       </c>
       <c r="H116" t="n">
-        <v>2.16</v>
+        <v>1.91</v>
       </c>
       <c r="I116" t="n">
         <v>0.6899999999999999</v>
@@ -6241,74 +6241,74 @@
         <v>0</v>
       </c>
       <c r="K116" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="L116" t="n">
-        <v>0.463308641975309</v>
+        <v>0.483552758954501</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>Mo-tpy</t>
+          <t>Ni-phen</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>0.4660213714594875</v>
+        <v>0.4935023709440107</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Fe</t>
+          <t>Pr</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C117" t="n">
         <v>3.04</v>
       </c>
       <c r="D117" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F117" t="n">
-        <v>3.279</v>
+        <v>2.545</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
       </c>
       <c r="H117" t="n">
-        <v>1.83</v>
+        <v>1.13</v>
       </c>
       <c r="I117" t="n">
-        <v>0.61</v>
+        <v>1.179</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K117" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
-        <v>0.462925720327782</v>
+        <v>0.483256944444444</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>Fe-bpy</t>
+          <t>Pr-tpy</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>0.4453378844051776</v>
+        <v>0.4897998001102922</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Gd</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -6320,100 +6320,100 @@
         <v>3.04</v>
       </c>
       <c r="D118" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E118" t="n">
         <v>3</v>
       </c>
       <c r="F118" t="n">
-        <v>2.532</v>
+        <v>2.71</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
       </c>
       <c r="H118" t="n">
-        <v>1.63</v>
+        <v>1.2</v>
       </c>
       <c r="I118" t="n">
-        <v>0.64</v>
+        <v>1.107</v>
       </c>
       <c r="J118" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
-        <v>0.462494283201407</v>
+        <v>0.482678178562292</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>V-tpy</t>
+          <t>Gd-tpy</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>0.4582707888609406</v>
+        <v>0.5059314667546451</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Er</t>
+          <t>Ca</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C119" t="n">
         <v>3.04</v>
       </c>
       <c r="D119" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F119" t="n">
-        <v>2.825</v>
+        <v>1.786</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
       </c>
       <c r="H119" t="n">
-        <v>1.24</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
-        <v>1.062</v>
+        <v>1.12</v>
       </c>
       <c r="J119" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K119" t="n">
         <v>0</v>
       </c>
       <c r="L119" t="n">
-        <v>0.462253794778385</v>
+        <v>0.482205226258763</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>Er-tpy</t>
+          <t>Ca-phen</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>0.4906300803695266</v>
+        <v>0.5208280744173287</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Co</t>
+          <t>Mo</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -6423,92 +6423,92 @@
         <v>6</v>
       </c>
       <c r="E120" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F120" t="n">
-        <v>3.077</v>
+        <v>4.348</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
       </c>
       <c r="H120" t="n">
-        <v>1.88</v>
+        <v>2.16</v>
       </c>
       <c r="I120" t="n">
-        <v>0.65</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L120" t="n">
-        <v>0.460876238865889</v>
+        <v>0.479833030852995</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>Co-bpy</t>
+          <t>Mo-tpy</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>0.4529963283094147</v>
+        <v>0.4821971850567068</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>La</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C121" t="n">
         <v>3.04</v>
       </c>
       <c r="D121" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F121" t="n">
-        <v>3.071</v>
+        <v>2.467</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
       </c>
       <c r="H121" t="n">
-        <v>0.977</v>
+        <v>1.1</v>
       </c>
       <c r="I121" t="n">
-        <v>0.977</v>
+        <v>1.216</v>
       </c>
       <c r="J121" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K121" t="n">
         <v>0</v>
       </c>
       <c r="L121" t="n">
-        <v>0.460305444887118</v>
+        <v>0.479287795992714</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>Lu-phen</t>
+          <t>La-tpy</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>0.5124944223275885</v>
+        <v>0.5327447206470679</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Fe</t>
+          <t>Ti</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6526,39 +6526,39 @@
         <v>3</v>
       </c>
       <c r="F122" t="n">
-        <v>3.279</v>
+        <v>6.612</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
       </c>
       <c r="H122" t="n">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="I122" t="n">
-        <v>0.61</v>
+        <v>0.605</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
       </c>
       <c r="K122" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
-        <v>0.460184397163121</v>
+        <v>0.476920099875156</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>Fe-tpy</t>
+          <t>Ti-tpy</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>0.437287058687086</v>
+        <v>0.4873382965679843</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Gd</t>
+          <t>Cu</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6570,45 +6570,45 @@
         <v>3.04</v>
       </c>
       <c r="D123" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E123" t="n">
         <v>2</v>
       </c>
       <c r="F123" t="n">
-        <v>2.849</v>
+        <v>3.509</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
       </c>
       <c r="H123" t="n">
-        <v>1.053</v>
+        <v>0.57</v>
       </c>
       <c r="I123" t="n">
-        <v>1.053</v>
+        <v>0.57</v>
       </c>
       <c r="J123" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L123" t="n">
-        <v>0.458598513963618</v>
+        <v>0.476552058432935</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>Gd-phen</t>
+          <t>Cu-phen</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>0.4964620650126118</v>
+        <v>0.4901401294794372</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Ir</t>
+          <t>Co</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6626,89 +6626,89 @@
         <v>2</v>
       </c>
       <c r="F124" t="n">
-        <v>4.412</v>
+        <v>3.077</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>0.68</v>
+        <v>1.88</v>
       </c>
       <c r="I124" t="n">
-        <v>0.68</v>
+        <v>0.745</v>
       </c>
       <c r="J124" t="n">
         <v>0</v>
       </c>
       <c r="K124" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L124" t="n">
-        <v>0.457119047619048</v>
+        <v>0.475532503457815</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>Ir-phen</t>
+          <t>Co-phen</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>0.515454196075436</v>
+        <v>0.4893876436317369</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Mn</t>
+          <t>La</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C125" t="n">
         <v>3.04</v>
       </c>
       <c r="D125" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F125" t="n">
-        <v>2.985</v>
+        <v>2.586</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>1.55</v>
+        <v>1.16</v>
       </c>
       <c r="I125" t="n">
-        <v>0.67</v>
+        <v>1.16</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
-        <v>0.456794326241135</v>
+        <v>0.475358173378497</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>Mn-tpy</t>
+          <t>La-phen</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>0.5024816162665668</v>
+        <v>0.5014410652369858</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Pd</t>
+          <t>Pt</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6726,16 +6726,16 @@
         <v>2</v>
       </c>
       <c r="F126" t="n">
-        <v>3.125</v>
+        <v>3.333</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="I126" t="n">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -6744,26 +6744,26 @@
         <v>8</v>
       </c>
       <c r="L126" t="n">
-        <v>0.456742081447964</v>
+        <v>0.472354256508545</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>Pd-phen</t>
+          <t>Pt-phen</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>0.4665382154198296</v>
+        <v>0.5103852871125211</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>Mn</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -6773,51 +6773,51 @@
         <v>6</v>
       </c>
       <c r="E127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F127" t="n">
-        <v>2.532</v>
+        <v>2.985</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="I127" t="n">
-        <v>0.79</v>
+        <v>0.67</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L127" t="n">
-        <v>0.453990701606086</v>
+        <v>0.471207014415218</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>V-phen</t>
+          <t>Mn-tpy</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>0.5273202560056789</v>
+        <v>0.5401456015904439</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Ru</t>
+          <t>Ir</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D128" t="n">
         <v>6</v>
@@ -6829,10 +6829,10 @@
         <v>4.412</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>2.2</v>
+        <v>0.68</v>
       </c>
       <c r="I128" t="n">
         <v>0.68</v>
@@ -6844,121 +6844,121 @@
         <v>6</v>
       </c>
       <c r="L128" t="n">
-        <v>0.452385685884692</v>
+        <v>0.470604001861331</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>Ru-cooh</t>
+          <t>Ir-phen</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>0.4557322425086311</v>
+        <v>0.5253390781092594</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Cr</t>
+          <t>Cu</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>bpy</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C129" t="n">
         <v>3.04</v>
       </c>
       <c r="D129" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E129" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F129" t="n">
-        <v>4.878</v>
+        <v>3.077</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>1.66</v>
+        <v>1.9</v>
       </c>
       <c r="I129" t="n">
-        <v>0.615</v>
+        <v>0.65</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L129" t="n">
-        <v>0.450734189972285</v>
+        <v>0.468654761904762</v>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>Cr-bpy</t>
+          <t>Cu-tpy</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>0.4551766787290711</v>
+        <v>0.4739003570827094</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Fe</t>
+          <t>Ce</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D130" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E130" t="n">
         <v>2</v>
       </c>
       <c r="F130" t="n">
-        <v>4.651</v>
+        <v>2.625</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130" t="n">
-        <v>1.83</v>
+        <v>1.143</v>
       </c>
       <c r="I130" t="n">
-        <v>0.645</v>
+        <v>1.143</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K130" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
-        <v>0.45031629153269</v>
+        <v>0.468058882235529</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>Fe-cooh</t>
+          <t>Ce-phen</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>0.4736244430324994</v>
+        <v>0.4959330077082915</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Er</t>
+          <t>Dy</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -6976,98 +6976,98 @@
         <v>2</v>
       </c>
       <c r="F131" t="n">
-        <v>2.988</v>
+        <v>2.921</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>1.004</v>
+        <v>1.027</v>
       </c>
       <c r="I131" t="n">
-        <v>1.004</v>
+        <v>1.027</v>
       </c>
       <c r="J131" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K131" t="n">
         <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>0.450271553361185</v>
+        <v>0.467538522323192</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>Er-phen</t>
+          <t>Dy-phen</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>0.488875648372974</v>
+        <v>0.4961758112459337</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Ti</t>
+          <t>Er</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C132" t="n">
         <v>3.04</v>
       </c>
       <c r="D132" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F132" t="n">
-        <v>6.612</v>
+        <v>2.988</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>1.54</v>
+        <v>1.004</v>
       </c>
       <c r="I132" t="n">
-        <v>0.605</v>
+        <v>1.004</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K132" t="n">
         <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>0.4500886981402</v>
+        <v>0.4675250501002</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>Ti-tpy</t>
+          <t>Er-phen</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>0.4850810342868609</v>
+        <v>0.4986918505202177</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Co</t>
+          <t>Rh</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D133" t="n">
         <v>6</v>
@@ -7076,39 +7076,39 @@
         <v>2</v>
       </c>
       <c r="F133" t="n">
-        <v>2.685</v>
+        <v>4.511</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
-        <v>1.88</v>
+        <v>0.665</v>
       </c>
       <c r="I133" t="n">
-        <v>0.745</v>
+        <v>0.665</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L133" t="n">
-        <v>0.444385628742515</v>
+        <v>0.466008292610692</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>Co-cooh</t>
+          <t>Rh-phen</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>0.4458883183788635</v>
+        <v>0.5029061950074087</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Cu</t>
+          <t>Yb</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -7120,45 +7120,45 @@
         <v>3.04</v>
       </c>
       <c r="D134" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E134" t="n">
         <v>2</v>
       </c>
       <c r="F134" t="n">
-        <v>3.509</v>
+        <v>3.046</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
       </c>
       <c r="H134" t="n">
-        <v>0.57</v>
+        <v>0.985</v>
       </c>
       <c r="I134" t="n">
-        <v>0.57</v>
+        <v>0.985</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K134" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L134" t="n">
-        <v>0.441380523342254</v>
+        <v>0.464960127591707</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>Cu-phen</t>
+          <t>Yb-phen</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>0.4891610830060453</v>
+        <v>0.5157834379178817</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Rh</t>
+          <t>Gd</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -7170,145 +7170,145 @@
         <v>3.04</v>
       </c>
       <c r="D135" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E135" t="n">
         <v>2</v>
       </c>
       <c r="F135" t="n">
-        <v>4.511</v>
+        <v>2.849</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
       </c>
       <c r="H135" t="n">
-        <v>0.665</v>
+        <v>1.053</v>
       </c>
       <c r="I135" t="n">
-        <v>0.665</v>
+        <v>1.053</v>
       </c>
       <c r="J135" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K135" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L135" t="n">
-        <v>0.436033226152197</v>
+        <v>0.464905956112853</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>Rh-phen</t>
+          <t>Gd-phen</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>0.4843917136496874</v>
+        <v>0.5800714526025914</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Pd</t>
+          <t>Nd</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C136" t="n">
         <v>3.04</v>
       </c>
       <c r="D136" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E136" t="n">
+        <v>2</v>
+      </c>
+      <c r="F136" t="n">
+        <v>2.705</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1</v>
+      </c>
+      <c r="H136" t="n">
+        <v>1.109</v>
+      </c>
+      <c r="I136" t="n">
+        <v>1.109</v>
+      </c>
+      <c r="J136" t="n">
         <v>3</v>
       </c>
-      <c r="F136" t="n">
-        <v>3.125</v>
-      </c>
-      <c r="G136" t="n">
-        <v>1</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
       <c r="K136" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
-        <v>0.431894389438944</v>
+        <v>0.464059211360467</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>Pd-tpy</t>
+          <t>Nd-phen</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>0.4343401897898326</v>
+        <v>0.4867761345031222</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Ru</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C137" t="n">
         <v>3.04</v>
       </c>
       <c r="D137" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F137" t="n">
-        <v>2.941</v>
+        <v>3.071</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
       </c>
       <c r="H137" t="n">
-        <v>2.2</v>
+        <v>0.977</v>
       </c>
       <c r="I137" t="n">
-        <v>0.68</v>
+        <v>0.977</v>
       </c>
       <c r="J137" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K137" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L137" t="n">
-        <v>0.429326908249807</v>
+        <v>0.462251169004676</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>Ru-tpy</t>
+          <t>Lu-phen</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>0.4421057190883357</v>
+        <v>0.4884107951492614</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Co</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -7326,83 +7326,83 @@
         <v>2</v>
       </c>
       <c r="F138" t="n">
-        <v>3.077</v>
+        <v>2.532</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
       </c>
       <c r="H138" t="n">
-        <v>1.88</v>
+        <v>1.63</v>
       </c>
       <c r="I138" t="n">
-        <v>0.745</v>
+        <v>0.79</v>
       </c>
       <c r="J138" t="n">
         <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L138" t="n">
-        <v>0.424676071055381</v>
+        <v>0.45958064516129</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>Co-phen</t>
+          <t>V-phen</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>0.445855662190151</v>
+        <v>0.5002152956548197</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Cr</t>
+          <t>Ho</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>cooh</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>3.44</v>
+        <v>3.04</v>
       </c>
       <c r="D139" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E139" t="n">
         <v>2</v>
       </c>
       <c r="F139" t="n">
-        <v>4.878</v>
+        <v>2.956</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
-        <v>1.66</v>
+        <v>1.015</v>
       </c>
       <c r="I139" t="n">
-        <v>0.615</v>
+        <v>1.015</v>
       </c>
       <c r="J139" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K139" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L139" t="n">
-        <v>0.424142156862745</v>
+        <v>0.457235536657647</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>Cr-cooh</t>
+          <t>Ho-phen</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>0.4488162304589624</v>
+        <v>0.4810936727413325</v>
       </c>
     </row>
     <row r="140">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -7423,7 +7423,7 @@
         <v>6</v>
       </c>
       <c r="E140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F140" t="n">
         <v>4.878</v>
@@ -7444,26 +7444,26 @@
         <v>3</v>
       </c>
       <c r="L140" t="n">
-        <v>0.423362453292102</v>
+        <v>0.456987473266117</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>Cr-tpy</t>
+          <t>Cr-phen</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>0.4438654211585825</v>
+        <v>0.493189632594549</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Co</t>
+          <t>Mo</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>tpy</t>
+          <t>phen</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -7473,42 +7473,42 @@
         <v>6</v>
       </c>
       <c r="E141" t="n">
+        <v>2</v>
+      </c>
+      <c r="F141" t="n">
+        <v>4.348</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
         <v>3</v>
       </c>
-      <c r="F141" t="n">
-        <v>3.077</v>
-      </c>
-      <c r="G141" t="n">
-        <v>1</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
-      <c r="K141" t="n">
-        <v>7</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.422195511601369</v>
+        <v>0.455660145249741</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>Co-tpy</t>
+          <t>Mo-phen</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>0.444945502591323</v>
+        <v>0.4821786957715965</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Fe</t>
+          <t>Sm</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -7520,45 +7520,45 @@
         <v>3.04</v>
       </c>
       <c r="D142" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E142" t="n">
         <v>2</v>
       </c>
       <c r="F142" t="n">
-        <v>3.279</v>
+        <v>2.78</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
       </c>
       <c r="H142" t="n">
-        <v>1.83</v>
+        <v>1.079</v>
       </c>
       <c r="I142" t="n">
-        <v>0.61</v>
+        <v>1.079</v>
       </c>
       <c r="J142" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K142" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L142" t="n">
-        <v>0.409727272727273</v>
+        <v>0.452485294117647</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>Fe-phen</t>
+          <t>Sm-phen</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>0.4453378844051776</v>
+        <v>0.4976157739967907</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Pt</t>
+          <t>Tm</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -7570,45 +7570,45 @@
         <v>3.04</v>
       </c>
       <c r="D143" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E143" t="n">
         <v>2</v>
       </c>
       <c r="F143" t="n">
-        <v>3.333</v>
+        <v>2.852</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
       </c>
       <c r="H143" t="n">
-        <v>0.6</v>
+        <v>0.994</v>
       </c>
       <c r="I143" t="n">
-        <v>0.6</v>
+        <v>0.994</v>
       </c>
       <c r="J143" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K143" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
-        <v>0.399361173253791</v>
+        <v>0.45200976612696</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>Pt-phen</t>
+          <t>Tm-phen</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>0.4682349938685744</v>
+        <v>0.466617613372252</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Ho</t>
+          <t>Zr</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7620,50 +7620,50 @@
         <v>3.04</v>
       </c>
       <c r="D144" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E144" t="n">
         <v>2</v>
       </c>
       <c r="F144" t="n">
-        <v>2.956</v>
+        <v>5.556</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
       </c>
       <c r="H144" t="n">
-        <v>1.015</v>
+        <v>0.72</v>
       </c>
       <c r="I144" t="n">
-        <v>1.015</v>
+        <v>0.72</v>
       </c>
       <c r="J144" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K144" t="n">
         <v>0</v>
       </c>
       <c r="L144" t="n">
-        <v>0.398175853018373</v>
+        <v>0.414628369866465</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>Ho-phen</t>
+          <t>Zr-phen</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>0.5087666331490961</v>
+        <v>0.5248355684823509</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Ni</t>
+          <t>W</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>phen</t>
+          <t>tpy</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -7673,36 +7673,36 @@
         <v>6</v>
       </c>
       <c r="E145" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F145" t="n">
-        <v>2.899</v>
+        <v>10</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
       </c>
       <c r="H145" t="n">
-        <v>1.91</v>
+        <v>2.36</v>
       </c>
       <c r="I145" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="J145" t="n">
         <v>0</v>
       </c>
       <c r="K145" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L145" t="n">
-        <v>0.38812865497076</v>
+        <v>0.370939632545932</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>Ni-phen</t>
+          <t>W-tpy</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>0.4652107258904765</v>
+        <v>0.373831884754241</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/predicted_with_all_scores.xlsx
+++ b/outputs/predicted_with_all_scores.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.8418670457771255</v>
+        <v>0.8045361408511522</v>
       </c>
     </row>
     <row r="3">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.7437524293374532</v>
+        <v>0.6824005584686895</v>
       </c>
     </row>
     <row r="4">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.7208683013187339</v>
+        <v>0.7206386307661253</v>
       </c>
     </row>
     <row r="5">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.7346646999625425</v>
+        <v>0.7458694354685947</v>
       </c>
     </row>
     <row r="6">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.6987412593774934</v>
+        <v>0.6243374426641976</v>
       </c>
     </row>
     <row r="7">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.7122242607771581</v>
+        <v>0.7172153037300517</v>
       </c>
     </row>
     <row r="8">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.7496373098745643</v>
+        <v>0.7546609400815852</v>
       </c>
     </row>
     <row r="9">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.7056631709146681</v>
+        <v>0.6394657974582915</v>
       </c>
     </row>
     <row r="10">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.6931592157607195</v>
+        <v>0.6971211795644153</v>
       </c>
     </row>
     <row r="11">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.6304543701756324</v>
+        <v>0.6392303984879666</v>
       </c>
     </row>
     <row r="12">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.6625897759588465</v>
+        <v>0.6702102159124891</v>
       </c>
     </row>
     <row r="13">
@@ -1102,7 +1102,7 @@
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.8048369390320433</v>
+        <v>0.7448791552588919</v>
       </c>
     </row>
     <row r="14">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.6437615672324837</v>
+        <v>0.66729011733773</v>
       </c>
     </row>
     <row r="15">
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.6680422417072969</v>
+        <v>0.6741027876396519</v>
       </c>
     </row>
     <row r="16">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>0.6631745457618895</v>
+        <v>0.6342108052826548</v>
       </c>
     </row>
     <row r="17">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.6412892754840561</v>
+        <v>0.6106146820343197</v>
       </c>
     </row>
     <row r="18">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.6611127780022398</v>
+        <v>0.6639730714790046</v>
       </c>
     </row>
     <row r="19">
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0.6024451455093381</v>
+        <v>0.6065714073706688</v>
       </c>
     </row>
     <row r="20">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.6845340601948066</v>
+        <v>0.6620860866500188</v>
       </c>
     </row>
     <row r="21">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="N21" t="n">
-        <v>0.6532354653494377</v>
+        <v>0.648062857622019</v>
       </c>
     </row>
     <row r="22">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="N22" t="n">
-        <v>0.6386068898619659</v>
+        <v>0.646034175008964</v>
       </c>
     </row>
     <row r="23">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>0.5573749802854877</v>
+        <v>0.5575625776892523</v>
       </c>
     </row>
     <row r="24">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>0.6519311542302545</v>
+        <v>0.6620860866500188</v>
       </c>
     </row>
     <row r="25">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="N25" t="n">
-        <v>0.6421204306896025</v>
+        <v>0.6425847196123533</v>
       </c>
     </row>
     <row r="26">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="N26" t="n">
-        <v>0.6439621517910681</v>
+        <v>0.6589901448962939</v>
       </c>
     </row>
     <row r="27">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>0.6300690413522232</v>
+        <v>0.6322682990404656</v>
       </c>
     </row>
     <row r="28">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>0.6507080680847169</v>
+        <v>0.6523985802263057</v>
       </c>
     </row>
     <row r="29">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="N29" t="n">
-        <v>0.6386068898619659</v>
+        <v>0.646034175008964</v>
       </c>
     </row>
     <row r="30">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>0.6347516072941857</v>
+        <v>0.6373242669165448</v>
       </c>
     </row>
     <row r="31">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>0.6651227535343907</v>
+        <v>0.6706065580462303</v>
       </c>
     </row>
     <row r="32">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="N32" t="n">
-        <v>0.6092401801417143</v>
+        <v>0.5918691972062565</v>
       </c>
     </row>
     <row r="33">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="N33" t="n">
-        <v>0.6261536813038817</v>
+        <v>0.6234722347020699</v>
       </c>
     </row>
     <row r="34">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>0.6265296041382061</v>
+        <v>0.6255440502057072</v>
       </c>
     </row>
     <row r="35">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>0.5804350098227848</v>
+        <v>0.5706068037823029</v>
       </c>
     </row>
     <row r="36">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>0.5795712577946703</v>
+        <v>0.5906476988179326</v>
       </c>
     </row>
     <row r="37">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>0.6044219754130878</v>
+        <v>0.5750869748584927</v>
       </c>
     </row>
     <row r="38">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="N38" t="n">
-        <v>0.6003925881604439</v>
+        <v>0.5843801102859909</v>
       </c>
     </row>
     <row r="39">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="N39" t="n">
-        <v>0.5248355684823509</v>
+        <v>0.5074703547007139</v>
       </c>
     </row>
     <row r="40">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>0.6003925881604439</v>
+        <v>0.5843801102859909</v>
       </c>
     </row>
     <row r="41">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>0.5253390781092594</v>
+        <v>0.5286205539255839</v>
       </c>
     </row>
     <row r="42">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>0.5494232290112218</v>
+        <v>0.5567211596467514</v>
       </c>
     </row>
     <row r="43">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="N43" t="n">
-        <v>0.6024451455093381</v>
+        <v>0.6065714073706688</v>
       </c>
     </row>
     <row r="44">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="N44" t="n">
-        <v>0.5699416029566932</v>
+        <v>0.564719685772969</v>
       </c>
     </row>
     <row r="45">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="N45" t="n">
-        <v>0.5103852871125211</v>
+        <v>0.5084224796098412</v>
       </c>
     </row>
     <row r="46">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>0.5212315271588136</v>
+        <v>0.5182473606288405</v>
       </c>
     </row>
     <row r="47">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="N47" t="n">
-        <v>0.4935023709440107</v>
+        <v>0.4924281806592474</v>
       </c>
     </row>
     <row r="48">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>0.493189632594549</v>
+        <v>0.4933603810452006</v>
       </c>
     </row>
     <row r="49">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>0.5157834379178817</v>
+        <v>0.5111216815422869</v>
       </c>
     </row>
     <row r="50">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>0.5029061950074087</v>
+        <v>0.500229959023833</v>
       </c>
     </row>
     <row r="51">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>0.5494232290112218</v>
+        <v>0.5567211596467514</v>
       </c>
     </row>
     <row r="52">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="N52" t="n">
-        <v>0.5002152956548197</v>
+        <v>0.4964307818269875</v>
       </c>
     </row>
     <row r="53">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>0.5385340752614093</v>
+        <v>0.5421789375286786</v>
       </c>
     </row>
     <row r="54">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>0.5208280744173287</v>
+        <v>0.5299540311367741</v>
       </c>
     </row>
     <row r="55">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>0.5168979964777075</v>
+        <v>0.5193895739791092</v>
       </c>
     </row>
     <row r="56">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>0.5158474679499144</v>
+        <v>0.5166760655294695</v>
       </c>
     </row>
     <row r="57">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="N57" t="n">
-        <v>0.4831412876154432</v>
+        <v>0.4851403060520275</v>
       </c>
     </row>
     <row r="58">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="N58" t="n">
-        <v>0.5119603330551751</v>
+        <v>0.5132330493650481</v>
       </c>
     </row>
     <row r="59">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="N59" t="n">
-        <v>0.5204278784441407</v>
+        <v>0.5158422844137636</v>
       </c>
     </row>
     <row r="60">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="N60" t="n">
-        <v>0.5223109958090494</v>
+        <v>0.5179155586069684</v>
       </c>
     </row>
     <row r="61">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="N61" t="n">
-        <v>0.4959330077082915</v>
+        <v>0.4917150286691034</v>
       </c>
     </row>
     <row r="62">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="N62" t="n">
-        <v>0.5159068039155098</v>
+        <v>0.5165517512014305</v>
       </c>
     </row>
     <row r="63">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="N63" t="n">
-        <v>0.5168979964777075</v>
+        <v>0.5179497407584318</v>
       </c>
     </row>
     <row r="64">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="N64" t="n">
-        <v>0.5208975564542733</v>
+        <v>0.5150750210870919</v>
       </c>
     </row>
     <row r="65">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="N65" t="n">
-        <v>0.5014410652369858</v>
+        <v>0.4969534807220833</v>
       </c>
     </row>
     <row r="66">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="N66" t="n">
-        <v>0.507567959589187</v>
+        <v>0.511618231438342</v>
       </c>
     </row>
     <row r="67">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="N67" t="n">
-        <v>0.4986918505202177</v>
+        <v>0.4716890769333375</v>
       </c>
     </row>
     <row r="68">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="N68" t="n">
-        <v>0.5124612444279861</v>
+        <v>0.5112231305215486</v>
       </c>
     </row>
     <row r="69">
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>0.5119002253288535</v>
+        <v>0.5162486795852929</v>
       </c>
     </row>
     <row r="70">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="N70" t="n">
-        <v>0.5129452637296932</v>
+        <v>0.5144914034805076</v>
       </c>
     </row>
     <row r="71">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="N71" t="n">
-        <v>0.5409645297620594</v>
+        <v>0.5158929263212834</v>
       </c>
     </row>
     <row r="72">
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="N72" t="n">
-        <v>0.5179651914673508</v>
+        <v>0.5129544613874899</v>
       </c>
     </row>
     <row r="73">
@@ -4102,7 +4102,7 @@
         </is>
       </c>
       <c r="N73" t="n">
-        <v>0.4976157739967907</v>
+        <v>0.5011646300270653</v>
       </c>
     </row>
     <row r="74">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="N74" t="n">
-        <v>0.4961758112459337</v>
+        <v>0.4993896504163902</v>
       </c>
     </row>
     <row r="75">
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>0.5682972703175201</v>
+        <v>0.5334081781146718</v>
       </c>
     </row>
     <row r="76">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="N76" t="n">
-        <v>0.526685772607963</v>
+        <v>0.5195111226453772</v>
       </c>
     </row>
     <row r="77">
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="N77" t="n">
-        <v>0.5142796483782837</v>
+        <v>0.5109875256136545</v>
       </c>
     </row>
     <row r="78">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="N78" t="n">
-        <v>0.4884107951492614</v>
+        <v>0.4886319434913194</v>
       </c>
     </row>
     <row r="79">
@@ -4402,7 +4402,7 @@
         </is>
       </c>
       <c r="N79" t="n">
-        <v>0.5129904175292391</v>
+        <v>0.5124645356903745</v>
       </c>
     </row>
     <row r="80">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>0.5143192373721993</v>
+        <v>0.5123710347190219</v>
       </c>
     </row>
     <row r="81">
@@ -4502,7 +4502,7 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>0.4810936727413325</v>
+        <v>0.4846784489619198</v>
       </c>
     </row>
     <row r="82">
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>0.5000912894826307</v>
+        <v>0.5104613428066304</v>
       </c>
     </row>
     <row r="83">
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="N83" t="n">
-        <v>0.5088106386458588</v>
+        <v>0.534794466305297</v>
       </c>
     </row>
     <row r="84">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="N84" t="n">
-        <v>0.5833448976463919</v>
+        <v>0.5244751523648906</v>
       </c>
     </row>
     <row r="85">
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="N85" t="n">
-        <v>0.5134086145608104</v>
+        <v>0.5170623733311569</v>
       </c>
     </row>
     <row r="86">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="N86" t="n">
-        <v>0.4867761345031222</v>
+        <v>0.4888381912439083</v>
       </c>
     </row>
     <row r="87">
@@ -4802,7 +4802,7 @@
         </is>
       </c>
       <c r="N87" t="n">
-        <v>0.5062574497358698</v>
+        <v>0.5111668520589538</v>
       </c>
     </row>
     <row r="88">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="N88" t="n">
-        <v>0.4821786957715965</v>
+        <v>0.4803005734329527</v>
       </c>
     </row>
     <row r="89">
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="N89" t="n">
-        <v>0.507567959589187</v>
+        <v>0.511675658394048</v>
       </c>
     </row>
     <row r="90">
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="N90" t="n">
-        <v>0.5087007384284945</v>
+        <v>0.5062725780126338</v>
       </c>
     </row>
     <row r="91">
@@ -5002,7 +5002,7 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>0.5045678863223442</v>
+        <v>0.5096281977310684</v>
       </c>
     </row>
     <row r="92">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>0.5077237912503441</v>
+        <v>0.5077291311975447</v>
       </c>
     </row>
     <row r="93">
@@ -5102,7 +5102,7 @@
         </is>
       </c>
       <c r="N93" t="n">
-        <v>0.5263578111856801</v>
+        <v>0.5129972071312739</v>
       </c>
     </row>
     <row r="94">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="N94" t="n">
-        <v>0.4960285371271203</v>
+        <v>0.526492131191328</v>
       </c>
     </row>
     <row r="95">
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="N95" t="n">
-        <v>0.5095007298356775</v>
+        <v>0.508081958805827</v>
       </c>
     </row>
     <row r="96">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="N96" t="n">
-        <v>0.521250016443924</v>
+        <v>0.5135046727778124</v>
       </c>
     </row>
     <row r="97">
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>0.4918261928941319</v>
+        <v>0.4953326399995456</v>
       </c>
     </row>
     <row r="98">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="N98" t="n">
-        <v>0.4990590777558123</v>
+        <v>0.5022708333623561</v>
       </c>
     </row>
     <row r="99">
@@ -5402,7 +5402,7 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>0.4899511874961291</v>
+        <v>0.4916479431069506</v>
       </c>
     </row>
     <row r="100">
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="N100" t="n">
-        <v>0.4901401294794372</v>
+        <v>0.4884743182141376</v>
       </c>
     </row>
     <row r="101">
@@ -5502,7 +5502,7 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>0.509975587127099</v>
+        <v>0.5055142962678248</v>
       </c>
     </row>
     <row r="102">
@@ -5552,7 +5552,7 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>0.5111047193547064</v>
+        <v>0.5138962986591448</v>
       </c>
     </row>
     <row r="103">
@@ -5602,7 +5602,7 @@
         </is>
       </c>
       <c r="N103" t="n">
-        <v>0.493520860229121</v>
+        <v>0.4953113101748612</v>
       </c>
     </row>
     <row r="104">
@@ -5652,7 +5652,7 @@
         </is>
       </c>
       <c r="N104" t="n">
-        <v>0.4932081218796593</v>
+        <v>0.4943416467974673</v>
       </c>
     </row>
     <row r="105">
@@ -5702,7 +5702,7 @@
         </is>
       </c>
       <c r="N105" t="n">
-        <v>0.4924986508133797</v>
+        <v>0.4994303964426625</v>
       </c>
     </row>
     <row r="106">
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="N106" t="n">
-        <v>0.490578611045357</v>
+        <v>0.4958771607356545</v>
       </c>
     </row>
     <row r="107">
@@ -5802,7 +5802,7 @@
         </is>
       </c>
       <c r="N107" t="n">
-        <v>0.5573749802854877</v>
+        <v>0.5575625776892523</v>
       </c>
     </row>
     <row r="108">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="N108" t="n">
-        <v>0.4901014587909368</v>
+        <v>0.502327677870589</v>
       </c>
     </row>
     <row r="109">
@@ -5902,7 +5902,7 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>0.5074761795999053</v>
+        <v>0.5069646534213536</v>
       </c>
     </row>
     <row r="110">
@@ -5952,7 +5952,7 @@
         </is>
       </c>
       <c r="N110" t="n">
-        <v>0.4935848620539141</v>
+        <v>0.491046908062412</v>
       </c>
     </row>
     <row r="111">
@@ -6002,7 +6002,7 @@
         </is>
       </c>
       <c r="N111" t="n">
-        <v>0.5023837738694719</v>
+        <v>0.498266171819329</v>
       </c>
     </row>
     <row r="112">
@@ -6052,7 +6052,7 @@
         </is>
       </c>
       <c r="N112" t="n">
-        <v>0.4897773084825779</v>
+        <v>0.494479844665192</v>
       </c>
     </row>
     <row r="113">
@@ -6102,7 +6102,7 @@
         </is>
       </c>
       <c r="N113" t="n">
-        <v>0.4864561318414493</v>
+        <v>0.4960412823737652</v>
       </c>
     </row>
     <row r="114">
@@ -6152,7 +6152,7 @@
         </is>
       </c>
       <c r="N114" t="n">
-        <v>0.4838729665602899</v>
+        <v>0.4862726679680586</v>
       </c>
     </row>
     <row r="115">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="N115" t="n">
-        <v>0.5212315271588136</v>
+        <v>0.5182473606288405</v>
       </c>
     </row>
     <row r="116">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="N116" t="n">
-        <v>0.4935023709440107</v>
+        <v>0.4924281806592474</v>
       </c>
     </row>
     <row r="117">
@@ -6302,7 +6302,7 @@
         </is>
       </c>
       <c r="N117" t="n">
-        <v>0.4897998001102922</v>
+        <v>0.4895049387168147</v>
       </c>
     </row>
     <row r="118">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="N118" t="n">
-        <v>0.5059314667546451</v>
+        <v>0.5413436139950268</v>
       </c>
     </row>
     <row r="119">
@@ -6402,7 +6402,7 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>0.5208280744173287</v>
+        <v>0.5299540311367741</v>
       </c>
     </row>
     <row r="120">
@@ -6452,7 +6452,7 @@
         </is>
       </c>
       <c r="N120" t="n">
-        <v>0.4821971850567068</v>
+        <v>0.4832306261667768</v>
       </c>
     </row>
     <row r="121">
@@ -6502,7 +6502,7 @@
         </is>
       </c>
       <c r="N121" t="n">
-        <v>0.5327447206470679</v>
+        <v>0.5106740694371809</v>
       </c>
     </row>
     <row r="122">
@@ -6552,7 +6552,7 @@
         </is>
       </c>
       <c r="N122" t="n">
-        <v>0.4873382965679843</v>
+        <v>0.5199210287921037</v>
       </c>
     </row>
     <row r="123">
@@ -6602,7 +6602,7 @@
         </is>
       </c>
       <c r="N123" t="n">
-        <v>0.4901401294794372</v>
+        <v>0.4884743182141376</v>
       </c>
     </row>
     <row r="124">
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="N124" t="n">
-        <v>0.4893876436317369</v>
+        <v>0.4792578365415072</v>
       </c>
     </row>
     <row r="125">
@@ -6702,7 +6702,7 @@
         </is>
       </c>
       <c r="N125" t="n">
-        <v>0.5014410652369858</v>
+        <v>0.4969534807220833</v>
       </c>
     </row>
     <row r="126">
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="N126" t="n">
-        <v>0.5103852871125211</v>
+        <v>0.5084224796098412</v>
       </c>
     </row>
     <row r="127">
@@ -6802,7 +6802,7 @@
         </is>
       </c>
       <c r="N127" t="n">
-        <v>0.5401456015904439</v>
+        <v>0.5134217372265141</v>
       </c>
     </row>
     <row r="128">
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="N128" t="n">
-        <v>0.5253390781092594</v>
+        <v>0.5286205539255839</v>
       </c>
     </row>
     <row r="129">
@@ -6902,7 +6902,7 @@
         </is>
       </c>
       <c r="N129" t="n">
-        <v>0.4739003570827094</v>
+        <v>0.4776876908334756</v>
       </c>
     </row>
     <row r="130">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="N130" t="n">
-        <v>0.4959330077082915</v>
+        <v>0.4917150286691034</v>
       </c>
     </row>
     <row r="131">
@@ -7002,7 +7002,7 @@
         </is>
       </c>
       <c r="N131" t="n">
-        <v>0.4961758112459337</v>
+        <v>0.4993896504163902</v>
       </c>
     </row>
     <row r="132">
@@ -7052,7 +7052,7 @@
         </is>
       </c>
       <c r="N132" t="n">
-        <v>0.4986918505202177</v>
+        <v>0.4716890769333375</v>
       </c>
     </row>
     <row r="133">
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="N133" t="n">
-        <v>0.5029061950074087</v>
+        <v>0.500229959023833</v>
       </c>
     </row>
     <row r="134">
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="N134" t="n">
-        <v>0.5157834379178817</v>
+        <v>0.5111216815422869</v>
       </c>
     </row>
     <row r="135">
@@ -7202,7 +7202,7 @@
         </is>
       </c>
       <c r="N135" t="n">
-        <v>0.5800714526025914</v>
+        <v>0.5841902534259727</v>
       </c>
     </row>
     <row r="136">
@@ -7252,7 +7252,7 @@
         </is>
       </c>
       <c r="N136" t="n">
-        <v>0.4867761345031222</v>
+        <v>0.4888381912439083</v>
       </c>
     </row>
     <row r="137">
@@ -7302,7 +7302,7 @@
         </is>
       </c>
       <c r="N137" t="n">
-        <v>0.4884107951492614</v>
+        <v>0.4886319434913194</v>
       </c>
     </row>
     <row r="138">
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="N138" t="n">
-        <v>0.5002152956548197</v>
+        <v>0.4964307818269875</v>
       </c>
     </row>
     <row r="139">
@@ -7402,7 +7402,7 @@
         </is>
       </c>
       <c r="N139" t="n">
-        <v>0.4810936727413325</v>
+        <v>0.4846784489619198</v>
       </c>
     </row>
     <row r="140">
@@ -7452,7 +7452,7 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>0.493189632594549</v>
+        <v>0.4933603810452006</v>
       </c>
     </row>
     <row r="141">
@@ -7502,7 +7502,7 @@
         </is>
       </c>
       <c r="N141" t="n">
-        <v>0.4821786957715965</v>
+        <v>0.4803005734329527</v>
       </c>
     </row>
     <row r="142">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="N142" t="n">
-        <v>0.4976157739967907</v>
+        <v>0.5011646300270653</v>
       </c>
     </row>
     <row r="143">
@@ -7602,7 +7602,7 @@
         </is>
       </c>
       <c r="N143" t="n">
-        <v>0.466617613372252</v>
+        <v>0.4902792631160333</v>
       </c>
     </row>
     <row r="144">
@@ -7652,7 +7652,7 @@
         </is>
       </c>
       <c r="N144" t="n">
-        <v>0.5248355684823509</v>
+        <v>0.5074703547007139</v>
       </c>
     </row>
     <row r="145">
@@ -7702,7 +7702,7 @@
         </is>
       </c>
       <c r="N145" t="n">
-        <v>0.373831884754241</v>
+        <v>0.4190721420065808</v>
       </c>
     </row>
   </sheetData>
